--- a/Models/case2_df_test.xlsx
+++ b/Models/case2_df_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>DATA</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>RU_JANTAR_PRED</t>
-  </si>
-  <si>
-    <t>pred_RNN_EXO_1_NEW_val</t>
   </si>
   <si>
     <t>pred_RNN_ENDO_1_NEW_test</t>
@@ -504,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS183"/>
+  <dimension ref="A1:AR183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +509,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,11 +642,8 @@
       <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:44">
       <c r="A2" s="2" t="n">
         <v>43516</v>
       </c>
@@ -759,34 +753,31 @@
         <v>65</v>
       </c>
       <c r="AK2" t="n">
-        <v>246.8822784423828</v>
+        <v>79.02071380615234</v>
       </c>
       <c r="AL2" t="n">
-        <v>72.99053192138672</v>
+        <v>62.57185363769531</v>
       </c>
       <c r="AM2" t="n">
-        <v>70.28033447265625</v>
+        <v>62.57185363769531</v>
       </c>
       <c r="AN2" t="n">
-        <v>70.28033447265625</v>
+        <v>67.31726837158203</v>
       </c>
       <c r="AO2" t="n">
-        <v>70.35414123535156</v>
+        <v>50.09191513061523</v>
       </c>
       <c r="AP2" t="n">
-        <v>123.2269973754883</v>
+        <v>456.3427124023438</v>
       </c>
       <c r="AQ2" t="n">
-        <v>677.9810180664062</v>
+        <v>382.4169616699219</v>
       </c>
       <c r="AR2" t="n">
-        <v>181.2189788818359</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>70.04519653320312</v>
+        <v>283.1768188476562</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:44">
       <c r="A3" s="2" t="n">
         <v>43517</v>
       </c>
@@ -896,34 +887,31 @@
         <v>35</v>
       </c>
       <c r="AK3" t="n">
-        <v>148.1609039306641</v>
+        <v>459.8487243652344</v>
       </c>
       <c r="AL3" t="n">
-        <v>547.8585205078125</v>
+        <v>347.05908203125</v>
       </c>
       <c r="AM3" t="n">
-        <v>488.5907897949219</v>
+        <v>347.05908203125</v>
       </c>
       <c r="AN3" t="n">
-        <v>488.5907897949219</v>
+        <v>432.8126220703125</v>
       </c>
       <c r="AO3" t="n">
-        <v>446.0233459472656</v>
+        <v>508.2830200195312</v>
       </c>
       <c r="AP3" t="n">
-        <v>559.566162109375</v>
+        <v>468.1358947753906</v>
       </c>
       <c r="AQ3" t="n">
-        <v>386.3844604492188</v>
+        <v>340.0367736816406</v>
       </c>
       <c r="AR3" t="n">
-        <v>249.4230651855469</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>45.05332183837891</v>
+        <v>151.2405242919922</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:44">
       <c r="A4" s="2" t="n">
         <v>43518</v>
       </c>
@@ -1033,34 +1021,31 @@
         <v>18</v>
       </c>
       <c r="AK4" t="n">
-        <v>170.1362609863281</v>
+        <v>388.5220947265625</v>
       </c>
       <c r="AL4" t="n">
-        <v>389.2665405273438</v>
+        <v>383.8847961425781</v>
       </c>
       <c r="AM4" t="n">
-        <v>417.3459777832031</v>
+        <v>383.8847961425781</v>
       </c>
       <c r="AN4" t="n">
-        <v>417.3459777832031</v>
+        <v>404.8041076660156</v>
       </c>
       <c r="AO4" t="n">
-        <v>430.747802734375</v>
+        <v>329.0900573730469</v>
       </c>
       <c r="AP4" t="n">
-        <v>412.9478759765625</v>
+        <v>418.1273803710938</v>
       </c>
       <c r="AQ4" t="n">
-        <v>417.173095703125</v>
+        <v>347.3157043457031</v>
       </c>
       <c r="AR4" t="n">
-        <v>225.4278869628906</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>73.30146026611328</v>
+        <v>204.5487365722656</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:44">
       <c r="A5" s="2" t="n">
         <v>43521</v>
       </c>
@@ -1170,34 +1155,31 @@
         <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>186.5532684326172</v>
+        <v>432.2352905273438</v>
       </c>
       <c r="AL5" t="n">
-        <v>411.6032104492188</v>
+        <v>294.3302612304688</v>
       </c>
       <c r="AM5" t="n">
-        <v>385.7132568359375</v>
+        <v>294.3302612304688</v>
       </c>
       <c r="AN5" t="n">
-        <v>385.7132568359375</v>
+        <v>400.81103515625</v>
       </c>
       <c r="AO5" t="n">
-        <v>425.3985900878906</v>
+        <v>304.0049438476562</v>
       </c>
       <c r="AP5" t="n">
-        <v>313.7438354492188</v>
+        <v>295.3589782714844</v>
       </c>
       <c r="AQ5" t="n">
-        <v>307.789306640625</v>
+        <v>256.3053588867188</v>
       </c>
       <c r="AR5" t="n">
-        <v>75.54066467285156</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>92.26744842529297</v>
+        <v>247.1794586181641</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:44">
       <c r="A6" s="2" t="n">
         <v>43522</v>
       </c>
@@ -1307,34 +1289,31 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>212.1382293701172</v>
+        <v>393.5121154785156</v>
       </c>
       <c r="AL6" t="n">
-        <v>366.7850036621094</v>
+        <v>329.1425476074219</v>
       </c>
       <c r="AM6" t="n">
-        <v>336.1748352050781</v>
+        <v>329.1425476074219</v>
       </c>
       <c r="AN6" t="n">
-        <v>336.1748352050781</v>
+        <v>411.1799621582031</v>
       </c>
       <c r="AO6" t="n">
-        <v>433.01708984375</v>
+        <v>418.61865234375</v>
       </c>
       <c r="AP6" t="n">
-        <v>460.8474426269531</v>
+        <v>323.483154296875</v>
       </c>
       <c r="AQ6" t="n">
-        <v>291.9849853515625</v>
+        <v>332.0132751464844</v>
       </c>
       <c r="AR6" t="n">
-        <v>206.2536010742188</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>192.2158660888672</v>
+        <v>299.5213317871094</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:44">
       <c r="A7" s="2" t="n">
         <v>43523</v>
       </c>
@@ -1444,34 +1423,31 @@
         <v>319</v>
       </c>
       <c r="AK7" t="n">
-        <v>280.2969970703125</v>
+        <v>467.4651489257812</v>
       </c>
       <c r="AL7" t="n">
-        <v>456.5209655761719</v>
+        <v>419.8269653320312</v>
       </c>
       <c r="AM7" t="n">
-        <v>461.1480407714844</v>
+        <v>419.8269653320312</v>
       </c>
       <c r="AN7" t="n">
-        <v>461.1480407714844</v>
+        <v>421.8538208007812</v>
       </c>
       <c r="AO7" t="n">
-        <v>436.6317138671875</v>
+        <v>442.6192016601562</v>
       </c>
       <c r="AP7" t="n">
-        <v>435.3277282714844</v>
+        <v>441.4451599121094</v>
       </c>
       <c r="AQ7" t="n">
-        <v>445.9134826660156</v>
+        <v>382.4036560058594</v>
       </c>
       <c r="AR7" t="n">
-        <v>253.9166564941406</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>214.7017211914062</v>
+        <v>323.7598266601562</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:44">
       <c r="A8" s="2" t="n">
         <v>43524</v>
       </c>
@@ -1581,36 +1557,33 @@
         <v>362</v>
       </c>
       <c r="AK8" t="n">
-        <v>271.5160522460938</v>
+        <v>515.9853515625</v>
       </c>
       <c r="AL8" t="n">
-        <v>509.4030456542969</v>
+        <v>436.3921508789062</v>
       </c>
       <c r="AM8" t="n">
-        <v>496.9489440917969</v>
+        <v>436.3921508789062</v>
       </c>
       <c r="AN8" t="n">
-        <v>496.9489440917969</v>
+        <v>420.134033203125</v>
       </c>
       <c r="AO8" t="n">
-        <v>435.0805969238281</v>
+        <v>475.7577819824219</v>
       </c>
       <c r="AP8" t="n">
-        <v>446.063232421875</v>
+        <v>467.5018005371094</v>
       </c>
       <c r="AQ8" t="n">
-        <v>475.5271911621094</v>
+        <v>397.7540893554688</v>
       </c>
       <c r="AR8" t="n">
-        <v>271.9928283691406</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>203.6018371582031</v>
+        <v>316.3048095703125</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:44">
       <c r="A9" s="2" t="n">
-        <v>43468</v>
+        <v>43525</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1718,36 +1691,33 @@
         <v>79</v>
       </c>
       <c r="AK9" t="n">
-        <v>206.8949890136719</v>
+        <v>372.2592468261719</v>
       </c>
       <c r="AL9" t="n">
-        <v>365.5458068847656</v>
+        <v>369.78369140625</v>
       </c>
       <c r="AM9" t="n">
-        <v>363.7164001464844</v>
+        <v>369.78369140625</v>
       </c>
       <c r="AN9" t="n">
-        <v>363.7164001464844</v>
+        <v>381.2704772949219</v>
       </c>
       <c r="AO9" t="n">
-        <v>405.0722961425781</v>
+        <v>302.0485534667969</v>
       </c>
       <c r="AP9" t="n">
-        <v>351.0216064453125</v>
+        <v>374.865234375</v>
       </c>
       <c r="AQ9" t="n">
-        <v>385.1083679199219</v>
+        <v>384.8721313476562</v>
       </c>
       <c r="AR9" t="n">
-        <v>325.9161376953125</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>197.0915985107422</v>
+        <v>354.6300964355469</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:44">
       <c r="A10" s="2" t="n">
-        <v>43649</v>
+        <v>43531</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -1855,36 +1825,33 @@
         <v>254</v>
       </c>
       <c r="AK10" t="n">
-        <v>272.0995178222656</v>
+        <v>373.20068359375</v>
       </c>
       <c r="AL10" t="n">
-        <v>370.3326110839844</v>
+        <v>330.5577392578125</v>
       </c>
       <c r="AM10" t="n">
-        <v>380.3253479003906</v>
+        <v>330.5577392578125</v>
       </c>
       <c r="AN10" t="n">
-        <v>380.3253479003906</v>
+        <v>392.5093383789062</v>
       </c>
       <c r="AO10" t="n">
-        <v>395.8954467773438</v>
+        <v>333.3292541503906</v>
       </c>
       <c r="AP10" t="n">
-        <v>312.593505859375</v>
+        <v>389.8452453613281</v>
       </c>
       <c r="AQ10" t="n">
-        <v>442.8388671875</v>
+        <v>329.8887939453125</v>
       </c>
       <c r="AR10" t="n">
-        <v>270.3395690917969</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>190.7525177001953</v>
+        <v>328.76123046875</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:44">
       <c r="A11" s="2" t="n">
-        <v>43680</v>
+        <v>43532</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1992,36 +1959,33 @@
         <v>302</v>
       </c>
       <c r="AK11" t="n">
-        <v>241.5035858154297</v>
+        <v>459.44140625</v>
       </c>
       <c r="AL11" t="n">
-        <v>452.5700073242188</v>
+        <v>382.4317626953125</v>
       </c>
       <c r="AM11" t="n">
-        <v>426.5611267089844</v>
+        <v>382.4317626953125</v>
       </c>
       <c r="AN11" t="n">
-        <v>426.5611267089844</v>
+        <v>432.55859375</v>
       </c>
       <c r="AO11" t="n">
-        <v>438.7039489746094</v>
+        <v>441.36669921875</v>
       </c>
       <c r="AP11" t="n">
-        <v>450.834716796875</v>
+        <v>422.8153381347656</v>
       </c>
       <c r="AQ11" t="n">
-        <v>434.2150268554688</v>
+        <v>382.812255859375</v>
       </c>
       <c r="AR11" t="n">
-        <v>310.0819396972656</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>165.3341369628906</v>
+        <v>304.846435546875</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:44">
       <c r="A12" s="2" t="n">
-        <v>43772</v>
+        <v>43535</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2129,36 +2093,33 @@
         <v>296</v>
       </c>
       <c r="AK12" t="n">
-        <v>260.357666015625</v>
+        <v>399.0530395507812</v>
       </c>
       <c r="AL12" t="n">
-        <v>369.6355590820312</v>
+        <v>320.1889343261719</v>
       </c>
       <c r="AM12" t="n">
-        <v>403.2706604003906</v>
+        <v>320.1889343261719</v>
       </c>
       <c r="AN12" t="n">
-        <v>403.2706604003906</v>
+        <v>427.1957397460938</v>
       </c>
       <c r="AO12" t="n">
-        <v>418.8170166015625</v>
+        <v>333.3017578125</v>
       </c>
       <c r="AP12" t="n">
-        <v>262.2348327636719</v>
+        <v>370.2917175292969</v>
       </c>
       <c r="AQ12" t="n">
-        <v>394.2513122558594</v>
+        <v>315.14892578125</v>
       </c>
       <c r="AR12" t="n">
-        <v>293.0751037597656</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>200.7444610595703</v>
+        <v>295.5137939453125</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:44">
       <c r="A13" s="2" t="n">
-        <v>43802</v>
+        <v>43536</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2266,34 +2227,31 @@
         <v>327</v>
       </c>
       <c r="AK13" t="n">
-        <v>270.2378845214844</v>
+        <v>490.9454956054688</v>
       </c>
       <c r="AL13" t="n">
-        <v>506.9247741699219</v>
+        <v>399.380859375</v>
       </c>
       <c r="AM13" t="n">
-        <v>460.7376403808594</v>
+        <v>399.380859375</v>
       </c>
       <c r="AN13" t="n">
-        <v>460.7376403808594</v>
+        <v>433.2401123046875</v>
       </c>
       <c r="AO13" t="n">
-        <v>438.3279113769531</v>
+        <v>505.6618347167969</v>
       </c>
       <c r="AP13" t="n">
-        <v>409.6819458007812</v>
+        <v>459.6625366210938</v>
       </c>
       <c r="AQ13" t="n">
-        <v>455.7048950195312</v>
+        <v>384.1850280761719</v>
       </c>
       <c r="AR13" t="n">
-        <v>315.2868957519531</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>153.2008361816406</v>
+        <v>280.3668823242188</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:44">
       <c r="A14" s="2" t="n">
         <v>43537</v>
       </c>
@@ -2403,34 +2361,31 @@
         <v>57</v>
       </c>
       <c r="AK14" t="n">
-        <v>255.6529846191406</v>
+        <v>361.3987426757812</v>
       </c>
       <c r="AL14" t="n">
-        <v>367.3540954589844</v>
+        <v>386.0039978027344</v>
       </c>
       <c r="AM14" t="n">
-        <v>361.9942016601562</v>
+        <v>386.0039978027344</v>
       </c>
       <c r="AN14" t="n">
-        <v>361.9942016601562</v>
+        <v>409.3213806152344</v>
       </c>
       <c r="AO14" t="n">
-        <v>430.4516906738281</v>
+        <v>331.2764587402344</v>
       </c>
       <c r="AP14" t="n">
-        <v>358.4857482910156</v>
+        <v>404.044677734375</v>
       </c>
       <c r="AQ14" t="n">
-        <v>411.7076110839844</v>
+        <v>394.9859008789062</v>
       </c>
       <c r="AR14" t="n">
-        <v>294.1049499511719</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>140.5230560302734</v>
+        <v>296.9081420898438</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:44">
       <c r="A15" s="2" t="n">
         <v>43538</v>
       </c>
@@ -2540,34 +2495,31 @@
         <v>287</v>
       </c>
       <c r="AK15" t="n">
-        <v>316.4590454101562</v>
+        <v>448.6641845703125</v>
       </c>
       <c r="AL15" t="n">
-        <v>445.4254760742188</v>
+        <v>409.9835205078125</v>
       </c>
       <c r="AM15" t="n">
-        <v>435.482177734375</v>
+        <v>409.9835205078125</v>
       </c>
       <c r="AN15" t="n">
-        <v>435.482177734375</v>
+        <v>385.4841918945312</v>
       </c>
       <c r="AO15" t="n">
-        <v>381.0090942382812</v>
+        <v>433.6416320800781</v>
       </c>
       <c r="AP15" t="n">
-        <v>394.6264343261719</v>
+        <v>456.5708618164062</v>
       </c>
       <c r="AQ15" t="n">
-        <v>473.8923950195312</v>
+        <v>398.5094299316406</v>
       </c>
       <c r="AR15" t="n">
-        <v>331.8112182617188</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>212.0298461914062</v>
+        <v>350.4989318847656</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:44">
       <c r="A16" s="2" t="n">
         <v>43539</v>
       </c>
@@ -2677,34 +2629,31 @@
         <v>83</v>
       </c>
       <c r="AK16" t="n">
-        <v>246.7606353759766</v>
+        <v>348.3421325683594</v>
       </c>
       <c r="AL16" t="n">
-        <v>351.7153015136719</v>
+        <v>361.6150207519531</v>
       </c>
       <c r="AM16" t="n">
-        <v>351.8273620605469</v>
+        <v>361.6150207519531</v>
       </c>
       <c r="AN16" t="n">
-        <v>351.8273620605469</v>
+        <v>377.6083068847656</v>
       </c>
       <c r="AO16" t="n">
-        <v>396.5221862792969</v>
+        <v>301.3454284667969</v>
       </c>
       <c r="AP16" t="n">
-        <v>388.3515930175781</v>
+        <v>354.888916015625</v>
       </c>
       <c r="AQ16" t="n">
-        <v>366.7838439941406</v>
+        <v>379.7586669921875</v>
       </c>
       <c r="AR16" t="n">
-        <v>273.43212890625</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>205.7793121337891</v>
+        <v>349.4837951660156</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:44">
       <c r="A17" s="2" t="n">
         <v>43544</v>
       </c>
@@ -2814,34 +2763,31 @@
         <v>304</v>
       </c>
       <c r="AK17" t="n">
-        <v>289.2839050292969</v>
+        <v>333.1335754394531</v>
       </c>
       <c r="AL17" t="n">
-        <v>341.6969604492188</v>
+        <v>351.5130615234375</v>
       </c>
       <c r="AM17" t="n">
-        <v>326.2104797363281</v>
+        <v>351.5130615234375</v>
       </c>
       <c r="AN17" t="n">
-        <v>326.2104797363281</v>
+        <v>353.9662780761719</v>
       </c>
       <c r="AO17" t="n">
-        <v>350.6311340332031</v>
+        <v>341.8516845703125</v>
       </c>
       <c r="AP17" t="n">
-        <v>302.960205078125</v>
+        <v>382.001220703125</v>
       </c>
       <c r="AQ17" t="n">
-        <v>415.0057678222656</v>
+        <v>334.1912536621094</v>
       </c>
       <c r="AR17" t="n">
-        <v>252.7349243164062</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>221.4948425292969</v>
+        <v>332.0884094238281</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:44">
       <c r="A18" s="2" t="n">
         <v>43545</v>
       </c>
@@ -2951,34 +2897,31 @@
         <v>373</v>
       </c>
       <c r="AK18" t="n">
-        <v>324.156494140625</v>
+        <v>453.6424560546875</v>
       </c>
       <c r="AL18" t="n">
-        <v>470.9949035644531</v>
+        <v>444.2628784179688</v>
       </c>
       <c r="AM18" t="n">
-        <v>420.3121337890625</v>
+        <v>444.2628784179688</v>
       </c>
       <c r="AN18" t="n">
-        <v>420.3121337890625</v>
+        <v>428.0727844238281</v>
       </c>
       <c r="AO18" t="n">
-        <v>436.8240661621094</v>
+        <v>540.0169677734375</v>
       </c>
       <c r="AP18" t="n">
-        <v>550.3807983398438</v>
+        <v>486.0984191894531</v>
       </c>
       <c r="AQ18" t="n">
-        <v>482.5704650878906</v>
+        <v>436.8702392578125</v>
       </c>
       <c r="AR18" t="n">
-        <v>389.3275146484375</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>264.7615661621094</v>
+        <v>344.722412109375</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:44">
       <c r="A19" s="2" t="n">
         <v>43546</v>
       </c>
@@ -3088,34 +3031,31 @@
         <v>310</v>
       </c>
       <c r="AK19" t="n">
-        <v>270.2257995605469</v>
+        <v>398.3365173339844</v>
       </c>
       <c r="AL19" t="n">
-        <v>411.326171875</v>
+        <v>437.7156982421875</v>
       </c>
       <c r="AM19" t="n">
-        <v>404.300537109375</v>
+        <v>437.7156982421875</v>
       </c>
       <c r="AN19" t="n">
-        <v>404.300537109375</v>
+        <v>398.0018615722656</v>
       </c>
       <c r="AO19" t="n">
-        <v>419.343505859375</v>
+        <v>450.807861328125</v>
       </c>
       <c r="AP19" t="n">
-        <v>376.6544799804688</v>
+        <v>435.4982604980469</v>
       </c>
       <c r="AQ19" t="n">
-        <v>455.9461364746094</v>
+        <v>394.8336791992188</v>
       </c>
       <c r="AR19" t="n">
-        <v>321.593505859375</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>232.6608734130859</v>
+        <v>316.347900390625</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:44">
       <c r="A20" s="2" t="n">
         <v>43549</v>
       </c>
@@ -3225,34 +3165,31 @@
         <v>348</v>
       </c>
       <c r="AK20" t="n">
-        <v>258.6885681152344</v>
+        <v>408.9536437988281</v>
       </c>
       <c r="AL20" t="n">
-        <v>395.1856994628906</v>
+        <v>356.2582397460938</v>
       </c>
       <c r="AM20" t="n">
-        <v>375.6076354980469</v>
+        <v>356.2582397460938</v>
       </c>
       <c r="AN20" t="n">
-        <v>375.6076354980469</v>
+        <v>390.9960021972656</v>
       </c>
       <c r="AO20" t="n">
-        <v>398.3065185546875</v>
+        <v>356.9078063964844</v>
       </c>
       <c r="AP20" t="n">
-        <v>401.291748046875</v>
+        <v>379.5475769042969</v>
       </c>
       <c r="AQ20" t="n">
-        <v>392.2584533691406</v>
+        <v>319.1244201660156</v>
       </c>
       <c r="AR20" t="n">
-        <v>245.4362030029297</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>225.7063293457031</v>
+        <v>303.3598327636719</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:44">
       <c r="A21" s="2" t="n">
         <v>43550</v>
       </c>
@@ -3362,34 +3299,31 @@
         <v>94</v>
       </c>
       <c r="AK21" t="n">
-        <v>233.0424499511719</v>
+        <v>361.6502685546875</v>
       </c>
       <c r="AL21" t="n">
-        <v>340.1337585449219</v>
+        <v>360.6127624511719</v>
       </c>
       <c r="AM21" t="n">
-        <v>323.0394287109375</v>
+        <v>360.6127624511719</v>
       </c>
       <c r="AN21" t="n">
-        <v>323.0394287109375</v>
+        <v>369.6024475097656</v>
       </c>
       <c r="AO21" t="n">
-        <v>408.2963256835938</v>
+        <v>362.7515258789062</v>
       </c>
       <c r="AP21" t="n">
-        <v>386.1727600097656</v>
+        <v>325.5765991210938</v>
       </c>
       <c r="AQ21" t="n">
-        <v>327.0716552734375</v>
+        <v>315.1269836425781</v>
       </c>
       <c r="AR21" t="n">
-        <v>206.9853210449219</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>199.4860229492188</v>
+        <v>286.6819458007812</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:44">
       <c r="A22" s="2" t="n">
         <v>43551</v>
       </c>
@@ -3499,34 +3433,31 @@
         <v>393</v>
       </c>
       <c r="AK22" t="n">
-        <v>273.3240356445312</v>
+        <v>434.5423278808594</v>
       </c>
       <c r="AL22" t="n">
-        <v>438.623779296875</v>
+        <v>449.1287841796875</v>
       </c>
       <c r="AM22" t="n">
-        <v>426.8187866210938</v>
+        <v>449.1287841796875</v>
       </c>
       <c r="AN22" t="n">
-        <v>426.8187866210938</v>
+        <v>410.73828125</v>
       </c>
       <c r="AO22" t="n">
-        <v>429.5333557128906</v>
+        <v>514.8133544921875</v>
       </c>
       <c r="AP22" t="n">
-        <v>527.8806762695312</v>
+        <v>467.1828002929688</v>
       </c>
       <c r="AQ22" t="n">
-        <v>472.8599243164062</v>
+        <v>388.2824096679688</v>
       </c>
       <c r="AR22" t="n">
-        <v>315.8109741210938</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>229.7459869384766</v>
+        <v>298.6322326660156</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:44">
       <c r="A23" s="2" t="n">
         <v>43552</v>
       </c>
@@ -3636,34 +3567,31 @@
         <v>356</v>
       </c>
       <c r="AK23" t="n">
-        <v>290.6871643066406</v>
+        <v>464.7254028320312</v>
       </c>
       <c r="AL23" t="n">
-        <v>467.8725891113281</v>
+        <v>439.3599548339844</v>
       </c>
       <c r="AM23" t="n">
-        <v>439.3491516113281</v>
+        <v>439.3599548339844</v>
       </c>
       <c r="AN23" t="n">
-        <v>439.3491516113281</v>
+        <v>397.2981262207031</v>
       </c>
       <c r="AO23" t="n">
-        <v>419.5721740722656</v>
+        <v>481.8932189941406</v>
       </c>
       <c r="AP23" t="n">
-        <v>475.4036865234375</v>
+        <v>443.569091796875</v>
       </c>
       <c r="AQ23" t="n">
-        <v>445.1925048828125</v>
+        <v>394.4555358886719</v>
       </c>
       <c r="AR23" t="n">
-        <v>291.8399963378906</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>233.2966918945312</v>
+        <v>332.6371765136719</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:44">
       <c r="A24" s="2" t="n">
         <v>43553</v>
       </c>
@@ -3773,36 +3701,33 @@
         <v>105</v>
       </c>
       <c r="AK24" t="n">
-        <v>245.8668060302734</v>
+        <v>374.0779113769531</v>
       </c>
       <c r="AL24" t="n">
-        <v>406.9840393066406</v>
+        <v>393.5575256347656</v>
       </c>
       <c r="AM24" t="n">
-        <v>378.2337341308594</v>
+        <v>393.5575256347656</v>
       </c>
       <c r="AN24" t="n">
-        <v>378.2337341308594</v>
+        <v>367.6001892089844</v>
       </c>
       <c r="AO24" t="n">
-        <v>381.8787536621094</v>
+        <v>369.3519287109375</v>
       </c>
       <c r="AP24" t="n">
-        <v>433.0003967285156</v>
+        <v>350.4476623535156</v>
       </c>
       <c r="AQ24" t="n">
-        <v>356.585205078125</v>
+        <v>359.7378540039062</v>
       </c>
       <c r="AR24" t="n">
-        <v>240.3047790527344</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>238.1642303466797</v>
+        <v>345.0741577148438</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:44">
       <c r="A25" s="2" t="n">
-        <v>43469</v>
+        <v>43556</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -3910,36 +3835,33 @@
         <v>215</v>
       </c>
       <c r="AK25" t="n">
-        <v>308.4434204101562</v>
+        <v>351.7370910644531</v>
       </c>
       <c r="AL25" t="n">
-        <v>351.4457702636719</v>
+        <v>354.7767333984375</v>
       </c>
       <c r="AM25" t="n">
-        <v>343.5794677734375</v>
+        <v>354.7767333984375</v>
       </c>
       <c r="AN25" t="n">
-        <v>343.5794677734375</v>
+        <v>365.7490234375</v>
       </c>
       <c r="AO25" t="n">
-        <v>392.4711303710938</v>
+        <v>368.1778564453125</v>
       </c>
       <c r="AP25" t="n">
-        <v>340.795166015625</v>
+        <v>366.3914489746094</v>
       </c>
       <c r="AQ25" t="n">
-        <v>426.2380065917969</v>
+        <v>350.8152465820312</v>
       </c>
       <c r="AR25" t="n">
-        <v>311.6299743652344</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>263.2243041992188</v>
+        <v>366.8276062011719</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:44">
       <c r="A26" s="2" t="n">
-        <v>43500</v>
+        <v>43557</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -4047,36 +3969,33 @@
         <v>412</v>
       </c>
       <c r="AK26" t="n">
-        <v>321.4062805175781</v>
+        <v>461.990478515625</v>
       </c>
       <c r="AL26" t="n">
-        <v>465.7063903808594</v>
+        <v>432.1820678710938</v>
       </c>
       <c r="AM26" t="n">
-        <v>441.5837707519531</v>
+        <v>432.1820678710938</v>
       </c>
       <c r="AN26" t="n">
-        <v>441.5837707519531</v>
+        <v>424.9853515625</v>
       </c>
       <c r="AO26" t="n">
-        <v>435.9701538085938</v>
+        <v>483.7500610351562</v>
       </c>
       <c r="AP26" t="n">
-        <v>517.860595703125</v>
+        <v>472.9633178710938</v>
       </c>
       <c r="AQ26" t="n">
-        <v>500.8032531738281</v>
+        <v>428.8024597167969</v>
       </c>
       <c r="AR26" t="n">
-        <v>386.5723571777344</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>238.4024353027344</v>
+        <v>352.4345703125</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:44">
       <c r="A27" s="2" t="n">
-        <v>43528</v>
+        <v>43558</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -4184,34 +4103,31 @@
         <v>366</v>
       </c>
       <c r="AK27" t="n">
-        <v>362.4409790039062</v>
+        <v>420.2231140136719</v>
       </c>
       <c r="AL27" t="n">
-        <v>423.671875</v>
+        <v>438.7477416992188</v>
       </c>
       <c r="AM27" t="n">
-        <v>401.2034912109375</v>
+        <v>438.7477416992188</v>
       </c>
       <c r="AN27" t="n">
-        <v>401.2034912109375</v>
+        <v>402.2757873535156</v>
       </c>
       <c r="AO27" t="n">
-        <v>423.7969970703125</v>
+        <v>480.5287780761719</v>
       </c>
       <c r="AP27" t="n">
-        <v>471.1123657226562</v>
+        <v>484.9798889160156</v>
       </c>
       <c r="AQ27" t="n">
-        <v>508.1922607421875</v>
+        <v>443.998779296875</v>
       </c>
       <c r="AR27" t="n">
-        <v>417.6454467773438</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>266.9782409667969</v>
+        <v>371.2495422363281</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:44">
       <c r="A28" s="2" t="n">
         <v>43559</v>
       </c>
@@ -4321,36 +4237,33 @@
         <v>348</v>
       </c>
       <c r="AK28" t="n">
-        <v>363.3185119628906</v>
+        <v>481.7532958984375</v>
       </c>
       <c r="AL28" t="n">
-        <v>482.7420043945312</v>
+        <v>437.0699768066406</v>
       </c>
       <c r="AM28" t="n">
-        <v>455.565185546875</v>
+        <v>437.0699768066406</v>
       </c>
       <c r="AN28" t="n">
-        <v>455.565185546875</v>
+        <v>394.958984375</v>
       </c>
       <c r="AO28" t="n">
-        <v>411.3917846679688</v>
+        <v>475.7819519042969</v>
       </c>
       <c r="AP28" t="n">
-        <v>473.11767578125</v>
+        <v>467.1054077148438</v>
       </c>
       <c r="AQ28" t="n">
-        <v>521.0491333007812</v>
+        <v>435.0506591796875</v>
       </c>
       <c r="AR28" t="n">
-        <v>415.33837890625</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>260.2222900390625</v>
+        <v>378.3045654296875</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:44">
       <c r="A29" s="2" t="n">
-        <v>43589</v>
+        <v>43560</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -4458,36 +4371,33 @@
         <v>74</v>
       </c>
       <c r="AK29" t="n">
-        <v>298.1178894042969</v>
+        <v>332.62548828125</v>
       </c>
       <c r="AL29" t="n">
-        <v>355.7666625976562</v>
+        <v>374.0713500976562</v>
       </c>
       <c r="AM29" t="n">
-        <v>342.9928588867188</v>
+        <v>374.0713500976562</v>
       </c>
       <c r="AN29" t="n">
-        <v>342.9928588867188</v>
+        <v>337.7537536621094</v>
       </c>
       <c r="AO29" t="n">
-        <v>356.4482727050781</v>
+        <v>321.4473876953125</v>
       </c>
       <c r="AP29" t="n">
-        <v>369.1909484863281</v>
+        <v>374.0324401855469</v>
       </c>
       <c r="AQ29" t="n">
-        <v>417.4789123535156</v>
+        <v>401.48046875</v>
       </c>
       <c r="AR29" t="n">
-        <v>322.8003234863281</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>210.5274963378906</v>
+        <v>377.1627502441406</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:44">
       <c r="A30" s="2" t="n">
-        <v>43681</v>
+        <v>43563</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -4595,36 +4505,33 @@
         <v>282</v>
       </c>
       <c r="AK30" t="n">
-        <v>340.5175170898438</v>
+        <v>375.3653564453125</v>
       </c>
       <c r="AL30" t="n">
-        <v>378.1428527832031</v>
+        <v>346.2211303710938</v>
       </c>
       <c r="AM30" t="n">
-        <v>378.9776916503906</v>
+        <v>346.2211303710938</v>
       </c>
       <c r="AN30" t="n">
-        <v>378.9776916503906</v>
+        <v>381.2748107910156</v>
       </c>
       <c r="AO30" t="n">
-        <v>395.7625427246094</v>
+        <v>365.099853515625</v>
       </c>
       <c r="AP30" t="n">
-        <v>365.6355895996094</v>
+        <v>363.1436462402344</v>
       </c>
       <c r="AQ30" t="n">
-        <v>429.0295715332031</v>
+        <v>337.6079406738281</v>
       </c>
       <c r="AR30" t="n">
-        <v>323.3224182128906</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>256.8908386230469</v>
+        <v>364.6870422363281</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:44">
       <c r="A31" s="2" t="n">
-        <v>43712</v>
+        <v>43564</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -4732,36 +4639,33 @@
         <v>383</v>
       </c>
       <c r="AK31" t="n">
-        <v>342.69970703125</v>
+        <v>464.9056396484375</v>
       </c>
       <c r="AL31" t="n">
-        <v>467.1842346191406</v>
+        <v>418.6459350585938</v>
       </c>
       <c r="AM31" t="n">
-        <v>438.5578918457031</v>
+        <v>418.6459350585938</v>
       </c>
       <c r="AN31" t="n">
-        <v>438.5578918457031</v>
+        <v>427.2974548339844</v>
       </c>
       <c r="AO31" t="n">
-        <v>438.65234375</v>
+        <v>467.5485229492188</v>
       </c>
       <c r="AP31" t="n">
-        <v>502.364501953125</v>
+        <v>463.46728515625</v>
       </c>
       <c r="AQ31" t="n">
-        <v>472.9916687011719</v>
+        <v>424.6705932617188</v>
       </c>
       <c r="AR31" t="n">
-        <v>382.64404296875</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>256.3900146484375</v>
+        <v>343.4817504882812</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:44">
       <c r="A32" s="2" t="n">
-        <v>43742</v>
+        <v>43565</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -4869,36 +4773,33 @@
         <v>330</v>
       </c>
       <c r="AK32" t="n">
-        <v>351.1944274902344</v>
+        <v>414.7285766601562</v>
       </c>
       <c r="AL32" t="n">
-        <v>423.1829528808594</v>
+        <v>453.0242004394531</v>
       </c>
       <c r="AM32" t="n">
-        <v>418.973388671875</v>
+        <v>453.0242004394531</v>
       </c>
       <c r="AN32" t="n">
-        <v>418.973388671875</v>
+        <v>406.802001953125</v>
       </c>
       <c r="AO32" t="n">
-        <v>426.7060852050781</v>
+        <v>476.6593627929688</v>
       </c>
       <c r="AP32" t="n">
-        <v>479.9398498535156</v>
+        <v>486.2452697753906</v>
       </c>
       <c r="AQ32" t="n">
-        <v>493.8416137695312</v>
+        <v>447.8983764648438</v>
       </c>
       <c r="AR32" t="n">
-        <v>390.6178283691406</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>251.3143310546875</v>
+        <v>343.8020629882812</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:44">
       <c r="A33" s="2" t="n">
-        <v>43773</v>
+        <v>43566</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -5006,36 +4907,33 @@
         <v>296</v>
       </c>
       <c r="AK33" t="n">
-        <v>360.6441040039062</v>
+        <v>472.1851806640625</v>
       </c>
       <c r="AL33" t="n">
-        <v>467.6765441894531</v>
+        <v>430.6403503417969</v>
       </c>
       <c r="AM33" t="n">
-        <v>449.6755981445312</v>
+        <v>430.6403503417969</v>
       </c>
       <c r="AN33" t="n">
-        <v>449.6755981445312</v>
+        <v>390.8843688964844</v>
       </c>
       <c r="AO33" t="n">
-        <v>407.6246643066406</v>
+        <v>459.6464538574219</v>
       </c>
       <c r="AP33" t="n">
-        <v>444.9933776855469</v>
+        <v>443.3323669433594</v>
       </c>
       <c r="AQ33" t="n">
-        <v>481.7823791503906</v>
+        <v>419.5718688964844</v>
       </c>
       <c r="AR33" t="n">
-        <v>371.7302856445312</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>251.6570739746094</v>
+        <v>361.5069274902344</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:44">
       <c r="A34" s="2" t="n">
-        <v>43803</v>
+        <v>43567</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -5143,34 +5041,31 @@
         <v>68</v>
       </c>
       <c r="AK34" t="n">
-        <v>286.1802673339844</v>
+        <v>338.9381713867188</v>
       </c>
       <c r="AL34" t="n">
-        <v>364.1023864746094</v>
+        <v>367.8127136230469</v>
       </c>
       <c r="AM34" t="n">
-        <v>352.2310180664062</v>
+        <v>367.8127136230469</v>
       </c>
       <c r="AN34" t="n">
-        <v>352.2310180664062</v>
+        <v>355.8507690429688</v>
       </c>
       <c r="AO34" t="n">
-        <v>377.281494140625</v>
+        <v>311.5715637207031</v>
       </c>
       <c r="AP34" t="n">
-        <v>381.0086669921875</v>
+        <v>352.4168701171875</v>
       </c>
       <c r="AQ34" t="n">
-        <v>372.7007141113281</v>
+        <v>381.4518737792969</v>
       </c>
       <c r="AR34" t="n">
-        <v>288.9827880859375</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>232.8699340820312</v>
+        <v>348.8995056152344</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:44">
       <c r="A35" s="2" t="n">
         <v>43570</v>
       </c>
@@ -5280,34 +5175,31 @@
         <v>291</v>
       </c>
       <c r="AK35" t="n">
-        <v>324.4686889648438</v>
+        <v>363.7073059082031</v>
       </c>
       <c r="AL35" t="n">
-        <v>362.0810546875</v>
+        <v>341.7156982421875</v>
       </c>
       <c r="AM35" t="n">
-        <v>358.0835266113281</v>
+        <v>341.7156982421875</v>
       </c>
       <c r="AN35" t="n">
-        <v>358.0835266113281</v>
+        <v>379.3336791992188</v>
       </c>
       <c r="AO35" t="n">
-        <v>394.2077941894531</v>
+        <v>348.6297912597656</v>
       </c>
       <c r="AP35" t="n">
-        <v>335.0394592285156</v>
+        <v>356.6391906738281</v>
       </c>
       <c r="AQ35" t="n">
-        <v>379.3841857910156</v>
+        <v>341.9423828125</v>
       </c>
       <c r="AR35" t="n">
-        <v>303.9836730957031</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>288.9638671875</v>
+        <v>356.7287902832031</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:44">
       <c r="A36" s="2" t="n">
         <v>43571</v>
       </c>
@@ -5417,34 +5309,31 @@
         <v>412</v>
       </c>
       <c r="AK36" t="n">
-        <v>338.5564575195312</v>
+        <v>477.6170654296875</v>
       </c>
       <c r="AL36" t="n">
-        <v>474.3696594238281</v>
+        <v>414.8781433105469</v>
       </c>
       <c r="AM36" t="n">
-        <v>453.0863342285156</v>
+        <v>414.8781433105469</v>
       </c>
       <c r="AN36" t="n">
-        <v>453.0863342285156</v>
+        <v>431.5981140136719</v>
       </c>
       <c r="AO36" t="n">
-        <v>439.7498168945312</v>
+        <v>463.0198059082031</v>
       </c>
       <c r="AP36" t="n">
-        <v>504.808349609375</v>
+        <v>461.7836608886719</v>
       </c>
       <c r="AQ36" t="n">
-        <v>456.0657348632812</v>
+        <v>415.2002258300781</v>
       </c>
       <c r="AR36" t="n">
-        <v>375.9653625488281</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>268.3921508789062</v>
+        <v>338.8154296875</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:44">
       <c r="A37" s="2" t="n">
         <v>43572</v>
       </c>
@@ -5554,34 +5443,31 @@
         <v>304</v>
       </c>
       <c r="AK37" t="n">
-        <v>343.5364685058594</v>
+        <v>421.7071228027344</v>
       </c>
       <c r="AL37" t="n">
-        <v>422.1011657714844</v>
+        <v>425.1866455078125</v>
       </c>
       <c r="AM37" t="n">
-        <v>407.6716003417969</v>
+        <v>425.1866455078125</v>
       </c>
       <c r="AN37" t="n">
-        <v>407.6716003417969</v>
+        <v>403.7603149414062</v>
       </c>
       <c r="AO37" t="n">
-        <v>425.9093322753906</v>
+        <v>449.8103332519531</v>
       </c>
       <c r="AP37" t="n">
-        <v>442.954833984375</v>
+        <v>459.8124389648438</v>
       </c>
       <c r="AQ37" t="n">
-        <v>466.5703430175781</v>
+        <v>416.7906494140625</v>
       </c>
       <c r="AR37" t="n">
-        <v>374.079833984375</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>244.2094116210938</v>
+        <v>327.5023193359375</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:44">
       <c r="A38" s="2" t="n">
         <v>43573</v>
       </c>
@@ -5691,34 +5577,31 @@
         <v>292</v>
       </c>
       <c r="AK38" t="n">
-        <v>306.3487548828125</v>
+        <v>472.7022399902344</v>
       </c>
       <c r="AL38" t="n">
-        <v>473.5150451660156</v>
+        <v>420.8650207519531</v>
       </c>
       <c r="AM38" t="n">
-        <v>441.0361938476562</v>
+        <v>420.8650207519531</v>
       </c>
       <c r="AN38" t="n">
-        <v>441.0361938476562</v>
+        <v>395.0756530761719</v>
       </c>
       <c r="AO38" t="n">
-        <v>413.1990051269531</v>
+        <v>443.1263427734375</v>
       </c>
       <c r="AP38" t="n">
-        <v>465.2154235839844</v>
+        <v>431.7789306640625</v>
       </c>
       <c r="AQ38" t="n">
-        <v>456.5155334472656</v>
+        <v>404.7250366210938</v>
       </c>
       <c r="AR38" t="n">
-        <v>345.6338806152344</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>242.0989685058594</v>
+        <v>320.2318725585938</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:44">
       <c r="A39" s="2" t="n">
         <v>43577</v>
       </c>
@@ -5828,34 +5711,31 @@
         <v>62</v>
       </c>
       <c r="AK39" t="n">
-        <v>287.8448486328125</v>
+        <v>269.7726745605469</v>
       </c>
       <c r="AL39" t="n">
-        <v>280.7200317382812</v>
+        <v>337.5631103515625</v>
       </c>
       <c r="AM39" t="n">
-        <v>268.2134704589844</v>
+        <v>337.5631103515625</v>
       </c>
       <c r="AN39" t="n">
-        <v>268.2134704589844</v>
+        <v>262.4385070800781</v>
       </c>
       <c r="AO39" t="n">
-        <v>301.0298156738281</v>
+        <v>293.9707641601562</v>
       </c>
       <c r="AP39" t="n">
-        <v>304.4120483398438</v>
+        <v>316.9607543945312</v>
       </c>
       <c r="AQ39" t="n">
-        <v>328.9182739257812</v>
+        <v>322.8531188964844</v>
       </c>
       <c r="AR39" t="n">
-        <v>232.4960632324219</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>213.8934173583984</v>
+        <v>315.3569946289062</v>
       </c>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:44">
       <c r="A40" s="2" t="n">
         <v>43578</v>
       </c>
@@ -5965,34 +5845,31 @@
         <v>269</v>
       </c>
       <c r="AK40" t="n">
-        <v>306.5608825683594</v>
+        <v>411.9763488769531</v>
       </c>
       <c r="AL40" t="n">
-        <v>415.3554382324219</v>
+        <v>390.6679077148438</v>
       </c>
       <c r="AM40" t="n">
-        <v>409.1485595703125</v>
+        <v>390.6679077148438</v>
       </c>
       <c r="AN40" t="n">
-        <v>409.1485595703125</v>
+        <v>400.4978942871094</v>
       </c>
       <c r="AO40" t="n">
-        <v>413.9172973632812</v>
+        <v>394.0943298339844</v>
       </c>
       <c r="AP40" t="n">
-        <v>466.2630004882812</v>
+        <v>389.5560913085938</v>
       </c>
       <c r="AQ40" t="n">
-        <v>390.9354248046875</v>
+        <v>373.6909484863281</v>
       </c>
       <c r="AR40" t="n">
-        <v>295.46533203125</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>257.8148803710938</v>
+        <v>340.3741455078125</v>
       </c>
     </row>
-    <row r="41" spans="1:45">
+    <row r="41" spans="1:44">
       <c r="A41" s="2" t="n">
         <v>43579</v>
       </c>
@@ -6102,34 +5979,31 @@
         <v>358</v>
       </c>
       <c r="AK41" t="n">
-        <v>327.8660278320312</v>
+        <v>416.6365356445312</v>
       </c>
       <c r="AL41" t="n">
-        <v>414.8979797363281</v>
+        <v>424.9068603515625</v>
       </c>
       <c r="AM41" t="n">
-        <v>390.0857543945312</v>
+        <v>424.9068603515625</v>
       </c>
       <c r="AN41" t="n">
-        <v>390.0857543945312</v>
+        <v>391.2177734375</v>
       </c>
       <c r="AO41" t="n">
-        <v>418.0858764648438</v>
+        <v>445.1083679199219</v>
       </c>
       <c r="AP41" t="n">
-        <v>452.1325378417969</v>
+        <v>439.9056396484375</v>
       </c>
       <c r="AQ41" t="n">
-        <v>436.8248901367188</v>
+        <v>402.5562744140625</v>
       </c>
       <c r="AR41" t="n">
-        <v>333.47509765625</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>273.2378540039062</v>
+        <v>356.0527648925781</v>
       </c>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:44">
       <c r="A42" s="2" t="n">
         <v>43580</v>
       </c>
@@ -6239,34 +6113,31 @@
         <v>343</v>
       </c>
       <c r="AK42" t="n">
-        <v>333.1792297363281</v>
+        <v>453.7760314941406</v>
       </c>
       <c r="AL42" t="n">
-        <v>451.9787292480469</v>
+        <v>422.215576171875</v>
       </c>
       <c r="AM42" t="n">
-        <v>430.1844177246094</v>
+        <v>422.215576171875</v>
       </c>
       <c r="AN42" t="n">
-        <v>430.1844177246094</v>
+        <v>399.6758728027344</v>
       </c>
       <c r="AO42" t="n">
-        <v>416.3561706542969</v>
+        <v>443.87353515625</v>
       </c>
       <c r="AP42" t="n">
-        <v>463.7760925292969</v>
+        <v>441.6475830078125</v>
       </c>
       <c r="AQ42" t="n">
-        <v>444.657470703125</v>
+        <v>410.8187255859375</v>
       </c>
       <c r="AR42" t="n">
-        <v>340.969482421875</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>276.5929870605469</v>
+        <v>361.2092895507812</v>
       </c>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:44">
       <c r="A43" s="2" t="n">
         <v>43581</v>
       </c>
@@ -6376,34 +6247,31 @@
         <v>165</v>
       </c>
       <c r="AK43" t="n">
-        <v>297.6864929199219</v>
+        <v>374.1216430664062</v>
       </c>
       <c r="AL43" t="n">
-        <v>396.0006103515625</v>
+        <v>388.7761535644531</v>
       </c>
       <c r="AM43" t="n">
-        <v>375.8204956054688</v>
+        <v>388.7761535644531</v>
       </c>
       <c r="AN43" t="n">
-        <v>375.8204956054688</v>
+        <v>363.0982360839844</v>
       </c>
       <c r="AO43" t="n">
-        <v>374.1268615722656</v>
+        <v>360.5132141113281</v>
       </c>
       <c r="AP43" t="n">
-        <v>370.7436218261719</v>
+        <v>369.3901062011719</v>
       </c>
       <c r="AQ43" t="n">
-        <v>387.1693420410156</v>
+        <v>379.0948181152344</v>
       </c>
       <c r="AR43" t="n">
-        <v>284.7023010253906</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>274.3372192382812</v>
+        <v>358.3879089355469</v>
       </c>
     </row>
-    <row r="44" spans="1:45">
+    <row r="44" spans="1:44">
       <c r="A44" s="2" t="n">
         <v>43584</v>
       </c>
@@ -6513,34 +6381,31 @@
         <v>245</v>
       </c>
       <c r="AK44" t="n">
-        <v>303.83740234375</v>
+        <v>343.51318359375</v>
       </c>
       <c r="AL44" t="n">
-        <v>344.9696350097656</v>
+        <v>337.245849609375</v>
       </c>
       <c r="AM44" t="n">
-        <v>343.399169921875</v>
+        <v>337.245849609375</v>
       </c>
       <c r="AN44" t="n">
-        <v>343.399169921875</v>
+        <v>365.0484313964844</v>
       </c>
       <c r="AO44" t="n">
-        <v>376.2283325195312</v>
+        <v>343.6098022460938</v>
       </c>
       <c r="AP44" t="n">
-        <v>349.9822082519531</v>
+        <v>326.2527160644531</v>
       </c>
       <c r="AQ44" t="n">
-        <v>360.5477600097656</v>
+        <v>313.9671020507812</v>
       </c>
       <c r="AR44" t="n">
-        <v>256.9065856933594</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>284.6775817871094</v>
+        <v>339.4140930175781</v>
       </c>
     </row>
-    <row r="45" spans="1:45">
+    <row r="45" spans="1:44">
       <c r="A45" s="2" t="n">
         <v>43585</v>
       </c>
@@ -6650,36 +6515,33 @@
         <v>328</v>
       </c>
       <c r="AK45" t="n">
-        <v>304.4903564453125</v>
+        <v>453.5088195800781</v>
       </c>
       <c r="AL45" t="n">
-        <v>446.6800537109375</v>
+        <v>405.9347229003906</v>
       </c>
       <c r="AM45" t="n">
-        <v>430.224609375</v>
+        <v>405.9347229003906</v>
       </c>
       <c r="AN45" t="n">
-        <v>430.224609375</v>
+        <v>418.2186279296875</v>
       </c>
       <c r="AO45" t="n">
-        <v>430.4698791503906</v>
+        <v>442.0818786621094</v>
       </c>
       <c r="AP45" t="n">
-        <v>472.415771484375</v>
+        <v>404.6454772949219</v>
       </c>
       <c r="AQ45" t="n">
-        <v>417.9978332519531</v>
+        <v>379.4317626953125</v>
       </c>
       <c r="AR45" t="n">
-        <v>336.5260925292969</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>283.6529235839844</v>
+        <v>332.5481262207031</v>
       </c>
     </row>
-    <row r="46" spans="1:45">
+    <row r="46" spans="1:44">
       <c r="A46" s="2" t="n">
-        <v>43501</v>
+        <v>43587</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -6787,36 +6649,33 @@
         <v>318</v>
       </c>
       <c r="AK46" t="n">
-        <v>386.4839782714844</v>
+        <v>424.4505004882812</v>
       </c>
       <c r="AL46" t="n">
-        <v>421.12109375</v>
+        <v>413.2314758300781</v>
       </c>
       <c r="AM46" t="n">
-        <v>400.3612976074219</v>
+        <v>413.2314758300781</v>
       </c>
       <c r="AN46" t="n">
-        <v>400.3612976074219</v>
+        <v>403.3027038574219</v>
       </c>
       <c r="AO46" t="n">
-        <v>426.0939636230469</v>
+        <v>441.7391357421875</v>
       </c>
       <c r="AP46" t="n">
-        <v>449.9705200195312</v>
+        <v>456.590087890625</v>
       </c>
       <c r="AQ46" t="n">
-        <v>505.0877685546875</v>
+        <v>441.0624084472656</v>
       </c>
       <c r="AR46" t="n">
-        <v>434.7247619628906</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>257.2922058105469</v>
+        <v>355.7151489257812</v>
       </c>
     </row>
-    <row r="47" spans="1:45">
+    <row r="47" spans="1:44">
       <c r="A47" s="2" t="n">
-        <v>43529</v>
+        <v>43588</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -6924,36 +6783,33 @@
         <v>297</v>
       </c>
       <c r="AK47" t="n">
-        <v>388.1217346191406</v>
+        <v>472.6598205566406</v>
       </c>
       <c r="AL47" t="n">
-        <v>466.0023193359375</v>
+        <v>413.6691589355469</v>
       </c>
       <c r="AM47" t="n">
-        <v>438.489990234375</v>
+        <v>413.6691589355469</v>
       </c>
       <c r="AN47" t="n">
-        <v>438.489990234375</v>
+        <v>400.42724609375</v>
       </c>
       <c r="AO47" t="n">
-        <v>410.7561340332031</v>
+        <v>436.7912292480469</v>
       </c>
       <c r="AP47" t="n">
-        <v>447.1361083984375</v>
+        <v>445.5681457519531</v>
       </c>
       <c r="AQ47" t="n">
-        <v>507.2623291015625</v>
+        <v>437.2732238769531</v>
       </c>
       <c r="AR47" t="n">
-        <v>439.8601379394531</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>290.1278686523438</v>
+        <v>377.5815734863281</v>
       </c>
     </row>
-    <row r="48" spans="1:45">
+    <row r="48" spans="1:44">
       <c r="A48" s="2" t="n">
-        <v>43621</v>
+        <v>43591</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -7061,36 +6917,33 @@
         <v>85</v>
       </c>
       <c r="AK48" t="n">
-        <v>339.9586181640625</v>
+        <v>329.1684265136719</v>
       </c>
       <c r="AL48" t="n">
-        <v>320.8631591796875</v>
+        <v>314.5369873046875</v>
       </c>
       <c r="AM48" t="n">
-        <v>316.9575500488281</v>
+        <v>314.5369873046875</v>
       </c>
       <c r="AN48" t="n">
-        <v>316.9575500488281</v>
+        <v>376.8018188476562</v>
       </c>
       <c r="AO48" t="n">
-        <v>398.7322692871094</v>
+        <v>272.8096313476562</v>
       </c>
       <c r="AP48" t="n">
-        <v>299.24755859375</v>
+        <v>307.8118896484375</v>
       </c>
       <c r="AQ48" t="n">
-        <v>355.6778259277344</v>
+        <v>347.4944458007812</v>
       </c>
       <c r="AR48" t="n">
-        <v>303.6142578125</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>239.5465850830078</v>
+        <v>332.9828796386719</v>
       </c>
     </row>
-    <row r="49" spans="1:45">
+    <row r="49" spans="1:44">
       <c r="A49" s="2" t="n">
-        <v>43651</v>
+        <v>43592</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -7198,36 +7051,33 @@
         <v>239</v>
       </c>
       <c r="AK49" t="n">
-        <v>378.9704895019531</v>
+        <v>467.7082214355469</v>
       </c>
       <c r="AL49" t="n">
-        <v>456.0414733886719</v>
+        <v>402.9279479980469</v>
       </c>
       <c r="AM49" t="n">
-        <v>443.6066284179688</v>
+        <v>402.9279479980469</v>
       </c>
       <c r="AN49" t="n">
-        <v>443.6066284179688</v>
+        <v>424.1682739257812</v>
       </c>
       <c r="AO49" t="n">
-        <v>436.9674987792969</v>
+        <v>450.9232788085938</v>
       </c>
       <c r="AP49" t="n">
-        <v>486.4470825195312</v>
+        <v>428.1063537597656</v>
       </c>
       <c r="AQ49" t="n">
-        <v>455.7754821777344</v>
+        <v>425.5930480957031</v>
       </c>
       <c r="AR49" t="n">
-        <v>402.3825073242188</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>258.1874694824219</v>
+        <v>347.5621643066406</v>
       </c>
     </row>
-    <row r="50" spans="1:45">
+    <row r="50" spans="1:44">
       <c r="A50" s="2" t="n">
-        <v>43682</v>
+        <v>43593</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -7335,36 +7185,33 @@
         <v>334</v>
       </c>
       <c r="AK50" t="n">
-        <v>388.4870910644531</v>
+        <v>405.2818298339844</v>
       </c>
       <c r="AL50" t="n">
-        <v>413.2944946289062</v>
+        <v>440.6142578125</v>
       </c>
       <c r="AM50" t="n">
-        <v>393.5346984863281</v>
+        <v>440.6142578125</v>
       </c>
       <c r="AN50" t="n">
-        <v>393.5346984863281</v>
+        <v>401.440673828125</v>
       </c>
       <c r="AO50" t="n">
-        <v>423.9247131347656</v>
+        <v>436.2792053222656</v>
       </c>
       <c r="AP50" t="n">
-        <v>453.0519714355469</v>
+        <v>468.5454406738281</v>
       </c>
       <c r="AQ50" t="n">
-        <v>482.6405334472656</v>
+        <v>443.4646911621094</v>
       </c>
       <c r="AR50" t="n">
-        <v>406.1013488769531</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>274.4618530273438</v>
+        <v>359.6820068359375</v>
       </c>
     </row>
-    <row r="51" spans="1:45">
+    <row r="51" spans="1:44">
       <c r="A51" s="2" t="n">
-        <v>43713</v>
+        <v>43594</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -7472,36 +7319,33 @@
         <v>305</v>
       </c>
       <c r="AK51" t="n">
-        <v>378.9012451171875</v>
+        <v>472.9096984863281</v>
       </c>
       <c r="AL51" t="n">
-        <v>464.3985290527344</v>
+        <v>412.5212707519531</v>
       </c>
       <c r="AM51" t="n">
-        <v>449.1259155273438</v>
+        <v>412.5212707519531</v>
       </c>
       <c r="AN51" t="n">
-        <v>449.1259155273438</v>
+        <v>395.7740783691406</v>
       </c>
       <c r="AO51" t="n">
-        <v>404.8576965332031</v>
+        <v>449.5687255859375</v>
       </c>
       <c r="AP51" t="n">
-        <v>435.0548095703125</v>
+        <v>438.4669189453125</v>
       </c>
       <c r="AQ51" t="n">
-        <v>440.462158203125</v>
+        <v>413.9190979003906</v>
       </c>
       <c r="AR51" t="n">
-        <v>372.7720031738281</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>265.2536315917969</v>
+        <v>351.262451171875</v>
       </c>
     </row>
-    <row r="52" spans="1:45">
+    <row r="52" spans="1:44">
       <c r="A52" s="2" t="n">
-        <v>43743</v>
+        <v>43595</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -7609,34 +7453,31 @@
         <v>74</v>
       </c>
       <c r="AK52" t="n">
-        <v>341.6183471679688</v>
+        <v>356.4841613769531</v>
       </c>
       <c r="AL52" t="n">
-        <v>379.4117431640625</v>
+        <v>372.330078125</v>
       </c>
       <c r="AM52" t="n">
-        <v>359.0484008789062</v>
+        <v>372.330078125</v>
       </c>
       <c r="AN52" t="n">
-        <v>359.0484008789062</v>
+        <v>372.855712890625</v>
       </c>
       <c r="AO52" t="n">
-        <v>396.9674377441406</v>
+        <v>348.6145324707031</v>
       </c>
       <c r="AP52" t="n">
-        <v>412.6480102539062</v>
+        <v>371.8503112792969</v>
       </c>
       <c r="AQ52" t="n">
-        <v>373.5475158691406</v>
+        <v>406.1577453613281</v>
       </c>
       <c r="AR52" t="n">
-        <v>352.2942504882812</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>270.5724182128906</v>
+        <v>363.4261474609375</v>
       </c>
     </row>
-    <row r="53" spans="1:45">
+    <row r="53" spans="1:44">
       <c r="A53" s="2" t="n">
         <v>43598</v>
       </c>
@@ -7746,34 +7587,31 @@
         <v>278</v>
       </c>
       <c r="AK53" t="n">
-        <v>372.7914123535156</v>
+        <v>379.5484619140625</v>
       </c>
       <c r="AL53" t="n">
-        <v>372.8947143554688</v>
+        <v>346.7200317382812</v>
       </c>
       <c r="AM53" t="n">
-        <v>369.52197265625</v>
+        <v>346.7200317382812</v>
       </c>
       <c r="AN53" t="n">
-        <v>369.52197265625</v>
+        <v>389.1316223144531</v>
       </c>
       <c r="AO53" t="n">
-        <v>403.1891784667969</v>
+        <v>368.5059814453125</v>
       </c>
       <c r="AP53" t="n">
-        <v>338.6471862792969</v>
+        <v>353.796875</v>
       </c>
       <c r="AQ53" t="n">
-        <v>395.7764282226562</v>
+        <v>347.6369323730469</v>
       </c>
       <c r="AR53" t="n">
-        <v>335.1299438476562</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>300.9097595214844</v>
+        <v>370.6436462402344</v>
       </c>
     </row>
-    <row r="54" spans="1:45">
+    <row r="54" spans="1:44">
       <c r="A54" s="2" t="n">
         <v>43599</v>
       </c>
@@ -7883,34 +7721,31 @@
         <v>387</v>
       </c>
       <c r="AK54" t="n">
-        <v>397.6143493652344</v>
+        <v>483.0883483886719</v>
       </c>
       <c r="AL54" t="n">
-        <v>478.8364562988281</v>
+        <v>409.8736877441406</v>
       </c>
       <c r="AM54" t="n">
-        <v>454.0669250488281</v>
+        <v>409.8736877441406</v>
       </c>
       <c r="AN54" t="n">
-        <v>454.0669250488281</v>
+        <v>435.1297607421875</v>
       </c>
       <c r="AO54" t="n">
-        <v>440.6134033203125</v>
+        <v>431.9380187988281</v>
       </c>
       <c r="AP54" t="n">
-        <v>492.2669372558594</v>
+        <v>451.9190368652344</v>
       </c>
       <c r="AQ54" t="n">
-        <v>470.8956298828125</v>
+        <v>430.8082580566406</v>
       </c>
       <c r="AR54" t="n">
-        <v>426.4224853515625</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>315.40966796875</v>
+        <v>368.4870910644531</v>
       </c>
     </row>
-    <row r="55" spans="1:45">
+    <row r="55" spans="1:44">
       <c r="A55" s="2" t="n">
         <v>43600</v>
       </c>
@@ -8020,34 +7855,31 @@
         <v>279</v>
       </c>
       <c r="AK55" t="n">
-        <v>377.1363830566406</v>
+        <v>411.1355895996094</v>
       </c>
       <c r="AL55" t="n">
-        <v>405.02685546875</v>
+        <v>427.5085144042969</v>
       </c>
       <c r="AM55" t="n">
-        <v>392.4610595703125</v>
+        <v>427.5085144042969</v>
       </c>
       <c r="AN55" t="n">
-        <v>392.4610595703125</v>
+        <v>400.890625</v>
       </c>
       <c r="AO55" t="n">
-        <v>425.2886962890625</v>
+        <v>440.0910949707031</v>
       </c>
       <c r="AP55" t="n">
-        <v>440.4145812988281</v>
+        <v>434.8733215332031</v>
       </c>
       <c r="AQ55" t="n">
-        <v>440.7200622558594</v>
+        <v>415.9476318359375</v>
       </c>
       <c r="AR55" t="n">
-        <v>383.393310546875</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>272.5323486328125</v>
+        <v>338.3468627929688</v>
       </c>
     </row>
-    <row r="56" spans="1:45">
+    <row r="56" spans="1:44">
       <c r="A56" s="2" t="n">
         <v>43601</v>
       </c>
@@ -8157,34 +7989,31 @@
         <v>336</v>
       </c>
       <c r="AK56" t="n">
-        <v>327.0761108398438</v>
+        <v>442.1284790039062</v>
       </c>
       <c r="AL56" t="n">
-        <v>435.8379821777344</v>
+        <v>334.3095397949219</v>
       </c>
       <c r="AM56" t="n">
-        <v>408.7110595703125</v>
+        <v>334.3095397949219</v>
       </c>
       <c r="AN56" t="n">
-        <v>408.7110595703125</v>
+        <v>405.6671447753906</v>
       </c>
       <c r="AO56" t="n">
-        <v>415.8260498046875</v>
+        <v>286.0051879882812</v>
       </c>
       <c r="AP56" t="n">
-        <v>386.4736022949219</v>
+        <v>335.9090576171875</v>
       </c>
       <c r="AQ56" t="n">
-        <v>354.2787475585938</v>
+        <v>320.6446838378906</v>
       </c>
       <c r="AR56" t="n">
-        <v>309.0997619628906</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>267.2774353027344</v>
+        <v>301.728515625</v>
       </c>
     </row>
-    <row r="57" spans="1:45">
+    <row r="57" spans="1:44">
       <c r="A57" s="2" t="n">
         <v>43602</v>
       </c>
@@ -8294,34 +8123,31 @@
         <v>62</v>
       </c>
       <c r="AK57" t="n">
-        <v>337.0735473632812</v>
+        <v>445.3018798828125</v>
       </c>
       <c r="AL57" t="n">
-        <v>469.9334106445312</v>
+        <v>368.0027465820312</v>
       </c>
       <c r="AM57" t="n">
-        <v>444.3482055664062</v>
+        <v>368.0027465820312</v>
       </c>
       <c r="AN57" t="n">
-        <v>444.3482055664062</v>
+        <v>441.0271606445312</v>
       </c>
       <c r="AO57" t="n">
-        <v>439.6988830566406</v>
+        <v>513.4052124023438</v>
       </c>
       <c r="AP57" t="n">
-        <v>517.2896728515625</v>
+        <v>378.2592163085938</v>
       </c>
       <c r="AQ57" t="n">
-        <v>374.4664001464844</v>
+        <v>409.9698181152344</v>
       </c>
       <c r="AR57" t="n">
-        <v>382.7146606445312</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>287.8620910644531</v>
+        <v>326.9995727539062</v>
       </c>
     </row>
-    <row r="58" spans="1:45">
+    <row r="58" spans="1:44">
       <c r="A58" s="2" t="n">
         <v>43605</v>
       </c>
@@ -8431,34 +8257,31 @@
         <v>253</v>
       </c>
       <c r="AK58" t="n">
-        <v>345.0577392578125</v>
+        <v>344.5618896484375</v>
       </c>
       <c r="AL58" t="n">
-        <v>321.4501647949219</v>
+        <v>341.5361938476562</v>
       </c>
       <c r="AM58" t="n">
-        <v>383.3066101074219</v>
+        <v>341.5361938476562</v>
       </c>
       <c r="AN58" t="n">
-        <v>383.3066101074219</v>
+        <v>428.4045715332031</v>
       </c>
       <c r="AO58" t="n">
-        <v>422.0371704101562</v>
+        <v>264.0353698730469</v>
       </c>
       <c r="AP58" t="n">
-        <v>232.2360534667969</v>
+        <v>356.4922485351562</v>
       </c>
       <c r="AQ58" t="n">
-        <v>381.7577514648438</v>
+        <v>340.7003173828125</v>
       </c>
       <c r="AR58" t="n">
-        <v>348.6430358886719</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>283.8119812011719</v>
+        <v>309.6199035644531</v>
       </c>
     </row>
-    <row r="59" spans="1:45">
+    <row r="59" spans="1:44">
       <c r="A59" s="2" t="n">
         <v>43606</v>
       </c>
@@ -8568,34 +8391,31 @@
         <v>358</v>
       </c>
       <c r="AK59" t="n">
-        <v>368.7495727539062</v>
+        <v>454.105224609375</v>
       </c>
       <c r="AL59" t="n">
-        <v>439.4912414550781</v>
+        <v>401.5837097167969</v>
       </c>
       <c r="AM59" t="n">
-        <v>501.0183715820312</v>
+        <v>401.5837097167969</v>
       </c>
       <c r="AN59" t="n">
-        <v>501.0183715820312</v>
+        <v>432.5696716308594</v>
       </c>
       <c r="AO59" t="n">
-        <v>429.1469421386719</v>
+        <v>380.6696472167969</v>
       </c>
       <c r="AP59" t="n">
-        <v>262.4088745117188</v>
+        <v>441.5505065917969</v>
       </c>
       <c r="AQ59" t="n">
-        <v>459.5528259277344</v>
+        <v>381.4320373535156</v>
       </c>
       <c r="AR59" t="n">
-        <v>383.3288879394531</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>272.9312744140625</v>
+        <v>305.6673889160156</v>
       </c>
     </row>
-    <row r="60" spans="1:45">
+    <row r="60" spans="1:44">
       <c r="A60" s="2" t="n">
         <v>43607</v>
       </c>
@@ -8705,34 +8525,31 @@
         <v>0</v>
       </c>
       <c r="AK60" t="n">
-        <v>320.2944946289062</v>
+        <v>329.0661926269531</v>
       </c>
       <c r="AL60" t="n">
-        <v>296.6307373046875</v>
+        <v>328.1199035644531</v>
       </c>
       <c r="AM60" t="n">
-        <v>291.2044067382812</v>
+        <v>328.1199035644531</v>
       </c>
       <c r="AN60" t="n">
-        <v>291.2044067382812</v>
+        <v>390.2745056152344</v>
       </c>
       <c r="AO60" t="n">
-        <v>420.6990661621094</v>
+        <v>336.2012023925781</v>
       </c>
       <c r="AP60" t="n">
-        <v>338.4132080078125</v>
+        <v>312.168212890625</v>
       </c>
       <c r="AQ60" t="n">
-        <v>294.1031494140625</v>
+        <v>357.045166015625</v>
       </c>
       <c r="AR60" t="n">
-        <v>312.7800598144531</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>264.0070495605469</v>
+        <v>305.2284545898438</v>
       </c>
     </row>
-    <row r="61" spans="1:45">
+    <row r="61" spans="1:44">
       <c r="A61" s="2" t="n">
         <v>43608</v>
       </c>
@@ -8842,34 +8659,31 @@
         <v>317</v>
       </c>
       <c r="AK61" t="n">
-        <v>370.873291015625</v>
+        <v>454.42041015625</v>
       </c>
       <c r="AL61" t="n">
-        <v>442.6385192871094</v>
+        <v>394.6942749023438</v>
       </c>
       <c r="AM61" t="n">
-        <v>429.4105224609375</v>
+        <v>394.6942749023438</v>
       </c>
       <c r="AN61" t="n">
-        <v>429.4105224609375</v>
+        <v>397.4945373535156</v>
       </c>
       <c r="AO61" t="n">
-        <v>392.7501525878906</v>
+        <v>425.569580078125</v>
       </c>
       <c r="AP61" t="n">
-        <v>412.1226806640625</v>
+        <v>402.7184448242188</v>
       </c>
       <c r="AQ61" t="n">
-        <v>416.0353393554688</v>
+        <v>386.9937744140625</v>
       </c>
       <c r="AR61" t="n">
-        <v>369.8526916503906</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>307.4638671875</v>
+        <v>337.7992858886719</v>
       </c>
     </row>
-    <row r="62" spans="1:45">
+    <row r="62" spans="1:44">
       <c r="A62" s="2" t="n">
         <v>43609</v>
       </c>
@@ -8979,34 +8793,31 @@
         <v>85</v>
       </c>
       <c r="AK62" t="n">
-        <v>327.4229125976562</v>
+        <v>332.8558044433594</v>
       </c>
       <c r="AL62" t="n">
-        <v>344.3741455078125</v>
+        <v>357.6971435546875</v>
       </c>
       <c r="AM62" t="n">
-        <v>328.827880859375</v>
+        <v>357.6971435546875</v>
       </c>
       <c r="AN62" t="n">
-        <v>328.827880859375</v>
+        <v>329.6383972167969</v>
       </c>
       <c r="AO62" t="n">
-        <v>336.4630432128906</v>
+        <v>307.8222351074219</v>
       </c>
       <c r="AP62" t="n">
-        <v>363.3951721191406</v>
+        <v>327.8169250488281</v>
       </c>
       <c r="AQ62" t="n">
-        <v>358.6680297851562</v>
+        <v>373.542236328125</v>
       </c>
       <c r="AR62" t="n">
-        <v>338.7872924804688</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>313.0980834960938</v>
+        <v>345.7332458496094</v>
       </c>
     </row>
-    <row r="63" spans="1:45">
+    <row r="63" spans="1:44">
       <c r="A63" s="2" t="n">
         <v>43612</v>
       </c>
@@ -9116,34 +8927,31 @@
         <v>244</v>
       </c>
       <c r="AK63" t="n">
-        <v>311.54541015625</v>
+        <v>339.5967102050781</v>
       </c>
       <c r="AL63" t="n">
-        <v>338.5545349121094</v>
+        <v>323.9591674804688</v>
       </c>
       <c r="AM63" t="n">
-        <v>338.4829406738281</v>
+        <v>323.9591674804688</v>
       </c>
       <c r="AN63" t="n">
-        <v>338.4829406738281</v>
+        <v>370.1929016113281</v>
       </c>
       <c r="AO63" t="n">
-        <v>376.8440856933594</v>
+        <v>337.5287780761719</v>
       </c>
       <c r="AP63" t="n">
-        <v>319.3488159179688</v>
+        <v>293.3733520507812</v>
       </c>
       <c r="AQ63" t="n">
-        <v>320.8362426757812</v>
+        <v>300.3073120117188</v>
       </c>
       <c r="AR63" t="n">
-        <v>312.8783569335938</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>306.3956909179688</v>
+        <v>323.2151794433594</v>
       </c>
     </row>
-    <row r="64" spans="1:45">
+    <row r="64" spans="1:44">
       <c r="A64" s="2" t="n">
         <v>43613</v>
       </c>
@@ -9253,34 +9061,31 @@
         <v>332</v>
       </c>
       <c r="AK64" t="n">
-        <v>331.6224365234375</v>
+        <v>461.9954223632812</v>
       </c>
       <c r="AL64" t="n">
-        <v>455.379638671875</v>
+        <v>403.3849182128906</v>
       </c>
       <c r="AM64" t="n">
-        <v>420.9895629882812</v>
+        <v>403.3849182128906</v>
       </c>
       <c r="AN64" t="n">
-        <v>420.9895629882812</v>
+        <v>423.9564208984375</v>
       </c>
       <c r="AO64" t="n">
-        <v>435.080810546875</v>
+        <v>464.2801513671875</v>
       </c>
       <c r="AP64" t="n">
-        <v>469.6088256835938</v>
+        <v>393.7940063476562</v>
       </c>
       <c r="AQ64" t="n">
-        <v>400.5062561035156</v>
+        <v>376.3231811523438</v>
       </c>
       <c r="AR64" t="n">
-        <v>393.7542419433594</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>301.5173645019531</v>
+        <v>312.5550231933594</v>
       </c>
     </row>
-    <row r="65" spans="1:45">
+    <row r="65" spans="1:44">
       <c r="A65" s="2" t="n">
         <v>43614</v>
       </c>
@@ -9390,34 +9195,31 @@
         <v>295</v>
       </c>
       <c r="AK65" t="n">
-        <v>370.7946166992188</v>
+        <v>408.6634216308594</v>
       </c>
       <c r="AL65" t="n">
-        <v>412.3045959472656</v>
+        <v>416.6531982421875</v>
       </c>
       <c r="AM65" t="n">
-        <v>396.5313720703125</v>
+        <v>416.6531982421875</v>
       </c>
       <c r="AN65" t="n">
-        <v>396.5313720703125</v>
+        <v>405.8552551269531</v>
       </c>
       <c r="AO65" t="n">
-        <v>427.500732421875</v>
+        <v>407.8294067382812</v>
       </c>
       <c r="AP65" t="n">
-        <v>421.7289428710938</v>
+        <v>434.810302734375</v>
       </c>
       <c r="AQ65" t="n">
-        <v>441.7246704101562</v>
+        <v>412.6172790527344</v>
       </c>
       <c r="AR65" t="n">
-        <v>410.1291198730469</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>307.71435546875</v>
+        <v>358.1260681152344</v>
       </c>
     </row>
-    <row r="66" spans="1:45">
+    <row r="66" spans="1:44">
       <c r="A66" s="2" t="n">
         <v>43615</v>
       </c>
@@ -9527,34 +9329,31 @@
         <v>289</v>
       </c>
       <c r="AK66" t="n">
-        <v>343.0618591308594</v>
+        <v>459.309326171875</v>
       </c>
       <c r="AL66" t="n">
-        <v>453.0542297363281</v>
+        <v>405.8888244628906</v>
       </c>
       <c r="AM66" t="n">
-        <v>438.2120361328125</v>
+        <v>405.8888244628906</v>
       </c>
       <c r="AN66" t="n">
-        <v>438.2120361328125</v>
+        <v>394.6974182128906</v>
       </c>
       <c r="AO66" t="n">
-        <v>392.7290344238281</v>
+        <v>427.8345031738281</v>
       </c>
       <c r="AP66" t="n">
-        <v>419.550537109375</v>
+        <v>422.2349243164062</v>
       </c>
       <c r="AQ66" t="n">
-        <v>445.5447998046875</v>
+        <v>372.9847412109375</v>
       </c>
       <c r="AR66" t="n">
-        <v>383.5736999511719</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>280.4880676269531</v>
+        <v>345.8576354980469</v>
       </c>
     </row>
-    <row r="67" spans="1:45">
+    <row r="67" spans="1:44">
       <c r="A67" s="2" t="n">
         <v>43616</v>
       </c>
@@ -9664,36 +9463,33 @@
         <v>63</v>
       </c>
       <c r="AK67" t="n">
-        <v>235.2049865722656</v>
+        <v>285.2980651855469</v>
       </c>
       <c r="AL67" t="n">
-        <v>309.3855895996094</v>
+        <v>276.9002685546875</v>
       </c>
       <c r="AM67" t="n">
-        <v>286.2777099609375</v>
+        <v>276.9002685546875</v>
       </c>
       <c r="AN67" t="n">
-        <v>286.2777099609375</v>
+        <v>379.9732971191406</v>
       </c>
       <c r="AO67" t="n">
-        <v>400.3213806152344</v>
+        <v>283.0592651367188</v>
       </c>
       <c r="AP67" t="n">
-        <v>233.4908752441406</v>
+        <v>210.4247894287109</v>
       </c>
       <c r="AQ67" t="n">
-        <v>243.7286224365234</v>
+        <v>269.3960266113281</v>
       </c>
       <c r="AR67" t="n">
-        <v>194.8765106201172</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>254.5014190673828</v>
+        <v>290.2732238769531</v>
       </c>
     </row>
-    <row r="68" spans="1:45">
+    <row r="68" spans="1:44">
       <c r="A68" s="2" t="n">
-        <v>43530</v>
+        <v>43619</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -9801,36 +9597,33 @@
         <v>274</v>
       </c>
       <c r="AK68" t="n">
-        <v>382.5107116699219</v>
+        <v>303.29443359375</v>
       </c>
       <c r="AL68" t="n">
-        <v>305.6672058105469</v>
+        <v>274.9921264648438</v>
       </c>
       <c r="AM68" t="n">
-        <v>274.1261901855469</v>
+        <v>274.9921264648438</v>
       </c>
       <c r="AN68" t="n">
-        <v>274.1261901855469</v>
+        <v>332.7748107910156</v>
       </c>
       <c r="AO68" t="n">
-        <v>337.7872314453125</v>
+        <v>266.8121032714844</v>
       </c>
       <c r="AP68" t="n">
-        <v>256.7745666503906</v>
+        <v>297.0603332519531</v>
       </c>
       <c r="AQ68" t="n">
-        <v>368.4735107421875</v>
+        <v>301.7282104492188</v>
       </c>
       <c r="AR68" t="n">
-        <v>349.3658447265625</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>303.8421630859375</v>
+        <v>332.0779418945312</v>
       </c>
     </row>
-    <row r="69" spans="1:45">
+    <row r="69" spans="1:44">
       <c r="A69" s="2" t="n">
-        <v>43561</v>
+        <v>43620</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -9938,36 +9731,33 @@
         <v>344</v>
       </c>
       <c r="AK69" t="n">
-        <v>232.6278991699219</v>
+        <v>254.3133850097656</v>
       </c>
       <c r="AL69" t="n">
-        <v>244.1997375488281</v>
+        <v>197.8919372558594</v>
       </c>
       <c r="AM69" t="n">
-        <v>211.741943359375</v>
+        <v>197.8919372558594</v>
       </c>
       <c r="AN69" t="n">
-        <v>211.741943359375</v>
+        <v>272.2318420410156</v>
       </c>
       <c r="AO69" t="n">
-        <v>276.9564514160156</v>
+        <v>56.06206512451172</v>
       </c>
       <c r="AP69" t="n">
-        <v>118.2586135864258</v>
+        <v>179.1083526611328</v>
       </c>
       <c r="AQ69" t="n">
-        <v>219.7168426513672</v>
+        <v>177.7595520019531</v>
       </c>
       <c r="AR69" t="n">
-        <v>235.8805389404297</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>234.0661163330078</v>
+        <v>229.9851226806641</v>
       </c>
     </row>
-    <row r="70" spans="1:45">
+    <row r="70" spans="1:44">
       <c r="A70" s="2" t="n">
-        <v>43591</v>
+        <v>43621</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -10075,34 +9865,31 @@
         <v>283</v>
       </c>
       <c r="AK70" t="n">
-        <v>169.6446533203125</v>
+        <v>149.2502136230469</v>
       </c>
       <c r="AL70" t="n">
-        <v>89.67520141601562</v>
+        <v>174.5434265136719</v>
       </c>
       <c r="AM70" t="n">
-        <v>53.26270294189453</v>
+        <v>174.5434265136719</v>
       </c>
       <c r="AN70" t="n">
-        <v>53.26270294189453</v>
+        <v>112.4550857543945</v>
       </c>
       <c r="AO70" t="n">
-        <v>144.2078094482422</v>
+        <v>122.2490310668945</v>
       </c>
       <c r="AP70" t="n">
-        <v>122.4839706420898</v>
+        <v>168.7163238525391</v>
       </c>
       <c r="AQ70" t="n">
-        <v>197.6628265380859</v>
+        <v>149.6824188232422</v>
       </c>
       <c r="AR70" t="n">
-        <v>200.9484405517578</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>167.1243743896484</v>
+        <v>175.3335418701172</v>
       </c>
     </row>
-    <row r="71" spans="1:45">
+    <row r="71" spans="1:44">
       <c r="A71" s="2" t="n">
         <v>43622</v>
       </c>
@@ -10212,36 +9999,33 @@
         <v>7</v>
       </c>
       <c r="AK71" t="n">
-        <v>181.8353271484375</v>
+        <v>13.05181503295898</v>
       </c>
       <c r="AL71" t="n">
-        <v>52.23470306396484</v>
+        <v>157.6382293701172</v>
       </c>
       <c r="AM71" t="n">
-        <v>94.94743347167969</v>
+        <v>157.6382293701172</v>
       </c>
       <c r="AN71" t="n">
-        <v>94.94743347167969</v>
+        <v>39.64418792724609</v>
       </c>
       <c r="AO71" t="n">
-        <v>101.6118621826172</v>
+        <v>82.85986328125</v>
       </c>
       <c r="AP71" t="n">
-        <v>143.6177062988281</v>
+        <v>163.3541412353516</v>
       </c>
       <c r="AQ71" t="n">
-        <v>129.6478271484375</v>
+        <v>173.4455108642578</v>
       </c>
       <c r="AR71" t="n">
-        <v>130.1418762207031</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>144.6854705810547</v>
+        <v>156.5039520263672</v>
       </c>
     </row>
-    <row r="72" spans="1:45">
+    <row r="72" spans="1:44">
       <c r="A72" s="2" t="n">
-        <v>43652</v>
+        <v>43623</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -10349,36 +10133,33 @@
         <v>65</v>
       </c>
       <c r="AK72" t="n">
-        <v>134.07568359375</v>
+        <v>11.48020172119141</v>
       </c>
       <c r="AL72" t="n">
-        <v>27.82181358337402</v>
+        <v>165.9206390380859</v>
       </c>
       <c r="AM72" t="n">
-        <v>92.49999237060547</v>
+        <v>165.9206390380859</v>
       </c>
       <c r="AN72" t="n">
-        <v>92.49999237060547</v>
+        <v>73.25765228271484</v>
       </c>
       <c r="AO72" t="n">
-        <v>126.8353118896484</v>
+        <v>147.9958190917969</v>
       </c>
       <c r="AP72" t="n">
-        <v>85.41724395751953</v>
+        <v>140.0780487060547</v>
       </c>
       <c r="AQ72" t="n">
-        <v>165.1485443115234</v>
+        <v>146.8865814208984</v>
       </c>
       <c r="AR72" t="n">
-        <v>162.398193359375</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>140.0803833007812</v>
+        <v>142.6510467529297</v>
       </c>
     </row>
-    <row r="73" spans="1:45">
+    <row r="73" spans="1:44">
       <c r="A73" s="2" t="n">
-        <v>43744</v>
+        <v>43626</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -10486,36 +10267,33 @@
         <v>0</v>
       </c>
       <c r="AK73" t="n">
-        <v>185.5166778564453</v>
+        <v>97.08612823486328</v>
       </c>
       <c r="AL73" t="n">
-        <v>81.98126983642578</v>
+        <v>166.9173126220703</v>
       </c>
       <c r="AM73" t="n">
-        <v>143.1439208984375</v>
+        <v>166.9173126220703</v>
       </c>
       <c r="AN73" t="n">
-        <v>143.1439208984375</v>
+        <v>73.90016174316406</v>
       </c>
       <c r="AO73" t="n">
-        <v>105.5621566772461</v>
+        <v>193.4720916748047</v>
       </c>
       <c r="AP73" t="n">
-        <v>156.1675720214844</v>
+        <v>146.4917602539062</v>
       </c>
       <c r="AQ73" t="n">
-        <v>128.6499328613281</v>
+        <v>164.5154571533203</v>
       </c>
       <c r="AR73" t="n">
-        <v>164.9459381103516</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>150.5755004882812</v>
+        <v>166.6102447509766</v>
       </c>
     </row>
-    <row r="74" spans="1:45">
+    <row r="74" spans="1:44">
       <c r="A74" s="2" t="n">
-        <v>43775</v>
+        <v>43627</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -10623,36 +10401,33 @@
         <v>36</v>
       </c>
       <c r="AK74" t="n">
-        <v>309.9556579589844</v>
+        <v>477.3196411132812</v>
       </c>
       <c r="AL74" t="n">
-        <v>434.0132141113281</v>
+        <v>322.3138122558594</v>
       </c>
       <c r="AM74" t="n">
-        <v>425.5310974121094</v>
+        <v>322.3138122558594</v>
       </c>
       <c r="AN74" t="n">
-        <v>425.5310974121094</v>
+        <v>448.9864807128906</v>
       </c>
       <c r="AO74" t="n">
-        <v>450.0016174316406</v>
+        <v>388.9155883789062</v>
       </c>
       <c r="AP74" t="n">
-        <v>410.0770568847656</v>
+        <v>362.3070373535156</v>
       </c>
       <c r="AQ74" t="n">
-        <v>319.2617797851562</v>
+        <v>345.0894470214844</v>
       </c>
       <c r="AR74" t="n">
-        <v>335.5207214355469</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>210.7077941894531</v>
+        <v>236.0970153808594</v>
       </c>
     </row>
-    <row r="75" spans="1:45">
+    <row r="75" spans="1:44">
       <c r="A75" s="2" t="n">
-        <v>43805</v>
+        <v>43628</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -10760,34 +10535,31 @@
         <v>83</v>
       </c>
       <c r="AK75" t="n">
-        <v>398.7445983886719</v>
+        <v>419.6105346679688</v>
       </c>
       <c r="AL75" t="n">
-        <v>427.423583984375</v>
+        <v>376.8417358398438</v>
       </c>
       <c r="AM75" t="n">
-        <v>392.98779296875</v>
+        <v>376.8417358398438</v>
       </c>
       <c r="AN75" t="n">
-        <v>392.98779296875</v>
+        <v>403.9345092773438</v>
       </c>
       <c r="AO75" t="n">
-        <v>430.6983642578125</v>
+        <v>385.3359985351562</v>
       </c>
       <c r="AP75" t="n">
-        <v>426.45068359375</v>
+        <v>417.0923461914062</v>
       </c>
       <c r="AQ75" t="n">
-        <v>391.2386169433594</v>
+        <v>408.8598022460938</v>
       </c>
       <c r="AR75" t="n">
-        <v>397.2961120605469</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>248.9452209472656</v>
+        <v>320.0005493164062</v>
       </c>
     </row>
-    <row r="76" spans="1:45">
+    <row r="76" spans="1:44">
       <c r="A76" s="2" t="n">
         <v>43629</v>
       </c>
@@ -10897,34 +10669,31 @@
         <v>33</v>
       </c>
       <c r="AK76" t="n">
-        <v>364.039794921875</v>
+        <v>418.8502197265625</v>
       </c>
       <c r="AL76" t="n">
-        <v>396.8535766601562</v>
+        <v>344.5651245117188</v>
       </c>
       <c r="AM76" t="n">
-        <v>363.6570434570312</v>
+        <v>344.5651245117188</v>
       </c>
       <c r="AN76" t="n">
-        <v>363.6570434570312</v>
+        <v>360.3233032226562</v>
       </c>
       <c r="AO76" t="n">
-        <v>370.3886108398438</v>
+        <v>332.0531921386719</v>
       </c>
       <c r="AP76" t="n">
-        <v>399.388671875</v>
+        <v>323.5828247070312</v>
       </c>
       <c r="AQ76" t="n">
-        <v>324.1956176757812</v>
+        <v>380.0975341796875</v>
       </c>
       <c r="AR76" t="n">
-        <v>339.9273376464844</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>297.6347961425781</v>
+        <v>341.8375854492188</v>
       </c>
     </row>
-    <row r="77" spans="1:45">
+    <row r="77" spans="1:44">
       <c r="A77" s="2" t="n">
         <v>43633</v>
       </c>
@@ -11034,34 +10803,31 @@
         <v>58</v>
       </c>
       <c r="AK77" t="n">
-        <v>409.1094970703125</v>
+        <v>360.981689453125</v>
       </c>
       <c r="AL77" t="n">
-        <v>378.4989013671875</v>
+        <v>360.6336059570312</v>
       </c>
       <c r="AM77" t="n">
-        <v>349.5302734375</v>
+        <v>360.6336059570312</v>
       </c>
       <c r="AN77" t="n">
-        <v>349.5302734375</v>
+        <v>376.0543823242188</v>
       </c>
       <c r="AO77" t="n">
-        <v>398.9309997558594</v>
+        <v>344.9811096191406</v>
       </c>
       <c r="AP77" t="n">
-        <v>411.6390075683594</v>
+        <v>358.4565124511719</v>
       </c>
       <c r="AQ77" t="n">
-        <v>338.413330078125</v>
+        <v>413.4548034667969</v>
       </c>
       <c r="AR77" t="n">
-        <v>394.5353393554688</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>338.4515380859375</v>
+        <v>385.7618408203125</v>
       </c>
     </row>
-    <row r="78" spans="1:45">
+    <row r="78" spans="1:44">
       <c r="A78" s="2" t="n">
         <v>43634</v>
       </c>
@@ -11171,34 +10937,31 @@
         <v>258</v>
       </c>
       <c r="AK78" t="n">
-        <v>416.1346130371094</v>
+        <v>406.8103332519531</v>
       </c>
       <c r="AL78" t="n">
-        <v>395.5293579101562</v>
+        <v>410.2489318847656</v>
       </c>
       <c r="AM78" t="n">
-        <v>402.7266235351562</v>
+        <v>410.2489318847656</v>
       </c>
       <c r="AN78" t="n">
-        <v>402.7266235351562</v>
+        <v>380.7923583984375</v>
       </c>
       <c r="AO78" t="n">
-        <v>397.9602355957031</v>
+        <v>408.4857177734375</v>
       </c>
       <c r="AP78" t="n">
-        <v>396.022705078125</v>
+        <v>395.0338745117188</v>
       </c>
       <c r="AQ78" t="n">
-        <v>401.1214904785156</v>
+        <v>418.2493591308594</v>
       </c>
       <c r="AR78" t="n">
-        <v>417.9288940429688</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>368.3544921875</v>
+        <v>393.1417236328125</v>
       </c>
     </row>
-    <row r="79" spans="1:45">
+    <row r="79" spans="1:44">
       <c r="A79" s="2" t="n">
         <v>43635</v>
       </c>
@@ -11308,34 +11071,31 @@
         <v>375</v>
       </c>
       <c r="AK79" t="n">
-        <v>397.2687072753906</v>
+        <v>413.7268371582031</v>
       </c>
       <c r="AL79" t="n">
-        <v>430.1658325195312</v>
+        <v>413.6659851074219</v>
       </c>
       <c r="AM79" t="n">
-        <v>401.8642883300781</v>
+        <v>413.6659851074219</v>
       </c>
       <c r="AN79" t="n">
-        <v>401.8642883300781</v>
+        <v>388.4480590820312</v>
       </c>
       <c r="AO79" t="n">
-        <v>398.6306457519531</v>
+        <v>405.3839416503906</v>
       </c>
       <c r="AP79" t="n">
-        <v>447.2488098144531</v>
+        <v>396.6111755371094</v>
       </c>
       <c r="AQ79" t="n">
-        <v>417.4696655273438</v>
+        <v>407.7555847167969</v>
       </c>
       <c r="AR79" t="n">
-        <v>415.2969055175781</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>376.1285705566406</v>
+        <v>387.0398864746094</v>
       </c>
     </row>
-    <row r="80" spans="1:45">
+    <row r="80" spans="1:44">
       <c r="A80" s="2" t="n">
         <v>43640</v>
       </c>
@@ -11445,34 +11205,31 @@
         <v>230</v>
       </c>
       <c r="AK80" t="n">
-        <v>356.0695495605469</v>
+        <v>320.7690124511719</v>
       </c>
       <c r="AL80" t="n">
-        <v>332.6442260742188</v>
+        <v>356.76123046875</v>
       </c>
       <c r="AM80" t="n">
-        <v>329.2686462402344</v>
+        <v>356.76123046875</v>
       </c>
       <c r="AN80" t="n">
-        <v>329.2686462402344</v>
+        <v>314.246826171875</v>
       </c>
       <c r="AO80" t="n">
-        <v>324.2839965820312</v>
+        <v>356.0660705566406</v>
       </c>
       <c r="AP80" t="n">
-        <v>353.6295166015625</v>
+        <v>337.8098754882812</v>
       </c>
       <c r="AQ80" t="n">
-        <v>340.3072509765625</v>
+        <v>339.7628479003906</v>
       </c>
       <c r="AR80" t="n">
-        <v>360.9299926757812</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>325.4021301269531</v>
+        <v>351.6876525878906</v>
       </c>
     </row>
-    <row r="81" spans="1:45">
+    <row r="81" spans="1:44">
       <c r="A81" s="2" t="n">
         <v>43641</v>
       </c>
@@ -11582,34 +11339,31 @@
         <v>323</v>
       </c>
       <c r="AK81" t="n">
-        <v>345.812255859375</v>
+        <v>405.3861389160156</v>
       </c>
       <c r="AL81" t="n">
-        <v>410.8956909179688</v>
+        <v>378.02783203125</v>
       </c>
       <c r="AM81" t="n">
-        <v>404.1481628417969</v>
+        <v>378.02783203125</v>
       </c>
       <c r="AN81" t="n">
-        <v>404.1481628417969</v>
+        <v>394.7126770019531</v>
       </c>
       <c r="AO81" t="n">
-        <v>390.941650390625</v>
+        <v>381.6620788574219</v>
       </c>
       <c r="AP81" t="n">
-        <v>436.1724243164062</v>
+        <v>355.3143005371094</v>
       </c>
       <c r="AQ81" t="n">
-        <v>377.0175476074219</v>
+        <v>349.5346984863281</v>
       </c>
       <c r="AR81" t="n">
-        <v>389.5655212402344</v>
-      </c>
-      <c r="AS81" t="n">
-        <v>318.1514892578125</v>
+        <v>330.0288696289062</v>
       </c>
     </row>
-    <row r="82" spans="1:45">
+    <row r="82" spans="1:44">
       <c r="A82" s="2" t="n">
         <v>43642</v>
       </c>
@@ -11719,34 +11473,31 @@
         <v>257</v>
       </c>
       <c r="AK82" t="n">
-        <v>334.0550537109375</v>
+        <v>334.0310668945312</v>
       </c>
       <c r="AL82" t="n">
-        <v>348.1270751953125</v>
+        <v>347.8829040527344</v>
       </c>
       <c r="AM82" t="n">
-        <v>351.8049926757812</v>
+        <v>347.8829040527344</v>
       </c>
       <c r="AN82" t="n">
-        <v>351.8049926757812</v>
+        <v>351.1480712890625</v>
       </c>
       <c r="AO82" t="n">
-        <v>348.8288269042969</v>
+        <v>365.2026672363281</v>
       </c>
       <c r="AP82" t="n">
-        <v>382.9869079589844</v>
+        <v>322.5943298339844</v>
       </c>
       <c r="AQ82" t="n">
-        <v>325.1843566894531</v>
+        <v>308.6745910644531</v>
       </c>
       <c r="AR82" t="n">
-        <v>318.544189453125</v>
-      </c>
-      <c r="AS82" t="n">
-        <v>304.3790893554688</v>
+        <v>318.6452026367188</v>
       </c>
     </row>
-    <row r="83" spans="1:45">
+    <row r="83" spans="1:44">
       <c r="A83" s="2" t="n">
         <v>43643</v>
       </c>
@@ -11856,34 +11607,31 @@
         <v>308</v>
       </c>
       <c r="AK83" t="n">
-        <v>348.7328491210938</v>
+        <v>358.742431640625</v>
       </c>
       <c r="AL83" t="n">
-        <v>363.9361267089844</v>
+        <v>331.0536499023438</v>
       </c>
       <c r="AM83" t="n">
-        <v>388.0657653808594</v>
+        <v>331.0536499023438</v>
       </c>
       <c r="AN83" t="n">
-        <v>388.0657653808594</v>
+        <v>361.4295349121094</v>
       </c>
       <c r="AO83" t="n">
-        <v>342.8233032226562</v>
+        <v>359.7884826660156</v>
       </c>
       <c r="AP83" t="n">
-        <v>363.8811340332031</v>
+        <v>327.1195068359375</v>
       </c>
       <c r="AQ83" t="n">
-        <v>330.9953308105469</v>
+        <v>337.4658203125</v>
       </c>
       <c r="AR83" t="n">
-        <v>324.8737182617188</v>
-      </c>
-      <c r="AS83" t="n">
-        <v>322.9890441894531</v>
+        <v>331.2711791992188</v>
       </c>
     </row>
-    <row r="84" spans="1:45">
+    <row r="84" spans="1:44">
       <c r="A84" s="2" t="n">
         <v>43644</v>
       </c>
@@ -11993,36 +11741,33 @@
         <v>175</v>
       </c>
       <c r="AK84" t="n">
-        <v>306.470458984375</v>
+        <v>307.7206115722656</v>
       </c>
       <c r="AL84" t="n">
-        <v>316.3344421386719</v>
+        <v>307.9013366699219</v>
       </c>
       <c r="AM84" t="n">
-        <v>342.4164733886719</v>
+        <v>307.9013366699219</v>
       </c>
       <c r="AN84" t="n">
-        <v>342.4164733886719</v>
+        <v>306.049560546875</v>
       </c>
       <c r="AO84" t="n">
-        <v>312.868896484375</v>
+        <v>300.0067138671875</v>
       </c>
       <c r="AP84" t="n">
-        <v>277.300537109375</v>
+        <v>287.2645568847656</v>
       </c>
       <c r="AQ84" t="n">
-        <v>303.303955078125</v>
+        <v>333.3223876953125</v>
       </c>
       <c r="AR84" t="n">
-        <v>302.0509338378906</v>
-      </c>
-      <c r="AS84" t="n">
-        <v>304.710205078125</v>
+        <v>310.5910339355469</v>
       </c>
     </row>
-    <row r="85" spans="1:45">
+    <row r="85" spans="1:44">
       <c r="A85" s="2" t="n">
-        <v>43472</v>
+        <v>43647</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -12130,36 +11875,33 @@
         <v>204</v>
       </c>
       <c r="AK85" t="n">
-        <v>245.4159698486328</v>
+        <v>263.0475463867188</v>
       </c>
       <c r="AL85" t="n">
-        <v>244.1335906982422</v>
+        <v>236.5487670898438</v>
       </c>
       <c r="AM85" t="n">
-        <v>268.2283020019531</v>
+        <v>236.5487670898438</v>
       </c>
       <c r="AN85" t="n">
-        <v>268.2283020019531</v>
+        <v>310.4583129882812</v>
       </c>
       <c r="AO85" t="n">
-        <v>282.7798461914062</v>
+        <v>231.9599304199219</v>
       </c>
       <c r="AP85" t="n">
-        <v>241.0263671875</v>
+        <v>229.4820556640625</v>
       </c>
       <c r="AQ85" t="n">
-        <v>283.789794921875</v>
+        <v>237.9639892578125</v>
       </c>
       <c r="AR85" t="n">
-        <v>279.4007568359375</v>
-      </c>
-      <c r="AS85" t="n">
-        <v>245.2555541992188</v>
+        <v>222.3240814208984</v>
       </c>
     </row>
-    <row r="86" spans="1:45">
+    <row r="86" spans="1:44">
       <c r="A86" s="2" t="n">
-        <v>43503</v>
+        <v>43648</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -12267,36 +12009,33 @@
         <v>189</v>
       </c>
       <c r="AK86" t="n">
-        <v>204.3533935546875</v>
+        <v>220.8818054199219</v>
       </c>
       <c r="AL86" t="n">
-        <v>203.7306671142578</v>
+        <v>183.3874359130859</v>
       </c>
       <c r="AM86" t="n">
-        <v>199.8905334472656</v>
+        <v>183.3874359130859</v>
       </c>
       <c r="AN86" t="n">
-        <v>199.8905334472656</v>
+        <v>245.1123504638672</v>
       </c>
       <c r="AO86" t="n">
-        <v>228.9754943847656</v>
+        <v>105.6454849243164</v>
       </c>
       <c r="AP86" t="n">
-        <v>217.2881317138672</v>
+        <v>163.1652984619141</v>
       </c>
       <c r="AQ86" t="n">
-        <v>248.305419921875</v>
+        <v>173.392822265625</v>
       </c>
       <c r="AR86" t="n">
-        <v>248.4891357421875</v>
-      </c>
-      <c r="AS86" t="n">
-        <v>235.2470550537109</v>
+        <v>201.9609680175781</v>
       </c>
     </row>
-    <row r="87" spans="1:45">
+    <row r="87" spans="1:44">
       <c r="A87" s="2" t="n">
-        <v>43531</v>
+        <v>43649</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -12404,36 +12143,33 @@
         <v>167</v>
       </c>
       <c r="AK87" t="n">
-        <v>159.5755615234375</v>
+        <v>176.8278961181641</v>
       </c>
       <c r="AL87" t="n">
-        <v>149.4744567871094</v>
+        <v>135.9808654785156</v>
       </c>
       <c r="AM87" t="n">
-        <v>129.6640319824219</v>
+        <v>135.9808654785156</v>
       </c>
       <c r="AN87" t="n">
-        <v>129.6640319824219</v>
+        <v>158.0187683105469</v>
       </c>
       <c r="AO87" t="n">
-        <v>152.5754699707031</v>
+        <v>145.14501953125</v>
       </c>
       <c r="AP87" t="n">
-        <v>142.3671722412109</v>
+        <v>127.1884689331055</v>
       </c>
       <c r="AQ87" t="n">
-        <v>206.80712890625</v>
+        <v>151.0465393066406</v>
       </c>
       <c r="AR87" t="n">
-        <v>248.8352813720703</v>
-      </c>
-      <c r="AS87" t="n">
-        <v>213.7487640380859</v>
+        <v>175.7183532714844</v>
       </c>
     </row>
-    <row r="88" spans="1:45">
+    <row r="88" spans="1:44">
       <c r="A88" s="2" t="n">
-        <v>43562</v>
+        <v>43650</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -12541,36 +12277,33 @@
         <v>156</v>
       </c>
       <c r="AK88" t="n">
-        <v>217.6390380859375</v>
+        <v>102.1854934692383</v>
       </c>
       <c r="AL88" t="n">
-        <v>82.90576934814453</v>
+        <v>112.9442291259766</v>
       </c>
       <c r="AM88" t="n">
-        <v>46.04744720458984</v>
+        <v>112.9442291259766</v>
       </c>
       <c r="AN88" t="n">
-        <v>46.04744720458984</v>
+        <v>66.41143035888672</v>
       </c>
       <c r="AO88" t="n">
-        <v>77.36981201171875</v>
+        <v>130.4282836914062</v>
       </c>
       <c r="AP88" t="n">
-        <v>81.76171112060547</v>
+        <v>150.5833740234375</v>
       </c>
       <c r="AQ88" t="n">
-        <v>225.0061187744141</v>
+        <v>169.9295501708984</v>
       </c>
       <c r="AR88" t="n">
-        <v>269.4425964355469</v>
-      </c>
-      <c r="AS88" t="n">
-        <v>219.0485992431641</v>
+        <v>195.9550170898438</v>
       </c>
     </row>
-    <row r="89" spans="1:45">
+    <row r="89" spans="1:44">
       <c r="A89" s="2" t="n">
-        <v>43592</v>
+        <v>43651</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -12678,36 +12411,33 @@
         <v>26</v>
       </c>
       <c r="AK89" t="n">
+        <v>28.07065773010254</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>94.99063873291016</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>94.99063873291016</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>33.74173355102539</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>88.59572601318359</v>
+      </c>
+      <c r="AP89" t="n">
         <v>9</v>
       </c>
-      <c r="AL89" t="n">
-        <v>37.7764778137207</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>24.10153007507324</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>24.10153007507324</v>
-      </c>
-      <c r="AO89" t="n">
-        <v>61.14839172363281</v>
-      </c>
-      <c r="AP89" t="n">
-        <v>60.77292251586914</v>
-      </c>
       <c r="AQ89" t="n">
-        <v>102.0015182495117</v>
+        <v>68.97061157226562</v>
       </c>
       <c r="AR89" t="n">
-        <v>110.7619552612305</v>
-      </c>
-      <c r="AS89" t="n">
-        <v>144.8832092285156</v>
+        <v>88.25680541992188</v>
       </c>
     </row>
-    <row r="90" spans="1:45">
+    <row r="90" spans="1:44">
       <c r="A90" s="2" t="n">
-        <v>43593</v>
+        <v>43682</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -12815,36 +12545,33 @@
         <v>29</v>
       </c>
       <c r="AK90" t="n">
-        <v>287.82177734375</v>
+        <v>63.49585342407227</v>
       </c>
       <c r="AL90" t="n">
-        <v>65.67034912109375</v>
+        <v>73.86099243164062</v>
       </c>
       <c r="AM90" t="n">
-        <v>59.79022979736328</v>
+        <v>73.86099243164062</v>
       </c>
       <c r="AN90" t="n">
-        <v>59.79022979736328</v>
+        <v>58.18496704101562</v>
       </c>
       <c r="AO90" t="n">
-        <v>67.05931091308594</v>
+        <v>68.91380310058594</v>
       </c>
       <c r="AP90" t="n">
-        <v>122.666374206543</v>
+        <v>301.2628784179688</v>
       </c>
       <c r="AQ90" t="n">
-        <v>322.9673767089844</v>
+        <v>291.2996215820312</v>
       </c>
       <c r="AR90" t="n">
-        <v>293.7457275390625</v>
-      </c>
-      <c r="AS90" t="n">
-        <v>255.4604644775391</v>
+        <v>268.4223937988281</v>
       </c>
     </row>
-    <row r="91" spans="1:45">
+    <row r="91" spans="1:44">
       <c r="A91" s="2" t="n">
-        <v>43624</v>
+        <v>43683</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -12952,36 +12679,33 @@
         <v>45</v>
       </c>
       <c r="AK91" t="n">
-        <v>177.4774169921875</v>
+        <v>67.47505187988281</v>
       </c>
       <c r="AL91" t="n">
-        <v>67.26313781738281</v>
+        <v>56.10896682739258</v>
       </c>
       <c r="AM91" t="n">
-        <v>46.40360641479492</v>
+        <v>56.10896682739258</v>
       </c>
       <c r="AN91" t="n">
-        <v>46.40360641479492</v>
+        <v>57.17474746704102</v>
       </c>
       <c r="AO91" t="n">
-        <v>67.93532562255859</v>
+        <v>25.07097244262695</v>
       </c>
       <c r="AP91" t="n">
-        <v>84.48093414306641</v>
+        <v>56.90049743652344</v>
       </c>
       <c r="AQ91" t="n">
-        <v>58.09484100341797</v>
+        <v>132.0199737548828</v>
       </c>
       <c r="AR91" t="n">
-        <v>121.4829330444336</v>
-      </c>
-      <c r="AS91" t="n">
-        <v>212.7731781005859</v>
+        <v>187.0618591308594</v>
       </c>
     </row>
-    <row r="92" spans="1:45">
+    <row r="92" spans="1:44">
       <c r="A92" s="2" t="n">
-        <v>43654</v>
+        <v>43684</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -13089,34 +12813,31 @@
         <v>55</v>
       </c>
       <c r="AK92" t="n">
-        <v>153.1374664306641</v>
+        <v>61.49067306518555</v>
       </c>
       <c r="AL92" t="n">
-        <v>54.56010437011719</v>
+        <v>47.12141418457031</v>
       </c>
       <c r="AM92" t="n">
-        <v>34.37709808349609</v>
+        <v>47.12141418457031</v>
       </c>
       <c r="AN92" t="n">
-        <v>34.37709808349609</v>
+        <v>43.2783088684082</v>
       </c>
       <c r="AO92" t="n">
-        <v>55.67063522338867</v>
+        <v>32.38164138793945</v>
       </c>
       <c r="AP92" t="n">
-        <v>75.70118713378906</v>
+        <v>30.56769561767578</v>
       </c>
       <c r="AQ92" t="n">
-        <v>43.16023254394531</v>
+        <v>57.96530914306641</v>
       </c>
       <c r="AR92" t="n">
-        <v>102.2145385742188</v>
-      </c>
-      <c r="AS92" t="n">
-        <v>218.7484130859375</v>
+        <v>141.7693481445312</v>
       </c>
     </row>
-    <row r="93" spans="1:45">
+    <row r="93" spans="1:44">
       <c r="A93" s="2" t="n">
         <v>43685</v>
       </c>
@@ -13226,36 +12947,33 @@
         <v>9</v>
       </c>
       <c r="AK93" t="n">
-        <v>147.4174957275391</v>
+        <v>42.84652709960938</v>
       </c>
       <c r="AL93" t="n">
-        <v>44.71366500854492</v>
+        <v>43.79724884033203</v>
       </c>
       <c r="AM93" t="n">
-        <v>31.88142585754395</v>
+        <v>43.79724884033203</v>
       </c>
       <c r="AN93" t="n">
-        <v>31.88142585754395</v>
+        <v>31.5019474029541</v>
       </c>
       <c r="AO93" t="n">
-        <v>48.93708419799805</v>
+        <v>23.44181823730469</v>
       </c>
       <c r="AP93" t="n">
-        <v>81.88174438476562</v>
+        <v>27.64531135559082</v>
       </c>
       <c r="AQ93" t="n">
-        <v>40.35779190063477</v>
+        <v>59.01739501953125</v>
       </c>
       <c r="AR93" t="n">
-        <v>93.66072082519531</v>
-      </c>
-      <c r="AS93" t="n">
-        <v>204.4015502929688</v>
+        <v>129.4960479736328</v>
       </c>
     </row>
-    <row r="94" spans="1:45">
+    <row r="94" spans="1:44">
       <c r="A94" s="2" t="n">
-        <v>43716</v>
+        <v>43686</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -13363,36 +13081,33 @@
         <v>5</v>
       </c>
       <c r="AK94" t="n">
-        <v>205.9950256347656</v>
+        <v>217.4976043701172</v>
       </c>
       <c r="AL94" t="n">
-        <v>229.1909484863281</v>
+        <v>170.8485870361328</v>
       </c>
       <c r="AM94" t="n">
-        <v>128.0655822753906</v>
+        <v>170.8485870361328</v>
       </c>
       <c r="AN94" t="n">
-        <v>128.0655822753906</v>
+        <v>68.83483123779297</v>
       </c>
       <c r="AO94" t="n">
-        <v>164.3876190185547</v>
+        <v>312.2166137695312</v>
       </c>
       <c r="AP94" t="n">
-        <v>327.7059326171875</v>
+        <v>228.8000183105469</v>
       </c>
       <c r="AQ94" t="n">
-        <v>184.9419555664062</v>
+        <v>200.4729919433594</v>
       </c>
       <c r="AR94" t="n">
-        <v>195.28173828125</v>
-      </c>
-      <c r="AS94" t="n">
-        <v>218.4942321777344</v>
+        <v>163.8030395507812</v>
       </c>
     </row>
-    <row r="95" spans="1:45">
+    <row r="95" spans="1:44">
       <c r="A95" s="2" t="n">
-        <v>43807</v>
+        <v>43689</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -13500,34 +13215,31 @@
         <v>0</v>
       </c>
       <c r="AK95" t="n">
-        <v>257.421142578125</v>
+        <v>69.53250885009766</v>
       </c>
       <c r="AL95" t="n">
-        <v>124.7223739624023</v>
+        <v>186.6603393554688</v>
       </c>
       <c r="AM95" t="n">
-        <v>196.010009765625</v>
+        <v>186.6603393554688</v>
       </c>
       <c r="AN95" t="n">
-        <v>196.010009765625</v>
+        <v>44.53542709350586</v>
       </c>
       <c r="AO95" t="n">
-        <v>124.952522277832</v>
+        <v>165.0888061523438</v>
       </c>
       <c r="AP95" t="n">
-        <v>133.6785736083984</v>
+        <v>243.2551116943359</v>
       </c>
       <c r="AQ95" t="n">
-        <v>216.6231842041016</v>
+        <v>247.6606292724609</v>
       </c>
       <c r="AR95" t="n">
-        <v>228.7768402099609</v>
-      </c>
-      <c r="AS95" t="n">
-        <v>243.6271362304688</v>
+        <v>198.9276580810547</v>
       </c>
     </row>
-    <row r="96" spans="1:45">
+    <row r="96" spans="1:44">
       <c r="A96" s="2" t="n">
         <v>43690</v>
       </c>
@@ -13637,34 +13349,31 @@
         <v>0</v>
       </c>
       <c r="AK96" t="n">
-        <v>317.8419799804688</v>
+        <v>486.0140686035156</v>
       </c>
       <c r="AL96" t="n">
-        <v>469.4891052246094</v>
+        <v>309.7908935546875</v>
       </c>
       <c r="AM96" t="n">
-        <v>423.5585327148438</v>
+        <v>309.7908935546875</v>
       </c>
       <c r="AN96" t="n">
-        <v>423.5585327148438</v>
+        <v>423.5322570800781</v>
       </c>
       <c r="AO96" t="n">
-        <v>434.4253234863281</v>
+        <v>430.39306640625</v>
       </c>
       <c r="AP96" t="n">
-        <v>464.0732421875</v>
+        <v>348.9855346679688</v>
       </c>
       <c r="AQ96" t="n">
-        <v>315.5685729980469</v>
+        <v>350.4780883789062</v>
       </c>
       <c r="AR96" t="n">
-        <v>339.5248107910156</v>
-      </c>
-      <c r="AS96" t="n">
-        <v>274.0729370117188</v>
+        <v>246.0849609375</v>
       </c>
     </row>
-    <row r="97" spans="1:45">
+    <row r="97" spans="1:44">
       <c r="A97" s="2" t="n">
         <v>43691</v>
       </c>
@@ -13774,34 +13483,31 @@
         <v>0</v>
       </c>
       <c r="AK97" t="n">
-        <v>315.5788879394531</v>
+        <v>303.8543395996094</v>
       </c>
       <c r="AL97" t="n">
-        <v>251.6363372802734</v>
+        <v>241.9264678955078</v>
       </c>
       <c r="AM97" t="n">
-        <v>302.2174682617188</v>
+        <v>241.9264678955078</v>
       </c>
       <c r="AN97" t="n">
-        <v>302.2174682617188</v>
+        <v>415.6050415039062</v>
       </c>
       <c r="AO97" t="n">
-        <v>422.1455688476562</v>
+        <v>221.6152496337891</v>
       </c>
       <c r="AP97" t="n">
-        <v>157.5472259521484</v>
+        <v>227.7265014648438</v>
       </c>
       <c r="AQ97" t="n">
-        <v>207.6559143066406</v>
+        <v>303.3022155761719</v>
       </c>
       <c r="AR97" t="n">
-        <v>264.7107543945312</v>
-      </c>
-      <c r="AS97" t="n">
-        <v>313.1651916503906</v>
+        <v>299.037841796875</v>
       </c>
     </row>
-    <row r="98" spans="1:45">
+    <row r="98" spans="1:44">
       <c r="A98" s="2" t="n">
         <v>43692</v>
       </c>
@@ -13911,34 +13617,31 @@
         <v>158</v>
       </c>
       <c r="AK98" t="n">
-        <v>397.5511474609375</v>
+        <v>457.9216613769531</v>
       </c>
       <c r="AL98" t="n">
-        <v>514.9427490234375</v>
+        <v>366.3704223632812</v>
       </c>
       <c r="AM98" t="n">
-        <v>473.1682434082031</v>
+        <v>366.3704223632812</v>
       </c>
       <c r="AN98" t="n">
-        <v>473.1682434082031</v>
+        <v>437.9498901367188</v>
       </c>
       <c r="AO98" t="n">
-        <v>439.400390625</v>
+        <v>515.9761962890625</v>
       </c>
       <c r="AP98" t="n">
-        <v>498.3516845703125</v>
+        <v>424.8645629882812</v>
       </c>
       <c r="AQ98" t="n">
-        <v>401.4111328125</v>
+        <v>431.1769714355469</v>
       </c>
       <c r="AR98" t="n">
-        <v>385.4185485839844</v>
-      </c>
-      <c r="AS98" t="n">
-        <v>350.0900268554688</v>
+        <v>365.4045715332031</v>
       </c>
     </row>
-    <row r="99" spans="1:45">
+    <row r="99" spans="1:44">
       <c r="A99" s="2" t="n">
         <v>43693</v>
       </c>
@@ -14048,34 +13751,31 @@
         <v>113</v>
       </c>
       <c r="AK99" t="n">
-        <v>384.4601745605469</v>
+        <v>326.3660278320312</v>
       </c>
       <c r="AL99" t="n">
-        <v>321.9100646972656</v>
+        <v>364.6284484863281</v>
       </c>
       <c r="AM99" t="n">
-        <v>329.570068359375</v>
+        <v>364.6284484863281</v>
       </c>
       <c r="AN99" t="n">
-        <v>329.570068359375</v>
+        <v>396.8089599609375</v>
       </c>
       <c r="AO99" t="n">
-        <v>416.7269287109375</v>
+        <v>303.4139099121094</v>
       </c>
       <c r="AP99" t="n">
-        <v>295.9035339355469</v>
+        <v>376.6589965820312</v>
       </c>
       <c r="AQ99" t="n">
-        <v>354.5562744140625</v>
+        <v>412.1795043945312</v>
       </c>
       <c r="AR99" t="n">
-        <v>371.3838500976562</v>
-      </c>
-      <c r="AS99" t="n">
-        <v>362.4057312011719</v>
+        <v>385.0060424804688</v>
       </c>
     </row>
-    <row r="100" spans="1:45">
+    <row r="100" spans="1:44">
       <c r="A100" s="2" t="n">
         <v>43696</v>
       </c>
@@ -14185,34 +13885,31 @@
         <v>292</v>
       </c>
       <c r="AK100" t="n">
-        <v>384.5719604492188</v>
+        <v>396.6585388183594</v>
       </c>
       <c r="AL100" t="n">
-        <v>372.81982421875</v>
+        <v>343.0704345703125</v>
       </c>
       <c r="AM100" t="n">
-        <v>416.2377014160156</v>
+        <v>343.0704345703125</v>
       </c>
       <c r="AN100" t="n">
-        <v>416.2377014160156</v>
+        <v>379.0943298339844</v>
       </c>
       <c r="AO100" t="n">
-        <v>382.0190124511719</v>
+        <v>287.6213073730469</v>
       </c>
       <c r="AP100" t="n">
-        <v>325.5915832519531</v>
+        <v>383.4534301757812</v>
       </c>
       <c r="AQ100" t="n">
-        <v>383.6490478515625</v>
+        <v>353.8995056152344</v>
       </c>
       <c r="AR100" t="n">
-        <v>367.5564270019531</v>
-      </c>
-      <c r="AS100" t="n">
-        <v>371.4552307128906</v>
+        <v>353.6869506835938</v>
       </c>
     </row>
-    <row r="101" spans="1:45">
+    <row r="101" spans="1:44">
       <c r="A101" s="2" t="n">
         <v>43697</v>
       </c>
@@ -14322,34 +14019,31 @@
         <v>24</v>
       </c>
       <c r="AK101" t="n">
-        <v>372.7802124023438</v>
+        <v>382.8501281738281</v>
       </c>
       <c r="AL101" t="n">
-        <v>362.1227111816406</v>
+        <v>348.7235107421875</v>
       </c>
       <c r="AM101" t="n">
-        <v>355.4971618652344</v>
+        <v>348.7235107421875</v>
       </c>
       <c r="AN101" t="n">
-        <v>355.4971618652344</v>
+        <v>411.7044372558594</v>
       </c>
       <c r="AO101" t="n">
-        <v>430.6073608398438</v>
+        <v>407.1041564941406</v>
       </c>
       <c r="AP101" t="n">
-        <v>455.3480834960938</v>
+        <v>343.1602172851562</v>
       </c>
       <c r="AQ101" t="n">
-        <v>299.5539855957031</v>
+        <v>401.0587158203125</v>
       </c>
       <c r="AR101" t="n">
-        <v>354.5837097167969</v>
-      </c>
-      <c r="AS101" t="n">
-        <v>397.6391296386719</v>
+        <v>373.9738159179688</v>
       </c>
     </row>
-    <row r="102" spans="1:45">
+    <row r="102" spans="1:44">
       <c r="A102" s="2" t="n">
         <v>43698</v>
       </c>
@@ -14459,34 +14153,31 @@
         <v>345</v>
       </c>
       <c r="AK102" t="n">
-        <v>432.9458923339844</v>
+        <v>369.8385620117188</v>
       </c>
       <c r="AL102" t="n">
-        <v>374.821044921875</v>
+        <v>430.7418518066406</v>
       </c>
       <c r="AM102" t="n">
-        <v>378.6044921875</v>
+        <v>430.7418518066406</v>
       </c>
       <c r="AN102" t="n">
-        <v>378.6044921875</v>
+        <v>395.5907287597656</v>
       </c>
       <c r="AO102" t="n">
-        <v>417.28564453125</v>
+        <v>398.416259765625</v>
       </c>
       <c r="AP102" t="n">
-        <v>385.4309692382812</v>
+        <v>445.4654541015625</v>
       </c>
       <c r="AQ102" t="n">
-        <v>429.0367126464844</v>
+        <v>438.0552062988281</v>
       </c>
       <c r="AR102" t="n">
-        <v>433.3417358398438</v>
-      </c>
-      <c r="AS102" t="n">
-        <v>434.41357421875</v>
+        <v>414.8634338378906</v>
       </c>
     </row>
-    <row r="103" spans="1:45">
+    <row r="103" spans="1:44">
       <c r="A103" s="2" t="n">
         <v>43699</v>
       </c>
@@ -14596,34 +14287,31 @@
         <v>353</v>
       </c>
       <c r="AK103" t="n">
-        <v>426.4582214355469</v>
+        <v>423.7250671386719</v>
       </c>
       <c r="AL103" t="n">
-        <v>423.7979125976562</v>
+        <v>422.267578125</v>
       </c>
       <c r="AM103" t="n">
-        <v>414.6809997558594</v>
+        <v>422.267578125</v>
       </c>
       <c r="AN103" t="n">
-        <v>414.6809997558594</v>
+        <v>382.3693542480469</v>
       </c>
       <c r="AO103" t="n">
-        <v>388.7029113769531</v>
+        <v>415.7412414550781</v>
       </c>
       <c r="AP103" t="n">
-        <v>369.8067321777344</v>
+        <v>430.4621276855469</v>
       </c>
       <c r="AQ103" t="n">
-        <v>433.8109436035156</v>
+        <v>423.00146484375</v>
       </c>
       <c r="AR103" t="n">
-        <v>427.4279174804688</v>
-      </c>
-      <c r="AS103" t="n">
-        <v>432.1011962890625</v>
+        <v>417.76318359375</v>
       </c>
     </row>
-    <row r="104" spans="1:45">
+    <row r="104" spans="1:44">
       <c r="A104" s="2" t="n">
         <v>43700</v>
       </c>
@@ -14733,34 +14421,31 @@
         <v>143</v>
       </c>
       <c r="AK104" t="n">
-        <v>379.5661315917969</v>
+        <v>298.8312683105469</v>
       </c>
       <c r="AL104" t="n">
-        <v>298.1851806640625</v>
+        <v>363.5073852539062</v>
       </c>
       <c r="AM104" t="n">
-        <v>316.947998046875</v>
+        <v>363.5073852539062</v>
       </c>
       <c r="AN104" t="n">
-        <v>316.947998046875</v>
+        <v>335.1194458007812</v>
       </c>
       <c r="AO104" t="n">
-        <v>331.1156616210938</v>
+        <v>314.3303527832031</v>
       </c>
       <c r="AP104" t="n">
-        <v>303.3474426269531</v>
+        <v>347.6242370605469</v>
       </c>
       <c r="AQ104" t="n">
-        <v>334.0486450195312</v>
+        <v>387.6343078613281</v>
       </c>
       <c r="AR104" t="n">
-        <v>365.5640563964844</v>
-      </c>
-      <c r="AS104" t="n">
-        <v>435.2159423828125</v>
+        <v>426.0859680175781</v>
       </c>
     </row>
-    <row r="105" spans="1:45">
+    <row r="105" spans="1:44">
       <c r="A105" s="2" t="n">
         <v>43703</v>
       </c>
@@ -14870,34 +14555,31 @@
         <v>358</v>
       </c>
       <c r="AK105" t="n">
-        <v>397.7601928710938</v>
+        <v>323.4078369140625</v>
       </c>
       <c r="AL105" t="n">
-        <v>336.9946594238281</v>
+        <v>340.7408752441406</v>
       </c>
       <c r="AM105" t="n">
-        <v>317.3923034667969</v>
+        <v>340.7408752441406</v>
       </c>
       <c r="AN105" t="n">
-        <v>317.3923034667969</v>
+        <v>333.19384765625</v>
       </c>
       <c r="AO105" t="n">
-        <v>327.7018737792969</v>
+        <v>341.4578857421875</v>
       </c>
       <c r="AP105" t="n">
-        <v>307.4259948730469</v>
+        <v>360.1440734863281</v>
       </c>
       <c r="AQ105" t="n">
-        <v>372.9410095214844</v>
+        <v>408.740966796875</v>
       </c>
       <c r="AR105" t="n">
-        <v>378.1623229980469</v>
-      </c>
-      <c r="AS105" t="n">
-        <v>439.8365783691406</v>
+        <v>438.4129943847656</v>
       </c>
     </row>
-    <row r="106" spans="1:45">
+    <row r="106" spans="1:44">
       <c r="A106" s="2" t="n">
         <v>43704</v>
       </c>
@@ -15007,34 +14689,31 @@
         <v>418</v>
       </c>
       <c r="AK106" t="n">
-        <v>418.3720397949219</v>
+        <v>412.3140258789062</v>
       </c>
       <c r="AL106" t="n">
-        <v>412.4053344726562</v>
+        <v>408.694580078125</v>
       </c>
       <c r="AM106" t="n">
-        <v>396.0596923828125</v>
+        <v>408.694580078125</v>
       </c>
       <c r="AN106" t="n">
-        <v>396.0596923828125</v>
+        <v>415.8478088378906</v>
       </c>
       <c r="AO106" t="n">
-        <v>425.8913879394531</v>
+        <v>432.7051391601562</v>
       </c>
       <c r="AP106" t="n">
-        <v>424.6593627929688</v>
+        <v>437.5347900390625</v>
       </c>
       <c r="AQ106" t="n">
-        <v>406.5050659179688</v>
+        <v>421.9825744628906</v>
       </c>
       <c r="AR106" t="n">
-        <v>430.7059326171875</v>
-      </c>
-      <c r="AS106" t="n">
-        <v>451.4405822753906</v>
+        <v>417.8150024414062</v>
       </c>
     </row>
-    <row r="107" spans="1:45">
+    <row r="107" spans="1:44">
       <c r="A107" s="2" t="n">
         <v>43705</v>
       </c>
@@ -15144,34 +14823,31 @@
         <v>357</v>
       </c>
       <c r="AK107" t="n">
-        <v>420.7745056152344</v>
+        <v>370.8383178710938</v>
       </c>
       <c r="AL107" t="n">
-        <v>374.8699645996094</v>
+        <v>432.3390808105469</v>
       </c>
       <c r="AM107" t="n">
-        <v>381.9419250488281</v>
+        <v>432.3390808105469</v>
       </c>
       <c r="AN107" t="n">
-        <v>381.9419250488281</v>
+        <v>398.9050598144531</v>
       </c>
       <c r="AO107" t="n">
-        <v>420.6627807617188</v>
+        <v>412.4547119140625</v>
       </c>
       <c r="AP107" t="n">
-        <v>382.2022399902344</v>
+        <v>450.06640625</v>
       </c>
       <c r="AQ107" t="n">
-        <v>432.8585815429688</v>
+        <v>440.1983642578125</v>
       </c>
       <c r="AR107" t="n">
-        <v>445.6051635742188</v>
-      </c>
-      <c r="AS107" t="n">
-        <v>438.0525512695312</v>
+        <v>417.55908203125</v>
       </c>
     </row>
-    <row r="108" spans="1:45">
+    <row r="108" spans="1:44">
       <c r="A108" s="2" t="n">
         <v>43706</v>
       </c>
@@ -15281,34 +14957,31 @@
         <v>345</v>
       </c>
       <c r="AK108" t="n">
-        <v>411.3237915039062</v>
+        <v>426.9389343261719</v>
       </c>
       <c r="AL108" t="n">
-        <v>424.5025024414062</v>
+        <v>408.3695373535156</v>
       </c>
       <c r="AM108" t="n">
-        <v>413.7279663085938</v>
+        <v>408.3695373535156</v>
       </c>
       <c r="AN108" t="n">
-        <v>413.7279663085938</v>
+        <v>385.314453125</v>
       </c>
       <c r="AO108" t="n">
-        <v>392.1365051269531</v>
+        <v>389.6350708007812</v>
       </c>
       <c r="AP108" t="n">
-        <v>372.2989501953125</v>
+        <v>440.6058349609375</v>
       </c>
       <c r="AQ108" t="n">
-        <v>462.9183044433594</v>
+        <v>484.4851684570312</v>
       </c>
       <c r="AR108" t="n">
-        <v>431.1146545410156</v>
-      </c>
-      <c r="AS108" t="n">
-        <v>415.5559997558594</v>
+        <v>444.4810180664062</v>
       </c>
     </row>
-    <row r="109" spans="1:45">
+    <row r="109" spans="1:44">
       <c r="A109" s="2" t="n">
         <v>43707</v>
       </c>
@@ -15418,36 +15091,33 @@
         <v>135</v>
       </c>
       <c r="AK109" t="n">
-        <v>343.2684020996094</v>
+        <v>293.6350708007812</v>
       </c>
       <c r="AL109" t="n">
-        <v>294.8124389648438</v>
+        <v>354.9140625</v>
       </c>
       <c r="AM109" t="n">
-        <v>307.5709533691406</v>
+        <v>354.9140625</v>
       </c>
       <c r="AN109" t="n">
-        <v>307.5709533691406</v>
+        <v>325.1340942382812</v>
       </c>
       <c r="AO109" t="n">
-        <v>324.4197692871094</v>
+        <v>306.179931640625</v>
       </c>
       <c r="AP109" t="n">
-        <v>297.7317810058594</v>
+        <v>335.729248046875</v>
       </c>
       <c r="AQ109" t="n">
-        <v>345.1995849609375</v>
+        <v>419.4756774902344</v>
       </c>
       <c r="AR109" t="n">
-        <v>369.9970092773438</v>
-      </c>
-      <c r="AS109" t="n">
-        <v>420.64111328125</v>
+        <v>395.9962158203125</v>
       </c>
     </row>
-    <row r="110" spans="1:45">
+    <row r="110" spans="1:44">
       <c r="A110" s="2" t="n">
-        <v>43505</v>
+        <v>43710</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -15555,36 +15225,33 @@
         <v>353</v>
       </c>
       <c r="AK110" t="n">
-        <v>401.8871154785156</v>
+        <v>339.2706298828125</v>
       </c>
       <c r="AL110" t="n">
-        <v>344.3131408691406</v>
+        <v>341.5699768066406</v>
       </c>
       <c r="AM110" t="n">
-        <v>329.0513000488281</v>
+        <v>341.5699768066406</v>
       </c>
       <c r="AN110" t="n">
-        <v>329.0513000488281</v>
+        <v>342.4932861328125</v>
       </c>
       <c r="AO110" t="n">
-        <v>341.1484680175781</v>
+        <v>342.6066284179688</v>
       </c>
       <c r="AP110" t="n">
-        <v>309.0001525878906</v>
+        <v>365.2904357910156</v>
       </c>
       <c r="AQ110" t="n">
-        <v>377.7780456542969</v>
+        <v>390.9176330566406</v>
       </c>
       <c r="AR110" t="n">
-        <v>390.0677795410156</v>
-      </c>
-      <c r="AS110" t="n">
-        <v>393.1972045898438</v>
+        <v>382.5450744628906</v>
       </c>
     </row>
-    <row r="111" spans="1:45">
+    <row r="111" spans="1:44">
       <c r="A111" s="2" t="n">
-        <v>43533</v>
+        <v>43711</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -15692,36 +15359,33 @@
         <v>410</v>
       </c>
       <c r="AK111" t="n">
-        <v>419.7268981933594</v>
+        <v>442.0391235351562</v>
       </c>
       <c r="AL111" t="n">
-        <v>436.1863708496094</v>
+        <v>405.0415649414062</v>
       </c>
       <c r="AM111" t="n">
-        <v>428.7671813964844</v>
+        <v>405.0415649414062</v>
       </c>
       <c r="AN111" t="n">
-        <v>428.7671813964844</v>
+        <v>425.0332336425781</v>
       </c>
       <c r="AO111" t="n">
-        <v>433.0361938476562</v>
+        <v>405.3043823242188</v>
       </c>
       <c r="AP111" t="n">
-        <v>415.2699890136719</v>
+        <v>445.2234497070312</v>
       </c>
       <c r="AQ111" t="n">
-        <v>441.8075561523438</v>
+        <v>452.9399719238281</v>
       </c>
       <c r="AR111" t="n">
-        <v>450.9371337890625</v>
-      </c>
-      <c r="AS111" t="n">
-        <v>372.0706176757812</v>
+        <v>379.1539916992188</v>
       </c>
     </row>
-    <row r="112" spans="1:45">
+    <row r="112" spans="1:44">
       <c r="A112" s="2" t="n">
-        <v>43564</v>
+        <v>43712</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -15829,36 +15493,33 @@
         <v>317</v>
       </c>
       <c r="AK112" t="n">
-        <v>405.4608764648438</v>
+        <v>370.4551391601562</v>
       </c>
       <c r="AL112" t="n">
-        <v>361.8557434082031</v>
+        <v>401.8998413085938</v>
       </c>
       <c r="AM112" t="n">
-        <v>364.6056823730469</v>
+        <v>401.8998413085938</v>
       </c>
       <c r="AN112" t="n">
-        <v>364.6056823730469</v>
+        <v>391.679443359375</v>
       </c>
       <c r="AO112" t="n">
-        <v>414.5579223632812</v>
+        <v>383.2140502929688</v>
       </c>
       <c r="AP112" t="n">
-        <v>355.3806762695312</v>
+        <v>421.5780334472656</v>
       </c>
       <c r="AQ112" t="n">
-        <v>419.5227966308594</v>
+        <v>407.3444519042969</v>
       </c>
       <c r="AR112" t="n">
-        <v>428.7000732421875</v>
-      </c>
-      <c r="AS112" t="n">
-        <v>372.6104125976562</v>
+        <v>369.7721252441406</v>
       </c>
     </row>
-    <row r="113" spans="1:45">
+    <row r="113" spans="1:44">
       <c r="A113" s="2" t="n">
-        <v>43594</v>
+        <v>43713</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -15966,36 +15627,33 @@
         <v>331</v>
       </c>
       <c r="AK113" t="n">
-        <v>446.5498657226562</v>
+        <v>434.7444152832031</v>
       </c>
       <c r="AL113" t="n">
-        <v>421.2456970214844</v>
+        <v>400.2200622558594</v>
       </c>
       <c r="AM113" t="n">
-        <v>414.2830200195312</v>
+        <v>400.2200622558594</v>
       </c>
       <c r="AN113" t="n">
-        <v>414.2830200195312</v>
+        <v>393.4796447753906</v>
       </c>
       <c r="AO113" t="n">
-        <v>394.1915588378906</v>
+        <v>399.6092529296875</v>
       </c>
       <c r="AP113" t="n">
-        <v>361.5531005859375</v>
+        <v>424.1691284179688</v>
       </c>
       <c r="AQ113" t="n">
-        <v>430.1758117675781</v>
+        <v>443.4860534667969</v>
       </c>
       <c r="AR113" t="n">
-        <v>412.30810546875</v>
-      </c>
-      <c r="AS113" t="n">
-        <v>384.7968444824219</v>
+        <v>405.4740905761719</v>
       </c>
     </row>
-    <row r="114" spans="1:45">
+    <row r="114" spans="1:44">
       <c r="A114" s="2" t="n">
-        <v>43625</v>
+        <v>43714</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -16103,34 +15761,31 @@
         <v>123</v>
       </c>
       <c r="AK114" t="n">
-        <v>415.0024108886719</v>
+        <v>357.2804260253906</v>
       </c>
       <c r="AL114" t="n">
-        <v>352.5287170410156</v>
+        <v>364.5028381347656</v>
       </c>
       <c r="AM114" t="n">
-        <v>353.4898681640625</v>
+        <v>364.5028381347656</v>
       </c>
       <c r="AN114" t="n">
-        <v>353.4898681640625</v>
+        <v>378.7698974609375</v>
       </c>
       <c r="AO114" t="n">
-        <v>397.4129638671875</v>
+        <v>317.4839477539062</v>
       </c>
       <c r="AP114" t="n">
-        <v>345.9841918945312</v>
+        <v>362.6679992675781</v>
       </c>
       <c r="AQ114" t="n">
-        <v>349.517578125</v>
+        <v>452.2469177246094</v>
       </c>
       <c r="AR114" t="n">
-        <v>376.4010620117188</v>
-      </c>
-      <c r="AS114" t="n">
-        <v>380.4866943359375</v>
+        <v>430.4119567871094</v>
       </c>
     </row>
-    <row r="115" spans="1:45">
+    <row r="115" spans="1:44">
       <c r="A115" s="2" t="n">
         <v>43717</v>
       </c>
@@ -16240,36 +15895,33 @@
         <v>301</v>
       </c>
       <c r="AK115" t="n">
-        <v>388.0963745117188</v>
+        <v>355.5587768554688</v>
       </c>
       <c r="AL115" t="n">
-        <v>352.8200988769531</v>
+        <v>332.3284606933594</v>
       </c>
       <c r="AM115" t="n">
-        <v>348.3166809082031</v>
+        <v>332.3284606933594</v>
       </c>
       <c r="AN115" t="n">
-        <v>348.3166809082031</v>
+        <v>379.2129516601562</v>
       </c>
       <c r="AO115" t="n">
-        <v>378.6198120117188</v>
+        <v>347.8067626953125</v>
       </c>
       <c r="AP115" t="n">
-        <v>320.84619140625</v>
+        <v>354.3220520019531</v>
       </c>
       <c r="AQ115" t="n">
-        <v>366.2535400390625</v>
+        <v>379.8075561523438</v>
       </c>
       <c r="AR115" t="n">
-        <v>369.873046875</v>
-      </c>
-      <c r="AS115" t="n">
-        <v>374.3848266601562</v>
+        <v>403.2604064941406</v>
       </c>
     </row>
-    <row r="116" spans="1:45">
+    <row r="116" spans="1:44">
       <c r="A116" s="2" t="n">
-        <v>43747</v>
+        <v>43718</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -16377,36 +16029,33 @@
         <v>339</v>
       </c>
       <c r="AK116" t="n">
-        <v>389.489990234375</v>
+        <v>454.0494079589844</v>
       </c>
       <c r="AL116" t="n">
-        <v>449.6762084960938</v>
+        <v>407.4274597167969</v>
       </c>
       <c r="AM116" t="n">
-        <v>427.8087768554688</v>
+        <v>407.4274597167969</v>
       </c>
       <c r="AN116" t="n">
-        <v>427.8087768554688</v>
+        <v>428.4096984863281</v>
       </c>
       <c r="AO116" t="n">
-        <v>435.4427185058594</v>
+        <v>429.2960815429688</v>
       </c>
       <c r="AP116" t="n">
-        <v>443.0223693847656</v>
+        <v>420.686767578125</v>
       </c>
       <c r="AQ116" t="n">
-        <v>397.8983154296875</v>
+        <v>416.278564453125</v>
       </c>
       <c r="AR116" t="n">
-        <v>419.4013366699219</v>
-      </c>
-      <c r="AS116" t="n">
-        <v>372.3967895507812</v>
+        <v>356.7920532226562</v>
       </c>
     </row>
-    <row r="117" spans="1:45">
+    <row r="117" spans="1:44">
       <c r="A117" s="2" t="n">
-        <v>43778</v>
+        <v>43719</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -16514,36 +16163,33 @@
         <v>301</v>
       </c>
       <c r="AK117" t="n">
-        <v>395.3101806640625</v>
+        <v>384.6794738769531</v>
       </c>
       <c r="AL117" t="n">
-        <v>386.158447265625</v>
+        <v>422.7069702148438</v>
       </c>
       <c r="AM117" t="n">
-        <v>386.3671264648438</v>
+        <v>422.7069702148438</v>
       </c>
       <c r="AN117" t="n">
-        <v>386.3671264648438</v>
+        <v>405.6195373535156</v>
       </c>
       <c r="AO117" t="n">
-        <v>426.5532531738281</v>
+        <v>401.7531433105469</v>
       </c>
       <c r="AP117" t="n">
-        <v>383.3769226074219</v>
+        <v>425.9662780761719</v>
       </c>
       <c r="AQ117" t="n">
-        <v>400.60107421875</v>
+        <v>423.3023986816406</v>
       </c>
       <c r="AR117" t="n">
-        <v>419.4561462402344</v>
-      </c>
-      <c r="AS117" t="n">
-        <v>368.9035949707031</v>
+        <v>358.3913879394531</v>
       </c>
     </row>
-    <row r="118" spans="1:45">
+    <row r="118" spans="1:44">
       <c r="A118" s="2" t="n">
-        <v>43808</v>
+        <v>43720</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -16651,34 +16297,31 @@
         <v>348</v>
       </c>
       <c r="AK118" t="n">
-        <v>393.7985229492188</v>
+        <v>451.3748168945312</v>
       </c>
       <c r="AL118" t="n">
-        <v>443.4893493652344</v>
+        <v>415.2803955078125</v>
       </c>
       <c r="AM118" t="n">
-        <v>436.3061218261719</v>
+        <v>415.2803955078125</v>
       </c>
       <c r="AN118" t="n">
-        <v>436.3061218261719</v>
+        <v>394.065185546875</v>
       </c>
       <c r="AO118" t="n">
-        <v>404.7330017089844</v>
+        <v>429.2320861816406</v>
       </c>
       <c r="AP118" t="n">
-        <v>385.2703552246094</v>
+        <v>418.4069213867188</v>
       </c>
       <c r="AQ118" t="n">
-        <v>400.6928405761719</v>
+        <v>407.7068481445312</v>
       </c>
       <c r="AR118" t="n">
-        <v>395.6326293945312</v>
-      </c>
-      <c r="AS118" t="n">
-        <v>368.5489501953125</v>
+        <v>362.3028259277344</v>
       </c>
     </row>
-    <row r="119" spans="1:45">
+    <row r="119" spans="1:44">
       <c r="A119" s="2" t="n">
         <v>43721</v>
       </c>
@@ -16788,34 +16431,31 @@
         <v>105</v>
       </c>
       <c r="AK119" t="n">
-        <v>368.2040405273438</v>
+        <v>324.7864379882812</v>
       </c>
       <c r="AL119" t="n">
-        <v>326.3259582519531</v>
+        <v>363.206298828125</v>
       </c>
       <c r="AM119" t="n">
-        <v>330.8225402832031</v>
+        <v>363.206298828125</v>
       </c>
       <c r="AN119" t="n">
-        <v>330.8225402832031</v>
+        <v>349.4039916992188</v>
       </c>
       <c r="AO119" t="n">
-        <v>355.3782958984375</v>
+        <v>302.21875</v>
       </c>
       <c r="AP119" t="n">
-        <v>330.2750244140625</v>
+        <v>338.4125366210938</v>
       </c>
       <c r="AQ119" t="n">
-        <v>322.7784118652344</v>
+        <v>388.1841735839844</v>
       </c>
       <c r="AR119" t="n">
-        <v>343.6697387695312</v>
-      </c>
-      <c r="AS119" t="n">
-        <v>392.9844360351562</v>
+        <v>398.015625</v>
       </c>
     </row>
-    <row r="120" spans="1:45">
+    <row r="120" spans="1:44">
       <c r="A120" s="2" t="n">
         <v>43724</v>
       </c>
@@ -16925,34 +16565,31 @@
         <v>304</v>
       </c>
       <c r="AK120" t="n">
-        <v>388.4629211425781</v>
+        <v>366.2158508300781</v>
       </c>
       <c r="AL120" t="n">
-        <v>369.3311767578125</v>
+        <v>351.6732177734375</v>
       </c>
       <c r="AM120" t="n">
-        <v>363.5471496582031</v>
+        <v>351.6732177734375</v>
       </c>
       <c r="AN120" t="n">
-        <v>363.5471496582031</v>
+        <v>362.2305603027344</v>
       </c>
       <c r="AO120" t="n">
-        <v>369.6638793945312</v>
+        <v>347.8275756835938</v>
       </c>
       <c r="AP120" t="n">
-        <v>339.6470947265625</v>
+        <v>373.1656188964844</v>
       </c>
       <c r="AQ120" t="n">
-        <v>377.0732421875</v>
+        <v>386.5628051757812</v>
       </c>
       <c r="AR120" t="n">
-        <v>387.7896118164062</v>
-      </c>
-      <c r="AS120" t="n">
-        <v>391.0279541015625</v>
+        <v>405.2322692871094</v>
       </c>
     </row>
-    <row r="121" spans="1:45">
+    <row r="121" spans="1:44">
       <c r="A121" s="2" t="n">
         <v>43725</v>
       </c>
@@ -17062,34 +16699,31 @@
         <v>396</v>
       </c>
       <c r="AK121" t="n">
-        <v>372.4048156738281</v>
+        <v>431.9688720703125</v>
       </c>
       <c r="AL121" t="n">
-        <v>425.9138793945312</v>
+        <v>405.8896789550781</v>
       </c>
       <c r="AM121" t="n">
-        <v>417.7001342773438</v>
+        <v>405.8896789550781</v>
       </c>
       <c r="AN121" t="n">
-        <v>417.7001342773438</v>
+        <v>414.3675842285156</v>
       </c>
       <c r="AO121" t="n">
-        <v>423.8806762695312</v>
+        <v>408.6744995117188</v>
       </c>
       <c r="AP121" t="n">
-        <v>417.8871459960938</v>
+        <v>424.8393859863281</v>
       </c>
       <c r="AQ121" t="n">
-        <v>379.4855041503906</v>
+        <v>399.4116516113281</v>
       </c>
       <c r="AR121" t="n">
-        <v>401.192626953125</v>
-      </c>
-      <c r="AS121" t="n">
-        <v>383.7881164550781</v>
+        <v>355.8763427734375</v>
       </c>
     </row>
-    <row r="122" spans="1:45">
+    <row r="122" spans="1:44">
       <c r="A122" s="2" t="n">
         <v>43726</v>
       </c>
@@ -17199,34 +16833,31 @@
         <v>318</v>
       </c>
       <c r="AK122" t="n">
-        <v>369.4736938476562</v>
+        <v>387.510009765625</v>
       </c>
       <c r="AL122" t="n">
-        <v>386.7740173339844</v>
+        <v>423.401611328125</v>
       </c>
       <c r="AM122" t="n">
-        <v>392.5224304199219</v>
+        <v>423.401611328125</v>
       </c>
       <c r="AN122" t="n">
-        <v>392.5224304199219</v>
+        <v>403.5791625976562</v>
       </c>
       <c r="AO122" t="n">
-        <v>424.7659606933594</v>
+        <v>405.4118957519531</v>
       </c>
       <c r="AP122" t="n">
-        <v>405.4970092773438</v>
+        <v>433.3372497558594</v>
       </c>
       <c r="AQ122" t="n">
-        <v>403.4896240234375</v>
+        <v>441.8505554199219</v>
       </c>
       <c r="AR122" t="n">
-        <v>418.0560607910156</v>
-      </c>
-      <c r="AS122" t="n">
-        <v>365.32958984375</v>
+        <v>331.0057678222656</v>
       </c>
     </row>
-    <row r="123" spans="1:45">
+    <row r="123" spans="1:44">
       <c r="A123" s="2" t="n">
         <v>43727</v>
       </c>
@@ -17336,34 +16967,31 @@
         <v>314</v>
       </c>
       <c r="AK123" t="n">
-        <v>380.5742797851562</v>
+        <v>426.112060546875</v>
       </c>
       <c r="AL123" t="n">
-        <v>407.4882202148438</v>
+        <v>402.6625671386719</v>
       </c>
       <c r="AM123" t="n">
-        <v>416.3299255371094</v>
+        <v>402.6625671386719</v>
       </c>
       <c r="AN123" t="n">
-        <v>416.3299255371094</v>
+        <v>382.8502197265625</v>
       </c>
       <c r="AO123" t="n">
-        <v>378.5271606445312</v>
+        <v>412.1820373535156</v>
       </c>
       <c r="AP123" t="n">
-        <v>340.8203735351562</v>
+        <v>402.6136169433594</v>
       </c>
       <c r="AQ123" t="n">
-        <v>380.626220703125</v>
+        <v>385.7965698242188</v>
       </c>
       <c r="AR123" t="n">
-        <v>380.6596984863281</v>
-      </c>
-      <c r="AS123" t="n">
-        <v>377.7236328125</v>
+        <v>365.2701721191406</v>
       </c>
     </row>
-    <row r="124" spans="1:45">
+    <row r="124" spans="1:44">
       <c r="A124" s="2" t="n">
         <v>43728</v>
       </c>
@@ -17473,34 +17101,31 @@
         <v>150</v>
       </c>
       <c r="AK124" t="n">
-        <v>339.16943359375</v>
+        <v>336.9528198242188</v>
       </c>
       <c r="AL124" t="n">
-        <v>342.5404968261719</v>
+        <v>353.6495361328125</v>
       </c>
       <c r="AM124" t="n">
-        <v>334.0386352539062</v>
+        <v>353.6495361328125</v>
       </c>
       <c r="AN124" t="n">
-        <v>334.0386352539062</v>
+        <v>362.1473388671875</v>
       </c>
       <c r="AO124" t="n">
-        <v>366.4579162597656</v>
+        <v>314.8844604492188</v>
       </c>
       <c r="AP124" t="n">
-        <v>355.4862976074219</v>
+        <v>337.4276428222656</v>
       </c>
       <c r="AQ124" t="n">
-        <v>297.2690124511719</v>
+        <v>366.7230834960938</v>
       </c>
       <c r="AR124" t="n">
-        <v>320.5395812988281</v>
-      </c>
-      <c r="AS124" t="n">
-        <v>386.9789123535156</v>
+        <v>375.5315551757812</v>
       </c>
     </row>
-    <row r="125" spans="1:45">
+    <row r="125" spans="1:44">
       <c r="A125" s="2" t="n">
         <v>43731</v>
       </c>
@@ -17610,34 +17235,31 @@
         <v>299</v>
       </c>
       <c r="AK125" t="n">
-        <v>375.7127685546875</v>
+        <v>356.944091796875</v>
       </c>
       <c r="AL125" t="n">
-        <v>353.6187744140625</v>
+        <v>334.4494323730469</v>
       </c>
       <c r="AM125" t="n">
-        <v>347.9871826171875</v>
+        <v>334.4494323730469</v>
       </c>
       <c r="AN125" t="n">
-        <v>347.9871826171875</v>
+        <v>368.5309448242188</v>
       </c>
       <c r="AO125" t="n">
-        <v>373.2424011230469</v>
+        <v>339.4761047363281</v>
       </c>
       <c r="AP125" t="n">
-        <v>310.6651916503906</v>
+        <v>327.4256896972656</v>
       </c>
       <c r="AQ125" t="n">
-        <v>346.4664306640625</v>
+        <v>382.2314453125</v>
       </c>
       <c r="AR125" t="n">
-        <v>381.8320922851562</v>
-      </c>
-      <c r="AS125" t="n">
-        <v>416.925537109375</v>
+        <v>388.2988586425781</v>
       </c>
     </row>
-    <row r="126" spans="1:45">
+    <row r="126" spans="1:44">
       <c r="A126" s="2" t="n">
         <v>43732</v>
       </c>
@@ -17747,34 +17369,31 @@
         <v>400</v>
       </c>
       <c r="AK126" t="n">
-        <v>401.0725708007812</v>
+        <v>461.8238525390625</v>
       </c>
       <c r="AL126" t="n">
-        <v>457.0093383789062</v>
+        <v>398.9195556640625</v>
       </c>
       <c r="AM126" t="n">
-        <v>437.9940795898438</v>
+        <v>398.9195556640625</v>
       </c>
       <c r="AN126" t="n">
-        <v>437.9940795898438</v>
+        <v>430.7130737304688</v>
       </c>
       <c r="AO126" t="n">
-        <v>437.2650451660156</v>
+        <v>421.8403930664062</v>
       </c>
       <c r="AP126" t="n">
-        <v>450.7579345703125</v>
+        <v>435.0282897949219</v>
       </c>
       <c r="AQ126" t="n">
-        <v>421.9507751464844</v>
+        <v>449.1823120117188</v>
       </c>
       <c r="AR126" t="n">
-        <v>446.4047241210938</v>
-      </c>
-      <c r="AS126" t="n">
-        <v>398.7259216308594</v>
+        <v>396.2161560058594</v>
       </c>
     </row>
-    <row r="127" spans="1:45">
+    <row r="127" spans="1:44">
       <c r="A127" s="2" t="n">
         <v>43733</v>
       </c>
@@ -17884,34 +17503,31 @@
         <v>261</v>
       </c>
       <c r="AK127" t="n">
-        <v>401.8384399414062</v>
+        <v>389.0891723632812</v>
       </c>
       <c r="AL127" t="n">
-        <v>388.0590515136719</v>
+        <v>415.259033203125</v>
       </c>
       <c r="AM127" t="n">
-        <v>397.3169860839844</v>
+        <v>415.259033203125</v>
       </c>
       <c r="AN127" t="n">
-        <v>397.3169860839844</v>
+        <v>406.8282165527344</v>
       </c>
       <c r="AO127" t="n">
-        <v>428.1813049316406</v>
+        <v>390.1907653808594</v>
       </c>
       <c r="AP127" t="n">
-        <v>380.5885314941406</v>
+        <v>427.25</v>
       </c>
       <c r="AQ127" t="n">
-        <v>389.5942687988281</v>
+        <v>419.3954467773438</v>
       </c>
       <c r="AR127" t="n">
-        <v>428.4709777832031</v>
-      </c>
-      <c r="AS127" t="n">
-        <v>404.8500366210938</v>
+        <v>393.428955078125</v>
       </c>
     </row>
-    <row r="128" spans="1:45">
+    <row r="128" spans="1:44">
       <c r="A128" s="2" t="n">
         <v>43734</v>
       </c>
@@ -18021,34 +17637,31 @@
         <v>304</v>
       </c>
       <c r="AK128" t="n">
-        <v>406.0074462890625</v>
+        <v>437.0183715820312</v>
       </c>
       <c r="AL128" t="n">
-        <v>419.8331604003906</v>
+        <v>408.0696411132812</v>
       </c>
       <c r="AM128" t="n">
-        <v>423.42626953125</v>
+        <v>408.0696411132812</v>
       </c>
       <c r="AN128" t="n">
-        <v>423.42626953125</v>
+        <v>390.3096008300781</v>
       </c>
       <c r="AO128" t="n">
-        <v>389.1011047363281</v>
+        <v>409.5890808105469</v>
       </c>
       <c r="AP128" t="n">
-        <v>351.6878356933594</v>
+        <v>423.0241394042969</v>
       </c>
       <c r="AQ128" t="n">
-        <v>399.26708984375</v>
+        <v>406.3245239257812</v>
       </c>
       <c r="AR128" t="n">
-        <v>411.2675476074219</v>
-      </c>
-      <c r="AS128" t="n">
-        <v>402.3236999511719</v>
+        <v>410.9849243164062</v>
       </c>
     </row>
-    <row r="129" spans="1:45">
+    <row r="129" spans="1:44">
       <c r="A129" s="2" t="n">
         <v>43735</v>
       </c>
@@ -18158,34 +17771,31 @@
         <v>110</v>
       </c>
       <c r="AK129" t="n">
-        <v>333.2344055175781</v>
+        <v>315.5626220703125</v>
       </c>
       <c r="AL129" t="n">
-        <v>312.1837768554688</v>
+        <v>341.881591796875</v>
       </c>
       <c r="AM129" t="n">
-        <v>320.2582397460938</v>
+        <v>341.881591796875</v>
       </c>
       <c r="AN129" t="n">
-        <v>320.2582397460938</v>
+        <v>322.0553894042969</v>
       </c>
       <c r="AO129" t="n">
-        <v>336.8248291015625</v>
+        <v>273.6032104492188</v>
       </c>
       <c r="AP129" t="n">
-        <v>297.3284301757812</v>
+        <v>302.9169006347656</v>
       </c>
       <c r="AQ129" t="n">
-        <v>288.2576599121094</v>
+        <v>372.582763671875</v>
       </c>
       <c r="AR129" t="n">
-        <v>338.0452270507812</v>
-      </c>
-      <c r="AS129" t="n">
-        <v>402.6029052734375</v>
+        <v>384.4259338378906</v>
       </c>
     </row>
-    <row r="130" spans="1:45">
+    <row r="130" spans="1:44">
       <c r="A130" s="2" t="n">
         <v>43738</v>
       </c>
@@ -18295,36 +17905,33 @@
         <v>299</v>
       </c>
       <c r="AK130" t="n">
-        <v>349.7400207519531</v>
+        <v>336.627197265625</v>
       </c>
       <c r="AL130" t="n">
-        <v>339.9686889648438</v>
+        <v>324.2112731933594</v>
       </c>
       <c r="AM130" t="n">
-        <v>334.90869140625</v>
+        <v>324.2112731933594</v>
       </c>
       <c r="AN130" t="n">
-        <v>334.90869140625</v>
+        <v>339.50390625</v>
       </c>
       <c r="AO130" t="n">
-        <v>338.3505249023438</v>
+        <v>296.0447692871094</v>
       </c>
       <c r="AP130" t="n">
-        <v>299.3609924316406</v>
+        <v>340.6416320800781</v>
       </c>
       <c r="AQ130" t="n">
-        <v>359.7207946777344</v>
+        <v>415.5928955078125</v>
       </c>
       <c r="AR130" t="n">
-        <v>389.0321350097656</v>
-      </c>
-      <c r="AS130" t="n">
-        <v>404.5414123535156</v>
+        <v>373.9399108886719</v>
       </c>
     </row>
-    <row r="131" spans="1:45">
+    <row r="131" spans="1:44">
       <c r="A131" s="2" t="n">
-        <v>43475</v>
+        <v>43739</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -18432,36 +18039,33 @@
         <v>383</v>
       </c>
       <c r="AK131" t="n">
-        <v>382.1590881347656</v>
+        <v>364.5431823730469</v>
       </c>
       <c r="AL131" t="n">
-        <v>359.0862121582031</v>
+        <v>345.5664978027344</v>
       </c>
       <c r="AM131" t="n">
-        <v>374.9570007324219</v>
+        <v>345.5664978027344</v>
       </c>
       <c r="AN131" t="n">
-        <v>374.9570007324219</v>
+        <v>365.7904357910156</v>
       </c>
       <c r="AO131" t="n">
-        <v>340.0882873535156</v>
+        <v>320.3536071777344</v>
       </c>
       <c r="AP131" t="n">
-        <v>333.2411804199219</v>
+        <v>363.7275085449219</v>
       </c>
       <c r="AQ131" t="n">
-        <v>364.5332336425781</v>
+        <v>385.1191711425781</v>
       </c>
       <c r="AR131" t="n">
-        <v>380.1241149902344</v>
-      </c>
-      <c r="AS131" t="n">
-        <v>331.1203918457031</v>
+        <v>359.6116943359375</v>
       </c>
     </row>
-    <row r="132" spans="1:45">
+    <row r="132" spans="1:44">
       <c r="A132" s="2" t="n">
-        <v>43506</v>
+        <v>43740</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -18569,36 +18173,33 @@
         <v>292</v>
       </c>
       <c r="AK132" t="n">
-        <v>397.2197570800781</v>
+        <v>398.372314453125</v>
       </c>
       <c r="AL132" t="n">
-        <v>388.6439208984375</v>
+        <v>384.9071350097656</v>
       </c>
       <c r="AM132" t="n">
-        <v>402.64111328125</v>
+        <v>384.9071350097656</v>
       </c>
       <c r="AN132" t="n">
-        <v>402.64111328125</v>
+        <v>409.7431335449219</v>
       </c>
       <c r="AO132" t="n">
-        <v>425.5245971679688</v>
+        <v>380.1182556152344</v>
       </c>
       <c r="AP132" t="n">
-        <v>387.2567749023438</v>
+        <v>420.3680725097656</v>
       </c>
       <c r="AQ132" t="n">
-        <v>405.5312805175781</v>
+        <v>427.1065063476562</v>
       </c>
       <c r="AR132" t="n">
-        <v>414.4135437011719</v>
-      </c>
-      <c r="AS132" t="n">
-        <v>321.1189270019531</v>
+        <v>346.1571960449219</v>
       </c>
     </row>
-    <row r="133" spans="1:45">
+    <row r="133" spans="1:44">
       <c r="A133" s="2" t="n">
-        <v>43534</v>
+        <v>43741</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -18706,36 +18307,33 @@
         <v>254</v>
       </c>
       <c r="AK133" t="n">
-        <v>368.0289611816406</v>
+        <v>388.1910400390625</v>
       </c>
       <c r="AL133" t="n">
-        <v>362.4419555664062</v>
+        <v>368.6983337402344</v>
       </c>
       <c r="AM133" t="n">
-        <v>384.9729614257812</v>
+        <v>368.6983337402344</v>
       </c>
       <c r="AN133" t="n">
-        <v>384.9729614257812</v>
+        <v>373.406005859375</v>
       </c>
       <c r="AO133" t="n">
-        <v>358.7777099609375</v>
+        <v>359.4821472167969</v>
       </c>
       <c r="AP133" t="n">
-        <v>318.2627258300781</v>
+        <v>367.0130004882812</v>
       </c>
       <c r="AQ133" t="n">
-        <v>362.188720703125</v>
+        <v>384.1412658691406</v>
       </c>
       <c r="AR133" t="n">
-        <v>361.6826171875</v>
-      </c>
-      <c r="AS133" t="n">
-        <v>315.9293823242188</v>
+        <v>318.1690063476562</v>
       </c>
     </row>
-    <row r="134" spans="1:45">
+    <row r="134" spans="1:44">
       <c r="A134" s="2" t="n">
-        <v>43565</v>
+        <v>43742</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -18843,36 +18441,33 @@
         <v>133</v>
       </c>
       <c r="AK134" t="n">
-        <v>361.5985717773438</v>
+        <v>367.2688598632812</v>
       </c>
       <c r="AL134" t="n">
-        <v>371.9945678710938</v>
+        <v>342.3320617675781</v>
       </c>
       <c r="AM134" t="n">
-        <v>339.1860961914062</v>
+        <v>342.3320617675781</v>
       </c>
       <c r="AN134" t="n">
-        <v>339.1860961914062</v>
+        <v>372.2571716308594</v>
       </c>
       <c r="AO134" t="n">
-        <v>364.488525390625</v>
+        <v>307.5664672851562</v>
       </c>
       <c r="AP134" t="n">
-        <v>372.3196411132812</v>
+        <v>328.9937438964844</v>
       </c>
       <c r="AQ134" t="n">
-        <v>323.3125305175781</v>
+        <v>394.9735717773438</v>
       </c>
       <c r="AR134" t="n">
-        <v>358.3256530761719</v>
-      </c>
-      <c r="AS134" t="n">
-        <v>339.7438354492188</v>
+        <v>365.045166015625</v>
       </c>
     </row>
-    <row r="135" spans="1:45">
+    <row r="135" spans="1:44">
       <c r="A135" s="2" t="n">
-        <v>43656</v>
+        <v>43745</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -18980,36 +18575,33 @@
         <v>192</v>
       </c>
       <c r="AK135" t="n">
-        <v>362.2865905761719</v>
+        <v>318.7941589355469</v>
       </c>
       <c r="AL135" t="n">
-        <v>309.4609375</v>
+        <v>311.5538024902344</v>
       </c>
       <c r="AM135" t="n">
-        <v>306.3501281738281</v>
+        <v>311.5538024902344</v>
       </c>
       <c r="AN135" t="n">
-        <v>306.3501281738281</v>
+        <v>348.846923828125</v>
       </c>
       <c r="AO135" t="n">
-        <v>356.1885986328125</v>
+        <v>322.4250793457031</v>
       </c>
       <c r="AP135" t="n">
-        <v>273.0297546386719</v>
+        <v>309.4844970703125</v>
       </c>
       <c r="AQ135" t="n">
-        <v>319.9010314941406</v>
+        <v>348.1307983398438</v>
       </c>
       <c r="AR135" t="n">
-        <v>341.313232421875</v>
-      </c>
-      <c r="AS135" t="n">
-        <v>361.0333557128906</v>
+        <v>357.924560546875</v>
       </c>
     </row>
-    <row r="136" spans="1:45">
+    <row r="136" spans="1:44">
       <c r="A136" s="2" t="n">
-        <v>43687</v>
+        <v>43746</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -19117,36 +18709,33 @@
         <v>327</v>
       </c>
       <c r="AK136" t="n">
-        <v>382.9518432617188</v>
+        <v>434.7080383300781</v>
       </c>
       <c r="AL136" t="n">
-        <v>423.2428283691406</v>
+        <v>373.7220458984375</v>
       </c>
       <c r="AM136" t="n">
-        <v>409.9857482910156</v>
+        <v>373.7220458984375</v>
       </c>
       <c r="AN136" t="n">
-        <v>409.9857482910156</v>
+        <v>418.7925109863281</v>
       </c>
       <c r="AO136" t="n">
-        <v>417.1003723144531</v>
+        <v>388.1318969726562</v>
       </c>
       <c r="AP136" t="n">
-        <v>413.1649169921875</v>
+        <v>397.7088623046875</v>
       </c>
       <c r="AQ136" t="n">
-        <v>376.2966613769531</v>
+        <v>398.6759643554688</v>
       </c>
       <c r="AR136" t="n">
-        <v>390.7838439941406</v>
-      </c>
-      <c r="AS136" t="n">
-        <v>361.5862426757812</v>
+        <v>359.7815856933594</v>
       </c>
     </row>
-    <row r="137" spans="1:45">
+    <row r="137" spans="1:44">
       <c r="A137" s="2" t="n">
-        <v>43718</v>
+        <v>43747</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -19254,34 +18843,31 @@
         <v>253</v>
       </c>
       <c r="AK137" t="n">
-        <v>422.4555358886719</v>
+        <v>393.087890625</v>
       </c>
       <c r="AL137" t="n">
-        <v>391.6806335449219</v>
+        <v>410.6144409179688</v>
       </c>
       <c r="AM137" t="n">
-        <v>395.6316833496094</v>
+        <v>410.6144409179688</v>
       </c>
       <c r="AN137" t="n">
-        <v>395.6316833496094</v>
+        <v>411.9197692871094</v>
       </c>
       <c r="AO137" t="n">
-        <v>433.1588134765625</v>
+        <v>387.235107421875</v>
       </c>
       <c r="AP137" t="n">
-        <v>396.3741760253906</v>
+        <v>438.243408203125</v>
       </c>
       <c r="AQ137" t="n">
-        <v>419.6878051757812</v>
+        <v>455.776123046875</v>
       </c>
       <c r="AR137" t="n">
-        <v>427.0043334960938</v>
-      </c>
-      <c r="AS137" t="n">
-        <v>364.795654296875</v>
+        <v>399.3746337890625</v>
       </c>
     </row>
-    <row r="138" spans="1:45">
+    <row r="138" spans="1:44">
       <c r="A138" s="2" t="n">
         <v>43748</v>
       </c>
@@ -19391,36 +18977,33 @@
         <v>317</v>
       </c>
       <c r="AK138" t="n">
-        <v>413.5295104980469</v>
+        <v>419.8157653808594</v>
       </c>
       <c r="AL138" t="n">
-        <v>391.6444091796875</v>
+        <v>386.7344055175781</v>
       </c>
       <c r="AM138" t="n">
-        <v>403.5127868652344</v>
+        <v>386.7344055175781</v>
       </c>
       <c r="AN138" t="n">
-        <v>403.5127868652344</v>
+        <v>385.9884033203125</v>
       </c>
       <c r="AO138" t="n">
-        <v>379.333251953125</v>
+        <v>373.6563110351562</v>
       </c>
       <c r="AP138" t="n">
-        <v>334.3837585449219</v>
+        <v>399.1195068359375</v>
       </c>
       <c r="AQ138" t="n">
-        <v>401.855224609375</v>
+        <v>420.3543701171875</v>
       </c>
       <c r="AR138" t="n">
-        <v>387.0419311523438</v>
-      </c>
-      <c r="AS138" t="n">
-        <v>348.3756103515625</v>
+        <v>400.7958984375</v>
       </c>
     </row>
-    <row r="139" spans="1:45">
+    <row r="139" spans="1:44">
       <c r="A139" s="2" t="n">
-        <v>43779</v>
+        <v>43749</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -19528,34 +19111,31 @@
         <v>105</v>
       </c>
       <c r="AK139" t="n">
-        <v>347.4562683105469</v>
+        <v>342.7928161621094</v>
       </c>
       <c r="AL139" t="n">
-        <v>336.8518981933594</v>
+        <v>339.1371765136719</v>
       </c>
       <c r="AM139" t="n">
-        <v>336.0401306152344</v>
+        <v>339.1371765136719</v>
       </c>
       <c r="AN139" t="n">
-        <v>336.0401306152344</v>
+        <v>348.9031372070312</v>
       </c>
       <c r="AO139" t="n">
-        <v>352.0843811035156</v>
+        <v>281.4987487792969</v>
       </c>
       <c r="AP139" t="n">
-        <v>321.7490844726562</v>
+        <v>315.1056518554688</v>
       </c>
       <c r="AQ139" t="n">
-        <v>300.8270568847656</v>
+        <v>383.1550903320312</v>
       </c>
       <c r="AR139" t="n">
-        <v>338.7634582519531</v>
-      </c>
-      <c r="AS139" t="n">
-        <v>353.21533203125</v>
+        <v>382.8552551269531</v>
       </c>
     </row>
-    <row r="140" spans="1:45">
+    <row r="140" spans="1:44">
       <c r="A140" s="2" t="n">
         <v>43752</v>
       </c>
@@ -19665,34 +19245,31 @@
         <v>249</v>
       </c>
       <c r="AK140" t="n">
-        <v>313.6793212890625</v>
+        <v>330.9959716796875</v>
       </c>
       <c r="AL140" t="n">
-        <v>320.5313415527344</v>
+        <v>313.647705078125</v>
       </c>
       <c r="AM140" t="n">
-        <v>325.7978515625</v>
+        <v>313.647705078125</v>
       </c>
       <c r="AN140" t="n">
-        <v>325.7978515625</v>
+        <v>356.5432739257812</v>
       </c>
       <c r="AO140" t="n">
-        <v>354.7206726074219</v>
+        <v>287.8908081054688</v>
       </c>
       <c r="AP140" t="n">
-        <v>266.4356384277344</v>
+        <v>283.5602722167969</v>
       </c>
       <c r="AQ140" t="n">
-        <v>270.3494567871094</v>
+        <v>323.5536499023438</v>
       </c>
       <c r="AR140" t="n">
-        <v>299.7117919921875</v>
-      </c>
-      <c r="AS140" t="n">
-        <v>343.5690612792969</v>
+        <v>294.1302795410156</v>
       </c>
     </row>
-    <row r="141" spans="1:45">
+    <row r="141" spans="1:44">
       <c r="A141" s="2" t="n">
         <v>43753</v>
       </c>
@@ -19802,34 +19379,31 @@
         <v>382</v>
       </c>
       <c r="AK141" t="n">
-        <v>334.05224609375</v>
+        <v>372.5227355957031</v>
       </c>
       <c r="AL141" t="n">
-        <v>356.7040100097656</v>
+        <v>338.8425598144531</v>
       </c>
       <c r="AM141" t="n">
-        <v>369.5664367675781</v>
+        <v>338.8425598144531</v>
       </c>
       <c r="AN141" t="n">
-        <v>369.5664367675781</v>
+        <v>367.9591674804688</v>
       </c>
       <c r="AO141" t="n">
-        <v>340.6953735351562</v>
+        <v>331.9669494628906</v>
       </c>
       <c r="AP141" t="n">
-        <v>337.8443603515625</v>
+        <v>341.9562377929688</v>
       </c>
       <c r="AQ141" t="n">
-        <v>304.57275390625</v>
+        <v>325.8399353027344</v>
       </c>
       <c r="AR141" t="n">
-        <v>338.94384765625</v>
-      </c>
-      <c r="AS141" t="n">
-        <v>342.9486694335938</v>
+        <v>316.6222534179688</v>
       </c>
     </row>
-    <row r="142" spans="1:45">
+    <row r="142" spans="1:44">
       <c r="A142" s="2" t="n">
         <v>43754</v>
       </c>
@@ -19939,34 +19513,31 @@
         <v>248</v>
       </c>
       <c r="AK142" t="n">
-        <v>340.8306274414062</v>
+        <v>368.0641479492188</v>
       </c>
       <c r="AL142" t="n">
-        <v>359.8654479980469</v>
+        <v>340.8162536621094</v>
       </c>
       <c r="AM142" t="n">
-        <v>385.3746948242188</v>
+        <v>340.8162536621094</v>
       </c>
       <c r="AN142" t="n">
-        <v>385.3746948242188</v>
+        <v>409.6527099609375</v>
       </c>
       <c r="AO142" t="n">
-        <v>404.5176391601562</v>
+        <v>320.8466491699219</v>
       </c>
       <c r="AP142" t="n">
-        <v>347.1561889648438</v>
+        <v>363.6740417480469</v>
       </c>
       <c r="AQ142" t="n">
-        <v>316.4274291992188</v>
+        <v>358.1652221679688</v>
       </c>
       <c r="AR142" t="n">
-        <v>350.7513122558594</v>
-      </c>
-      <c r="AS142" t="n">
-        <v>331.8741760253906</v>
+        <v>324.8199157714844</v>
       </c>
     </row>
-    <row r="143" spans="1:45">
+    <row r="143" spans="1:44">
       <c r="A143" s="2" t="n">
         <v>43755</v>
       </c>
@@ -20076,34 +19647,31 @@
         <v>249</v>
       </c>
       <c r="AK143" t="n">
-        <v>346.1679077148438</v>
+        <v>321.7420349121094</v>
       </c>
       <c r="AL143" t="n">
-        <v>325.2284240722656</v>
+        <v>324.6513977050781</v>
       </c>
       <c r="AM143" t="n">
-        <v>365.834716796875</v>
+        <v>324.6513977050781</v>
       </c>
       <c r="AN143" t="n">
-        <v>365.834716796875</v>
+        <v>262.7195129394531</v>
       </c>
       <c r="AO143" t="n">
-        <v>262.0348205566406</v>
+        <v>345.8843994140625</v>
       </c>
       <c r="AP143" t="n">
-        <v>308.7276916503906</v>
+        <v>349.8104553222656</v>
       </c>
       <c r="AQ143" t="n">
-        <v>312.9792785644531</v>
+        <v>340.1248168945312</v>
       </c>
       <c r="AR143" t="n">
-        <v>326.5296325683594</v>
-      </c>
-      <c r="AS143" t="n">
-        <v>329.3735046386719</v>
+        <v>333.4089965820312</v>
       </c>
     </row>
-    <row r="144" spans="1:45">
+    <row r="144" spans="1:44">
       <c r="A144" s="2" t="n">
         <v>43756</v>
       </c>
@@ -20213,34 +19781,31 @@
         <v>89</v>
       </c>
       <c r="AK144" t="n">
-        <v>325.4322814941406</v>
+        <v>271.3299560546875</v>
       </c>
       <c r="AL144" t="n">
-        <v>273.412841796875</v>
+        <v>312.3303833007812</v>
       </c>
       <c r="AM144" t="n">
-        <v>287.0872497558594</v>
+        <v>312.3303833007812</v>
       </c>
       <c r="AN144" t="n">
-        <v>287.0872497558594</v>
+        <v>208.0773010253906</v>
       </c>
       <c r="AO144" t="n">
-        <v>218.5967254638672</v>
+        <v>271.2169189453125</v>
       </c>
       <c r="AP144" t="n">
-        <v>312.5468444824219</v>
+        <v>307.62255859375</v>
       </c>
       <c r="AQ144" t="n">
-        <v>251.3031768798828</v>
+        <v>324.7057800292969</v>
       </c>
       <c r="AR144" t="n">
-        <v>308.2245178222656</v>
-      </c>
-      <c r="AS144" t="n">
-        <v>356.9698791503906</v>
+        <v>343.0419616699219</v>
       </c>
     </row>
-    <row r="145" spans="1:45">
+    <row r="145" spans="1:44">
       <c r="A145" s="2" t="n">
         <v>43759</v>
       </c>
@@ -20350,34 +19915,31 @@
         <v>179</v>
       </c>
       <c r="AK145" t="n">
-        <v>313.2145385742188</v>
+        <v>259.7129516601562</v>
       </c>
       <c r="AL145" t="n">
-        <v>266.9212646484375</v>
+        <v>290.7703247070312</v>
       </c>
       <c r="AM145" t="n">
-        <v>275.2583312988281</v>
+        <v>290.7703247070312</v>
       </c>
       <c r="AN145" t="n">
-        <v>275.2583312988281</v>
+        <v>238.3258819580078</v>
       </c>
       <c r="AO145" t="n">
-        <v>256.9052429199219</v>
+        <v>277.9419250488281</v>
       </c>
       <c r="AP145" t="n">
-        <v>258.2174072265625</v>
+        <v>288.1240844726562</v>
       </c>
       <c r="AQ145" t="n">
-        <v>268.6653442382812</v>
+        <v>323.7018127441406</v>
       </c>
       <c r="AR145" t="n">
-        <v>328.7183837890625</v>
-      </c>
-      <c r="AS145" t="n">
-        <v>347.5311889648438</v>
+        <v>325.2010803222656</v>
       </c>
     </row>
-    <row r="146" spans="1:45">
+    <row r="146" spans="1:44">
       <c r="A146" s="2" t="n">
         <v>43760</v>
       </c>
@@ -20487,34 +20049,31 @@
         <v>274</v>
       </c>
       <c r="AK146" t="n">
-        <v>279.1988830566406</v>
+        <v>252.8440856933594</v>
       </c>
       <c r="AL146" t="n">
-        <v>259.1092834472656</v>
+        <v>259.598876953125</v>
       </c>
       <c r="AM146" t="n">
-        <v>256.457763671875</v>
+        <v>259.598876953125</v>
       </c>
       <c r="AN146" t="n">
-        <v>256.457763671875</v>
+        <v>250.6881866455078</v>
       </c>
       <c r="AO146" t="n">
-        <v>251.7483367919922</v>
+        <v>222.2276000976562</v>
       </c>
       <c r="AP146" t="n">
-        <v>220.1075744628906</v>
+        <v>242.5241088867188</v>
       </c>
       <c r="AQ146" t="n">
-        <v>222.2878112792969</v>
+        <v>269.4731750488281</v>
       </c>
       <c r="AR146" t="n">
-        <v>291.0314025878906</v>
-      </c>
-      <c r="AS146" t="n">
-        <v>327.7921752929688</v>
+        <v>296.4793395996094</v>
       </c>
     </row>
-    <row r="147" spans="1:45">
+    <row r="147" spans="1:44">
       <c r="A147" s="2" t="n">
         <v>43761</v>
       </c>
@@ -20624,34 +20183,31 @@
         <v>240</v>
       </c>
       <c r="AK147" t="n">
-        <v>272.4011840820312</v>
+        <v>212.7368927001953</v>
       </c>
       <c r="AL147" t="n">
-        <v>206.7892913818359</v>
+        <v>239.3408813476562</v>
       </c>
       <c r="AM147" t="n">
-        <v>193.3555908203125</v>
+        <v>239.3408813476562</v>
       </c>
       <c r="AN147" t="n">
-        <v>193.3555908203125</v>
+        <v>201.9912719726562</v>
       </c>
       <c r="AO147" t="n">
-        <v>212.0968933105469</v>
+        <v>191.4599914550781</v>
       </c>
       <c r="AP147" t="n">
-        <v>174.0681610107422</v>
+        <v>228.6820220947266</v>
       </c>
       <c r="AQ147" t="n">
-        <v>235.6028594970703</v>
+        <v>255.1015777587891</v>
       </c>
       <c r="AR147" t="n">
-        <v>268.5052185058594</v>
-      </c>
-      <c r="AS147" t="n">
-        <v>308.8540344238281</v>
+        <v>285.7266235351562</v>
       </c>
     </row>
-    <row r="148" spans="1:45">
+    <row r="148" spans="1:44">
       <c r="A148" s="2" t="n">
         <v>43762</v>
       </c>
@@ -20761,34 +20317,31 @@
         <v>234</v>
       </c>
       <c r="AK148" t="n">
-        <v>266.0498352050781</v>
+        <v>178.9595947265625</v>
       </c>
       <c r="AL148" t="n">
-        <v>166.8041534423828</v>
+        <v>221.3105773925781</v>
       </c>
       <c r="AM148" t="n">
-        <v>197.9443511962891</v>
+        <v>221.3105773925781</v>
       </c>
       <c r="AN148" t="n">
-        <v>197.9443511962891</v>
+        <v>182.5460357666016</v>
       </c>
       <c r="AO148" t="n">
-        <v>190.1436309814453</v>
+        <v>198.0873870849609</v>
       </c>
       <c r="AP148" t="n">
-        <v>152.6884765625</v>
+        <v>227.1716461181641</v>
       </c>
       <c r="AQ148" t="n">
-        <v>250.3491821289062</v>
+        <v>242.3032684326172</v>
       </c>
       <c r="AR148" t="n">
-        <v>251.8441009521484</v>
-      </c>
-      <c r="AS148" t="n">
-        <v>283.9883117675781</v>
+        <v>266.64697265625</v>
       </c>
     </row>
-    <row r="149" spans="1:45">
+    <row r="149" spans="1:44">
       <c r="A149" s="2" t="n">
         <v>43763</v>
       </c>
@@ -20898,34 +20451,31 @@
         <v>119</v>
       </c>
       <c r="AK149" t="n">
-        <v>177.4602355957031</v>
+        <v>139.7980346679688</v>
       </c>
       <c r="AL149" t="n">
-        <v>117.4518966674805</v>
+        <v>160.3389892578125</v>
       </c>
       <c r="AM149" t="n">
-        <v>185.5315551757812</v>
+        <v>160.3389892578125</v>
       </c>
       <c r="AN149" t="n">
-        <v>185.5315551757812</v>
+        <v>166.0936584472656</v>
       </c>
       <c r="AO149" t="n">
-        <v>168.606689453125</v>
+        <v>159.4249877929688</v>
       </c>
       <c r="AP149" t="n">
-        <v>170.1140899658203</v>
+        <v>124.7226715087891</v>
       </c>
       <c r="AQ149" t="n">
-        <v>107.9566345214844</v>
+        <v>142.3162841796875</v>
       </c>
       <c r="AR149" t="n">
-        <v>151.631591796875</v>
-      </c>
-      <c r="AS149" t="n">
-        <v>264.8130798339844</v>
+        <v>220.8085479736328</v>
       </c>
     </row>
-    <row r="150" spans="1:45">
+    <row r="150" spans="1:44">
       <c r="A150" s="2" t="n">
         <v>43767</v>
       </c>
@@ -21035,34 +20585,31 @@
         <v>79</v>
       </c>
       <c r="AK150" t="n">
-        <v>169.5110015869141</v>
+        <v>168.0417022705078</v>
       </c>
       <c r="AL150" t="n">
-        <v>142.4325866699219</v>
+        <v>119.2954406738281</v>
       </c>
       <c r="AM150" t="n">
-        <v>178.8470306396484</v>
+        <v>119.2954406738281</v>
       </c>
       <c r="AN150" t="n">
-        <v>178.8470306396484</v>
+        <v>187.5808868408203</v>
       </c>
       <c r="AO150" t="n">
-        <v>187.8955230712891</v>
+        <v>131.2334594726562</v>
       </c>
       <c r="AP150" t="n">
-        <v>188.5455322265625</v>
+        <v>90.36186218261719</v>
       </c>
       <c r="AQ150" t="n">
-        <v>76.53913879394531</v>
+        <v>153.1890716552734</v>
       </c>
       <c r="AR150" t="n">
-        <v>159.7376708984375</v>
-      </c>
-      <c r="AS150" t="n">
-        <v>233.7633972167969</v>
+        <v>156.2684631347656</v>
       </c>
     </row>
-    <row r="151" spans="1:45">
+    <row r="151" spans="1:44">
       <c r="A151" s="2" t="n">
         <v>43768</v>
       </c>
@@ -21172,34 +20719,31 @@
         <v>70</v>
       </c>
       <c r="AK151" t="n">
-        <v>254.7632293701172</v>
+        <v>484.0840759277344</v>
       </c>
       <c r="AL151" t="n">
-        <v>458.0231018066406</v>
+        <v>269.9396057128906</v>
       </c>
       <c r="AM151" t="n">
-        <v>484.8312683105469</v>
+        <v>269.9396057128906</v>
       </c>
       <c r="AN151" t="n">
-        <v>484.8312683105469</v>
+        <v>476.5179443359375</v>
       </c>
       <c r="AO151" t="n">
-        <v>452.0434875488281</v>
+        <v>421.2399291992188</v>
       </c>
       <c r="AP151" t="n">
-        <v>409.50244140625</v>
+        <v>334.1214904785156</v>
       </c>
       <c r="AQ151" t="n">
-        <v>260.0503540039062</v>
+        <v>346.2972106933594</v>
       </c>
       <c r="AR151" t="n">
-        <v>328.4293823242188</v>
-      </c>
-      <c r="AS151" t="n">
-        <v>256.8937072753906</v>
+        <v>202.2091979980469</v>
       </c>
     </row>
-    <row r="152" spans="1:45">
+    <row r="152" spans="1:44">
       <c r="A152" s="2" t="n">
         <v>43769</v>
       </c>
@@ -21309,36 +20853,33 @@
         <v>59</v>
       </c>
       <c r="AK152" t="n">
-        <v>308.7950744628906</v>
+        <v>364.3342895507812</v>
       </c>
       <c r="AL152" t="n">
-        <v>354.7730712890625</v>
+        <v>337.7765197753906</v>
       </c>
       <c r="AM152" t="n">
-        <v>434.5682678222656</v>
+        <v>337.7765197753906</v>
       </c>
       <c r="AN152" t="n">
-        <v>434.5682678222656</v>
+        <v>435.4346008300781</v>
       </c>
       <c r="AO152" t="n">
-        <v>427.4963684082031</v>
+        <v>281.9611206054688</v>
       </c>
       <c r="AP152" t="n">
-        <v>294.2886047363281</v>
+        <v>358.5156555175781</v>
       </c>
       <c r="AQ152" t="n">
-        <v>309.039306640625</v>
+        <v>373.8364868164062</v>
       </c>
       <c r="AR152" t="n">
-        <v>348.6043090820312</v>
-      </c>
-      <c r="AS152" t="n">
-        <v>284.2639465332031</v>
+        <v>250.4777069091797</v>
       </c>
     </row>
-    <row r="153" spans="1:45">
+    <row r="153" spans="1:44">
       <c r="A153" s="2" t="n">
-        <v>43476</v>
+        <v>43770</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -21446,36 +20987,33 @@
         <v>22</v>
       </c>
       <c r="AK153" t="n">
-        <v>311.9346618652344</v>
+        <v>347.8471069335938</v>
       </c>
       <c r="AL153" t="n">
-        <v>352.352783203125</v>
+        <v>315.9788208007812</v>
       </c>
       <c r="AM153" t="n">
-        <v>366.2677917480469</v>
+        <v>315.9788208007812</v>
       </c>
       <c r="AN153" t="n">
-        <v>366.2677917480469</v>
+        <v>280.8289794921875</v>
       </c>
       <c r="AO153" t="n">
-        <v>322.6149291992188</v>
+        <v>331.0620727539062</v>
       </c>
       <c r="AP153" t="n">
-        <v>348.7251281738281</v>
+        <v>277.3112182617188</v>
       </c>
       <c r="AQ153" t="n">
-        <v>270.0771179199219</v>
+        <v>342.7268371582031</v>
       </c>
       <c r="AR153" t="n">
-        <v>282.8369140625</v>
-      </c>
-      <c r="AS153" t="n">
-        <v>259.9258728027344</v>
+        <v>286.6728210449219</v>
       </c>
     </row>
-    <row r="154" spans="1:45">
+    <row r="154" spans="1:44">
       <c r="A154" s="2" t="n">
-        <v>43566</v>
+        <v>43773</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -21583,36 +21121,33 @@
         <v>2</v>
       </c>
       <c r="AK154" t="n">
-        <v>281.3416442871094</v>
+        <v>230.0397186279297</v>
       </c>
       <c r="AL154" t="n">
-        <v>200.9570770263672</v>
+        <v>263.0524597167969</v>
       </c>
       <c r="AM154" t="n">
-        <v>252.447998046875</v>
+        <v>263.0524597167969</v>
       </c>
       <c r="AN154" t="n">
-        <v>252.447998046875</v>
+        <v>272.2848815917969</v>
       </c>
       <c r="AO154" t="n">
-        <v>304.9952392578125</v>
+        <v>225.2185363769531</v>
       </c>
       <c r="AP154" t="n">
-        <v>199.9416656494141</v>
+        <v>215.7734527587891</v>
       </c>
       <c r="AQ154" t="n">
-        <v>204.694091796875</v>
+        <v>302.9347534179688</v>
       </c>
       <c r="AR154" t="n">
-        <v>261.4849243164062</v>
-      </c>
-      <c r="AS154" t="n">
-        <v>276.4736022949219</v>
+        <v>284.7694702148438</v>
       </c>
     </row>
-    <row r="155" spans="1:45">
+    <row r="155" spans="1:44">
       <c r="A155" s="2" t="n">
-        <v>43596</v>
+        <v>43774</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -21720,36 +21255,33 @@
         <v>256</v>
       </c>
       <c r="AK155" t="n">
-        <v>342.0158386230469</v>
+        <v>410.533203125</v>
       </c>
       <c r="AL155" t="n">
-        <v>387.4912414550781</v>
+        <v>349.0143127441406</v>
       </c>
       <c r="AM155" t="n">
-        <v>404.0400085449219</v>
+        <v>349.0143127441406</v>
       </c>
       <c r="AN155" t="n">
-        <v>404.0400085449219</v>
+        <v>407.7531433105469</v>
       </c>
       <c r="AO155" t="n">
-        <v>396.1593627929688</v>
+        <v>364.6587524414062</v>
       </c>
       <c r="AP155" t="n">
-        <v>375.4024047851562</v>
+        <v>344.4644470214844</v>
       </c>
       <c r="AQ155" t="n">
-        <v>323.1547546386719</v>
+        <v>374.9730224609375</v>
       </c>
       <c r="AR155" t="n">
-        <v>365.4287109375</v>
-      </c>
-      <c r="AS155" t="n">
-        <v>315.6437377929688</v>
+        <v>324.240966796875</v>
       </c>
     </row>
-    <row r="156" spans="1:45">
+    <row r="156" spans="1:44">
       <c r="A156" s="2" t="n">
-        <v>43627</v>
+        <v>43775</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -21857,36 +21389,33 @@
         <v>248</v>
       </c>
       <c r="AK156" t="n">
-        <v>380.0432434082031</v>
+        <v>419.3642272949219</v>
       </c>
       <c r="AL156" t="n">
-        <v>411.6037902832031</v>
+        <v>393.2843322753906</v>
       </c>
       <c r="AM156" t="n">
-        <v>422.3007202148438</v>
+        <v>393.2843322753906</v>
       </c>
       <c r="AN156" t="n">
-        <v>422.3007202148438</v>
+        <v>419.1264038085938</v>
       </c>
       <c r="AO156" t="n">
-        <v>437.1336669921875</v>
+        <v>375.6283569335938</v>
       </c>
       <c r="AP156" t="n">
-        <v>401.6079406738281</v>
+        <v>414.7496337890625</v>
       </c>
       <c r="AQ156" t="n">
-        <v>381.7791442871094</v>
+        <v>419.5070190429688</v>
       </c>
       <c r="AR156" t="n">
-        <v>411.3938598632812</v>
-      </c>
-      <c r="AS156" t="n">
-        <v>338.2802429199219</v>
+        <v>346.1819152832031</v>
       </c>
     </row>
-    <row r="157" spans="1:45">
+    <row r="157" spans="1:44">
       <c r="A157" s="2" t="n">
-        <v>43657</v>
+        <v>43776</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
@@ -21994,36 +21523,33 @@
         <v>213</v>
       </c>
       <c r="AK157" t="n">
-        <v>381.4880065917969</v>
+        <v>410.8315124511719</v>
       </c>
       <c r="AL157" t="n">
-        <v>386.5545959472656</v>
+        <v>373.7070007324219</v>
       </c>
       <c r="AM157" t="n">
-        <v>402.2339172363281</v>
+        <v>373.7070007324219</v>
       </c>
       <c r="AN157" t="n">
-        <v>402.2339172363281</v>
+        <v>382.4184265136719</v>
       </c>
       <c r="AO157" t="n">
-        <v>372.1340637207031</v>
+        <v>365.2545166015625</v>
       </c>
       <c r="AP157" t="n">
-        <v>343.4508666992188</v>
+        <v>363.8914794921875</v>
       </c>
       <c r="AQ157" t="n">
-        <v>370.6220703125</v>
+        <v>390.4349365234375</v>
       </c>
       <c r="AR157" t="n">
-        <v>370.6143798828125</v>
-      </c>
-      <c r="AS157" t="n">
-        <v>330.6389770507812</v>
+        <v>368.7913513183594</v>
       </c>
     </row>
-    <row r="158" spans="1:45">
+    <row r="158" spans="1:44">
       <c r="A158" s="2" t="n">
-        <v>43688</v>
+        <v>43777</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
@@ -22131,34 +21657,31 @@
         <v>119</v>
       </c>
       <c r="AK158" t="n">
-        <v>344.6101684570312</v>
+        <v>358.8932189941406</v>
       </c>
       <c r="AL158" t="n">
-        <v>354.4139709472656</v>
+        <v>340.1576232910156</v>
       </c>
       <c r="AM158" t="n">
-        <v>344.5733032226562</v>
+        <v>340.1576232910156</v>
       </c>
       <c r="AN158" t="n">
-        <v>344.5733032226562</v>
+        <v>366.8858337402344</v>
       </c>
       <c r="AO158" t="n">
-        <v>360.1795349121094</v>
+        <v>282.0503845214844</v>
       </c>
       <c r="AP158" t="n">
-        <v>342.3411865234375</v>
+        <v>322.7112426757812</v>
       </c>
       <c r="AQ158" t="n">
-        <v>292.8506774902344</v>
+        <v>374.0896911621094</v>
       </c>
       <c r="AR158" t="n">
-        <v>349.3048706054688</v>
-      </c>
-      <c r="AS158" t="n">
-        <v>348.0950012207031</v>
+        <v>364.6770629882812</v>
       </c>
     </row>
-    <row r="159" spans="1:45">
+    <row r="159" spans="1:44">
       <c r="A159" s="2" t="n">
         <v>43780</v>
       </c>
@@ -22268,36 +21791,33 @@
         <v>218</v>
       </c>
       <c r="AK159" t="n">
-        <v>337.3807373046875</v>
+        <v>329.4983215332031</v>
       </c>
       <c r="AL159" t="n">
-        <v>324.5357666015625</v>
+        <v>312.9384155273438</v>
       </c>
       <c r="AM159" t="n">
-        <v>327.8941040039062</v>
+        <v>312.9384155273438</v>
       </c>
       <c r="AN159" t="n">
-        <v>327.8941040039062</v>
+        <v>346.3773803710938</v>
       </c>
       <c r="AO159" t="n">
-        <v>345.9652099609375</v>
+        <v>299.86328125</v>
       </c>
       <c r="AP159" t="n">
-        <v>269.9297485351562</v>
+        <v>296.1696472167969</v>
       </c>
       <c r="AQ159" t="n">
-        <v>298.7721252441406</v>
+        <v>334.2953491210938</v>
       </c>
       <c r="AR159" t="n">
-        <v>333.8841552734375</v>
-      </c>
-      <c r="AS159" t="n">
-        <v>351.3441772460938</v>
+        <v>353.5644226074219</v>
       </c>
     </row>
-    <row r="160" spans="1:45">
+    <row r="160" spans="1:44">
       <c r="A160" s="2" t="n">
-        <v>43810</v>
+        <v>43781</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -22405,34 +21925,31 @@
         <v>327</v>
       </c>
       <c r="AK160" t="n">
-        <v>364.9835815429688</v>
+        <v>454.7189025878906</v>
       </c>
       <c r="AL160" t="n">
-        <v>436.3057556152344</v>
+        <v>377.7908935546875</v>
       </c>
       <c r="AM160" t="n">
-        <v>435.8329467773438</v>
+        <v>377.7908935546875</v>
       </c>
       <c r="AN160" t="n">
-        <v>435.8329467773438</v>
+        <v>433.2440490722656</v>
       </c>
       <c r="AO160" t="n">
-        <v>433.3056640625</v>
+        <v>399.8077392578125</v>
       </c>
       <c r="AP160" t="n">
-        <v>410.2710266113281</v>
+        <v>390.5632019042969</v>
       </c>
       <c r="AQ160" t="n">
-        <v>358.8087158203125</v>
+        <v>400.8539428710938</v>
       </c>
       <c r="AR160" t="n">
-        <v>390.3898010253906</v>
-      </c>
-      <c r="AS160" t="n">
-        <v>342.7416076660156</v>
+        <v>366.7863159179688</v>
       </c>
     </row>
-    <row r="161" spans="1:45">
+    <row r="161" spans="1:44">
       <c r="A161" s="2" t="n">
         <v>43782</v>
       </c>
@@ -22542,34 +22059,31 @@
         <v>249</v>
       </c>
       <c r="AK161" t="n">
-        <v>387.6840515136719</v>
+        <v>375.1385803222656</v>
       </c>
       <c r="AL161" t="n">
-        <v>361.2341613769531</v>
+        <v>391.2377014160156</v>
       </c>
       <c r="AM161" t="n">
-        <v>380.2164001464844</v>
+        <v>391.2377014160156</v>
       </c>
       <c r="AN161" t="n">
-        <v>380.2164001464844</v>
+        <v>398.5071716308594</v>
       </c>
       <c r="AO161" t="n">
-        <v>413.8722839355469</v>
+        <v>350.9881286621094</v>
       </c>
       <c r="AP161" t="n">
-        <v>341.1634521484375</v>
+        <v>398.8890686035156</v>
       </c>
       <c r="AQ161" t="n">
-        <v>368.7638549804688</v>
+        <v>390.1842651367188</v>
       </c>
       <c r="AR161" t="n">
-        <v>379.6760559082031</v>
-      </c>
-      <c r="AS161" t="n">
-        <v>330.7341613769531</v>
+        <v>382.2178344726562</v>
       </c>
     </row>
-    <row r="162" spans="1:45">
+    <row r="162" spans="1:44">
       <c r="A162" s="2" t="n">
         <v>43783</v>
       </c>
@@ -22679,34 +22193,31 @@
         <v>284</v>
       </c>
       <c r="AK162" t="n">
-        <v>366.3330078125</v>
+        <v>402.8293762207031</v>
       </c>
       <c r="AL162" t="n">
-        <v>373.9645690917969</v>
+        <v>362.3623962402344</v>
       </c>
       <c r="AM162" t="n">
-        <v>399.7422790527344</v>
+        <v>362.3623962402344</v>
       </c>
       <c r="AN162" t="n">
-        <v>399.7422790527344</v>
+        <v>379.1502685546875</v>
       </c>
       <c r="AO162" t="n">
-        <v>365.4832458496094</v>
+        <v>356.7733154296875</v>
       </c>
       <c r="AP162" t="n">
-        <v>331.1043395996094</v>
+        <v>358.0777282714844</v>
       </c>
       <c r="AQ162" t="n">
-        <v>343.3561706542969</v>
+        <v>362.1210327148438</v>
       </c>
       <c r="AR162" t="n">
-        <v>355.9934387207031</v>
-      </c>
-      <c r="AS162" t="n">
-        <v>347.0155944824219</v>
+        <v>379.468017578125</v>
       </c>
     </row>
-    <row r="163" spans="1:45">
+    <row r="163" spans="1:44">
       <c r="A163" s="2" t="n">
         <v>43787</v>
       </c>
@@ -22816,34 +22327,31 @@
         <v>114</v>
       </c>
       <c r="AK163" t="n">
-        <v>333.5258178710938</v>
+        <v>257.7379760742188</v>
       </c>
       <c r="AL163" t="n">
-        <v>250.1538391113281</v>
+        <v>293.2694396972656</v>
       </c>
       <c r="AM163" t="n">
-        <v>273.2749938964844</v>
+        <v>293.2694396972656</v>
       </c>
       <c r="AN163" t="n">
-        <v>273.2749938964844</v>
+        <v>262.3400268554688</v>
       </c>
       <c r="AO163" t="n">
-        <v>288.8725280761719</v>
+        <v>235.0026245117188</v>
       </c>
       <c r="AP163" t="n">
-        <v>245.0191955566406</v>
+        <v>288.6333618164062</v>
       </c>
       <c r="AQ163" t="n">
-        <v>261.4253540039062</v>
+        <v>327.6221313476562</v>
       </c>
       <c r="AR163" t="n">
-        <v>309.7944641113281</v>
-      </c>
-      <c r="AS163" t="n">
-        <v>346.3796691894531</v>
+        <v>366.1137390136719</v>
       </c>
     </row>
-    <row r="164" spans="1:45">
+    <row r="164" spans="1:44">
       <c r="A164" s="2" t="n">
         <v>43788</v>
       </c>
@@ -22953,34 +22461,31 @@
         <v>261</v>
       </c>
       <c r="AK164" t="n">
-        <v>340.6905212402344</v>
+        <v>374.3312377929688</v>
       </c>
       <c r="AL164" t="n">
-        <v>358.3671875</v>
+        <v>327.5200805664062</v>
       </c>
       <c r="AM164" t="n">
-        <v>393.1231079101562</v>
+        <v>327.5200805664062</v>
       </c>
       <c r="AN164" t="n">
-        <v>393.1231079101562</v>
+        <v>390.8538513183594</v>
       </c>
       <c r="AO164" t="n">
-        <v>371.5126953125</v>
+        <v>315.0191650390625</v>
       </c>
       <c r="AP164" t="n">
-        <v>351.525390625</v>
+        <v>324.0301208496094</v>
       </c>
       <c r="AQ164" t="n">
-        <v>290.2900085449219</v>
+        <v>352.7812194824219</v>
       </c>
       <c r="AR164" t="n">
-        <v>335.88330078125</v>
-      </c>
-      <c r="AS164" t="n">
-        <v>344.8967590332031</v>
+        <v>352.7990112304688</v>
       </c>
     </row>
-    <row r="165" spans="1:45">
+    <row r="165" spans="1:44">
       <c r="A165" s="2" t="n">
         <v>43789</v>
       </c>
@@ -23090,34 +22595,31 @@
         <v>293</v>
       </c>
       <c r="AK165" t="n">
-        <v>361.2186279296875</v>
+        <v>378.8276062011719</v>
       </c>
       <c r="AL165" t="n">
-        <v>370.4650268554688</v>
+        <v>353.4925537109375</v>
       </c>
       <c r="AM165" t="n">
-        <v>404.9835205078125</v>
+        <v>353.4925537109375</v>
       </c>
       <c r="AN165" t="n">
-        <v>404.9835205078125</v>
+        <v>391.4785766601562</v>
       </c>
       <c r="AO165" t="n">
-        <v>376.0147094726562</v>
+        <v>341.3670349121094</v>
       </c>
       <c r="AP165" t="n">
-        <v>354.2703857421875</v>
+        <v>369.963623046875</v>
       </c>
       <c r="AQ165" t="n">
-        <v>336.486328125</v>
+        <v>370.0737609863281</v>
       </c>
       <c r="AR165" t="n">
-        <v>350.7165832519531</v>
-      </c>
-      <c r="AS165" t="n">
-        <v>343.8575744628906</v>
+        <v>357.6464538574219</v>
       </c>
     </row>
-    <row r="166" spans="1:45">
+    <row r="166" spans="1:44">
       <c r="A166" s="2" t="n">
         <v>43790</v>
       </c>
@@ -23227,34 +22729,31 @@
         <v>218</v>
       </c>
       <c r="AK166" t="n">
-        <v>364.6282958984375</v>
+        <v>320.9053039550781</v>
       </c>
       <c r="AL166" t="n">
-        <v>311.8692321777344</v>
+        <v>335.3308410644531</v>
       </c>
       <c r="AM166" t="n">
-        <v>360.8788146972656</v>
+        <v>335.3308410644531</v>
       </c>
       <c r="AN166" t="n">
-        <v>360.8788146972656</v>
+        <v>284.6893615722656</v>
       </c>
       <c r="AO166" t="n">
-        <v>277.7568054199219</v>
+        <v>303.707275390625</v>
       </c>
       <c r="AP166" t="n">
-        <v>299.2428588867188</v>
+        <v>344.7140197753906</v>
       </c>
       <c r="AQ166" t="n">
-        <v>337.3753662109375</v>
+        <v>359.532958984375</v>
       </c>
       <c r="AR166" t="n">
-        <v>338.8420715332031</v>
-      </c>
-      <c r="AS166" t="n">
-        <v>324.4387817382812</v>
+        <v>353.7550048828125</v>
       </c>
     </row>
-    <row r="167" spans="1:45">
+    <row r="167" spans="1:44">
       <c r="A167" s="2" t="n">
         <v>43791</v>
       </c>
@@ -23364,34 +22863,31 @@
         <v>150</v>
       </c>
       <c r="AK167" t="n">
-        <v>332.1915283203125</v>
+        <v>356.9547424316406</v>
       </c>
       <c r="AL167" t="n">
-        <v>347.8705139160156</v>
+        <v>335.2026062011719</v>
       </c>
       <c r="AM167" t="n">
-        <v>359.3779907226562</v>
+        <v>335.2026062011719</v>
       </c>
       <c r="AN167" t="n">
-        <v>359.3779907226562</v>
+        <v>350.3457641601562</v>
       </c>
       <c r="AO167" t="n">
-        <v>341.3865966796875</v>
+        <v>283.373046875</v>
       </c>
       <c r="AP167" t="n">
-        <v>325.3949279785156</v>
+        <v>324.8891296386719</v>
       </c>
       <c r="AQ167" t="n">
-        <v>302.3883056640625</v>
+        <v>363.1885681152344</v>
       </c>
       <c r="AR167" t="n">
-        <v>322.7901611328125</v>
-      </c>
-      <c r="AS167" t="n">
-        <v>322.5381164550781</v>
+        <v>332.145263671875</v>
       </c>
     </row>
-    <row r="168" spans="1:45">
+    <row r="168" spans="1:44">
       <c r="A168" s="2" t="n">
         <v>43794</v>
       </c>
@@ -23501,34 +22997,31 @@
         <v>187</v>
       </c>
       <c r="AK168" t="n">
-        <v>313.9695129394531</v>
+        <v>285.1178283691406</v>
       </c>
       <c r="AL168" t="n">
-        <v>279.4891967773438</v>
+        <v>280.7998657226562</v>
       </c>
       <c r="AM168" t="n">
-        <v>301.1769714355469</v>
+        <v>280.7998657226562</v>
       </c>
       <c r="AN168" t="n">
-        <v>301.1769714355469</v>
+        <v>316.1293334960938</v>
       </c>
       <c r="AO168" t="n">
-        <v>305.7151794433594</v>
+        <v>280.7781982421875</v>
       </c>
       <c r="AP168" t="n">
-        <v>245.6410369873047</v>
+        <v>281.7202758789062</v>
       </c>
       <c r="AQ168" t="n">
-        <v>252.2338562011719</v>
+        <v>362.8964233398438</v>
       </c>
       <c r="AR168" t="n">
-        <v>338.6981201171875</v>
-      </c>
-      <c r="AS168" t="n">
-        <v>340.27587890625</v>
+        <v>333.9608459472656</v>
       </c>
     </row>
-    <row r="169" spans="1:45">
+    <row r="169" spans="1:44">
       <c r="A169" s="2" t="n">
         <v>43795</v>
       </c>
@@ -23638,34 +23131,31 @@
         <v>260</v>
       </c>
       <c r="AK169" t="n">
-        <v>346.9404296875</v>
+        <v>417.0567321777344</v>
       </c>
       <c r="AL169" t="n">
-        <v>397.3546142578125</v>
+        <v>330.4251403808594</v>
       </c>
       <c r="AM169" t="n">
-        <v>400.03955078125</v>
+        <v>330.4251403808594</v>
       </c>
       <c r="AN169" t="n">
-        <v>400.03955078125</v>
+        <v>427.2748413085938</v>
       </c>
       <c r="AO169" t="n">
-        <v>405.7890625</v>
+        <v>331.7904357910156</v>
       </c>
       <c r="AP169" t="n">
-        <v>350.70068359375</v>
+        <v>358.447265625</v>
       </c>
       <c r="AQ169" t="n">
-        <v>348.3821716308594</v>
+        <v>409.8496398925781</v>
       </c>
       <c r="AR169" t="n">
-        <v>372.4877319335938</v>
-      </c>
-      <c r="AS169" t="n">
-        <v>330.5917358398438</v>
+        <v>352.9090270996094</v>
       </c>
     </row>
-    <row r="170" spans="1:45">
+    <row r="170" spans="1:44">
       <c r="A170" s="2" t="n">
         <v>43796</v>
       </c>
@@ -23775,34 +23265,31 @@
         <v>202</v>
       </c>
       <c r="AK170" t="n">
-        <v>351.5518188476562</v>
+        <v>327.7469482421875</v>
       </c>
       <c r="AL170" t="n">
-        <v>313.3167114257812</v>
+        <v>346.3937683105469</v>
       </c>
       <c r="AM170" t="n">
-        <v>364.3606872558594</v>
+        <v>346.3937683105469</v>
       </c>
       <c r="AN170" t="n">
-        <v>364.3606872558594</v>
+        <v>369.9192810058594</v>
       </c>
       <c r="AO170" t="n">
-        <v>357.7532653808594</v>
+        <v>301.5211791992188</v>
       </c>
       <c r="AP170" t="n">
-        <v>284.7312927246094</v>
+        <v>358.8236999511719</v>
       </c>
       <c r="AQ170" t="n">
-        <v>356.7471618652344</v>
+        <v>389.2878723144531</v>
       </c>
       <c r="AR170" t="n">
-        <v>364.2281494140625</v>
-      </c>
-      <c r="AS170" t="n">
-        <v>318.5491943359375</v>
+        <v>324.9302062988281</v>
       </c>
     </row>
-    <row r="171" spans="1:45">
+    <row r="171" spans="1:44">
       <c r="A171" s="2" t="n">
         <v>43797</v>
       </c>
@@ -23912,34 +23399,31 @@
         <v>260</v>
       </c>
       <c r="AK171" t="n">
-        <v>330.6744995117188</v>
+        <v>341.9566040039062</v>
       </c>
       <c r="AL171" t="n">
-        <v>317.9851379394531</v>
+        <v>321.4050903320312</v>
       </c>
       <c r="AM171" t="n">
-        <v>376.8324584960938</v>
+        <v>321.4050903320312</v>
       </c>
       <c r="AN171" t="n">
-        <v>376.8324584960938</v>
+        <v>302.1010131835938</v>
       </c>
       <c r="AO171" t="n">
-        <v>291.22802734375</v>
+        <v>281.141357421875</v>
       </c>
       <c r="AP171" t="n">
-        <v>295.721435546875</v>
+        <v>324.8103332519531</v>
       </c>
       <c r="AQ171" t="n">
-        <v>294.3246765136719</v>
+        <v>343.4164733886719</v>
       </c>
       <c r="AR171" t="n">
-        <v>352.869873046875</v>
-      </c>
-      <c r="AS171" t="n">
-        <v>325.6856689453125</v>
+        <v>321.0908508300781</v>
       </c>
     </row>
-    <row r="172" spans="1:45">
+    <row r="172" spans="1:44">
       <c r="A172" s="2" t="n">
         <v>43798</v>
       </c>
@@ -24049,36 +23533,33 @@
         <v>100</v>
       </c>
       <c r="AK172" t="n">
-        <v>292.6183776855469</v>
+        <v>277.7656555175781</v>
       </c>
       <c r="AL172" t="n">
-        <v>256.2610168457031</v>
+        <v>303.3570556640625</v>
       </c>
       <c r="AM172" t="n">
-        <v>289.0042114257812</v>
+        <v>303.3570556640625</v>
       </c>
       <c r="AN172" t="n">
-        <v>289.0042114257812</v>
+        <v>215.7958374023438</v>
       </c>
       <c r="AO172" t="n">
-        <v>235.3254089355469</v>
+        <v>271.9776306152344</v>
       </c>
       <c r="AP172" t="n">
-        <v>235.1113586425781</v>
+        <v>272.2608642578125</v>
       </c>
       <c r="AQ172" t="n">
-        <v>215.8797912597656</v>
+        <v>335.9938049316406</v>
       </c>
       <c r="AR172" t="n">
-        <v>330.0506896972656</v>
-      </c>
-      <c r="AS172" t="n">
-        <v>329.3742980957031</v>
+        <v>316.7423706054688</v>
       </c>
     </row>
-    <row r="173" spans="1:45">
+    <row r="173" spans="1:44">
       <c r="A173" s="2" t="n">
-        <v>43508</v>
+        <v>43801</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -24186,36 +23667,33 @@
         <v>241</v>
       </c>
       <c r="AK173" t="n">
-        <v>275.6475219726562</v>
+        <v>270.6768493652344</v>
       </c>
       <c r="AL173" t="n">
-        <v>260.7578125</v>
+        <v>271.1915588378906</v>
       </c>
       <c r="AM173" t="n">
-        <v>302.2581787109375</v>
+        <v>271.1915588378906</v>
       </c>
       <c r="AN173" t="n">
-        <v>302.2581787109375</v>
+        <v>292.4554748535156</v>
       </c>
       <c r="AO173" t="n">
-        <v>275.0005493164062</v>
+        <v>261.5115051269531</v>
       </c>
       <c r="AP173" t="n">
-        <v>257.8479309082031</v>
+        <v>266.3301696777344</v>
       </c>
       <c r="AQ173" t="n">
-        <v>268.128662109375</v>
+        <v>286.9794616699219</v>
       </c>
       <c r="AR173" t="n">
-        <v>310.2982788085938</v>
-      </c>
-      <c r="AS173" t="n">
-        <v>317.3756713867188</v>
+        <v>291.1119689941406</v>
       </c>
     </row>
-    <row r="174" spans="1:45">
+    <row r="174" spans="1:44">
       <c r="A174" s="2" t="n">
-        <v>43536</v>
+        <v>43802</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
@@ -24323,36 +23801,33 @@
         <v>235</v>
       </c>
       <c r="AK174" t="n">
-        <v>296.6342163085938</v>
+        <v>340.9688720703125</v>
       </c>
       <c r="AL174" t="n">
-        <v>320.9727478027344</v>
+        <v>301.5016784667969</v>
       </c>
       <c r="AM174" t="n">
-        <v>355.2162475585938</v>
+        <v>301.5016784667969</v>
       </c>
       <c r="AN174" t="n">
-        <v>355.2162475585938</v>
+        <v>330.6697082519531</v>
       </c>
       <c r="AO174" t="n">
-        <v>316.8084716796875</v>
+        <v>287.9567260742188</v>
       </c>
       <c r="AP174" t="n">
-        <v>299.7084045410156</v>
+        <v>282.6124877929688</v>
       </c>
       <c r="AQ174" t="n">
-        <v>281.0365295410156</v>
+        <v>303.3093566894531</v>
       </c>
       <c r="AR174" t="n">
-        <v>298.3501586914062</v>
-      </c>
-      <c r="AS174" t="n">
-        <v>288.4643249511719</v>
+        <v>288.9943542480469</v>
       </c>
     </row>
-    <row r="175" spans="1:45">
+    <row r="175" spans="1:44">
       <c r="A175" s="2" t="n">
-        <v>43567</v>
+        <v>43803</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -24460,36 +23935,33 @@
         <v>191</v>
       </c>
       <c r="AK175" t="n">
-        <v>318.080078125</v>
+        <v>295.8347473144531</v>
       </c>
       <c r="AL175" t="n">
-        <v>289.7166748046875</v>
+        <v>298.16845703125</v>
       </c>
       <c r="AM175" t="n">
-        <v>367.6028137207031</v>
+        <v>298.16845703125</v>
       </c>
       <c r="AN175" t="n">
-        <v>367.6028137207031</v>
+        <v>361.4114990234375</v>
       </c>
       <c r="AO175" t="n">
-        <v>351.1614990234375</v>
+        <v>264.1037292480469</v>
       </c>
       <c r="AP175" t="n">
-        <v>294.6366882324219</v>
+        <v>279.9281311035156</v>
       </c>
       <c r="AQ175" t="n">
-        <v>263.5684204101562</v>
+        <v>312.0267333984375</v>
       </c>
       <c r="AR175" t="n">
-        <v>303.9928283691406</v>
-      </c>
-      <c r="AS175" t="n">
-        <v>275.03662109375</v>
+        <v>301.0350036621094</v>
       </c>
     </row>
-    <row r="176" spans="1:45">
+    <row r="176" spans="1:44">
       <c r="A176" s="2" t="n">
-        <v>43597</v>
+        <v>43804</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -24597,36 +24069,33 @@
         <v>205</v>
       </c>
       <c r="AK176" t="n">
-        <v>282.5932312011719</v>
+        <v>227.3897552490234</v>
       </c>
       <c r="AL176" t="n">
-        <v>237.2545471191406</v>
+        <v>285.1369934082031</v>
       </c>
       <c r="AM176" t="n">
-        <v>326.5200500488281</v>
+        <v>285.1369934082031</v>
       </c>
       <c r="AN176" t="n">
-        <v>326.5200500488281</v>
+        <v>214.0760192871094</v>
       </c>
       <c r="AO176" t="n">
-        <v>233.5147094726562</v>
+        <v>272.6587219238281</v>
       </c>
       <c r="AP176" t="n">
-        <v>253.7959289550781</v>
+        <v>267.81298828125</v>
       </c>
       <c r="AQ176" t="n">
-        <v>245.8063659667969</v>
+        <v>288.8363647460938</v>
       </c>
       <c r="AR176" t="n">
-        <v>253.6756134033203</v>
-      </c>
-      <c r="AS176" t="n">
-        <v>252.6580047607422</v>
+        <v>269.1155395507812</v>
       </c>
     </row>
-    <row r="177" spans="1:45">
+    <row r="177" spans="1:44">
       <c r="A177" s="2" t="n">
-        <v>43628</v>
+        <v>43805</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
@@ -24734,36 +24203,33 @@
         <v>80</v>
       </c>
       <c r="AK177" t="n">
-        <v>272.2581787109375</v>
+        <v>244.5361175537109</v>
       </c>
       <c r="AL177" t="n">
-        <v>246.4397583007812</v>
+        <v>255.1565551757812</v>
       </c>
       <c r="AM177" t="n">
-        <v>282.8792114257812</v>
+        <v>255.1565551757812</v>
       </c>
       <c r="AN177" t="n">
-        <v>282.8792114257812</v>
+        <v>214.1642303466797</v>
       </c>
       <c r="AO177" t="n">
-        <v>223.8552093505859</v>
+        <v>207.8083801269531</v>
       </c>
       <c r="AP177" t="n">
-        <v>231.5616455078125</v>
+        <v>235.46142578125</v>
       </c>
       <c r="AQ177" t="n">
-        <v>214.8185882568359</v>
+        <v>300.1362609863281</v>
       </c>
       <c r="AR177" t="n">
-        <v>301.4539794921875</v>
-      </c>
-      <c r="AS177" t="n">
-        <v>292.2879943847656</v>
+        <v>283.6427001953125</v>
       </c>
     </row>
-    <row r="178" spans="1:45">
+    <row r="178" spans="1:44">
       <c r="A178" s="2" t="n">
-        <v>43720</v>
+        <v>43808</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -24871,36 +24337,33 @@
         <v>158</v>
       </c>
       <c r="AK178" t="n">
-        <v>219.9276733398438</v>
+        <v>219.3100738525391</v>
       </c>
       <c r="AL178" t="n">
-        <v>221.5497131347656</v>
+        <v>213.8418579101562</v>
       </c>
       <c r="AM178" t="n">
-        <v>235.5145263671875</v>
+        <v>213.8418579101562</v>
       </c>
       <c r="AN178" t="n">
-        <v>235.5145263671875</v>
+        <v>237.9763793945312</v>
       </c>
       <c r="AO178" t="n">
-        <v>224.5554962158203</v>
+        <v>188.1990966796875</v>
       </c>
       <c r="AP178" t="n">
-        <v>166.5785522460938</v>
+        <v>189.2478637695312</v>
       </c>
       <c r="AQ178" t="n">
-        <v>191.781982421875</v>
+        <v>235.7874755859375</v>
       </c>
       <c r="AR178" t="n">
-        <v>215.1992340087891</v>
-      </c>
-      <c r="AS178" t="n">
-        <v>272.2466125488281</v>
+        <v>250.9493713378906</v>
       </c>
     </row>
-    <row r="179" spans="1:45">
+    <row r="179" spans="1:44">
       <c r="A179" s="2" t="n">
-        <v>43750</v>
+        <v>43809</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -25008,36 +24471,33 @@
         <v>211</v>
       </c>
       <c r="AK179" t="n">
-        <v>225.6918182373047</v>
+        <v>195.1354827880859</v>
       </c>
       <c r="AL179" t="n">
-        <v>203.4925231933594</v>
+        <v>191.4246826171875</v>
       </c>
       <c r="AM179" t="n">
-        <v>196.051513671875</v>
+        <v>191.4246826171875</v>
       </c>
       <c r="AN179" t="n">
-        <v>196.051513671875</v>
+        <v>180.4255065917969</v>
       </c>
       <c r="AO179" t="n">
-        <v>166.2486267089844</v>
+        <v>176.4026031494141</v>
       </c>
       <c r="AP179" t="n">
-        <v>189.3419494628906</v>
+        <v>180.0777587890625</v>
       </c>
       <c r="AQ179" t="n">
-        <v>165.2982482910156</v>
+        <v>218.6122894287109</v>
       </c>
       <c r="AR179" t="n">
-        <v>235.7368774414062</v>
-      </c>
-      <c r="AS179" t="n">
-        <v>265.4876403808594</v>
+        <v>243.6591033935547</v>
       </c>
     </row>
-    <row r="180" spans="1:45">
+    <row r="180" spans="1:44">
       <c r="A180" s="2" t="n">
-        <v>43781</v>
+        <v>43810</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -25145,34 +24605,31 @@
         <v>144</v>
       </c>
       <c r="AK180" t="n">
-        <v>182.5059356689453</v>
+        <v>142.2659149169922</v>
       </c>
       <c r="AL180" t="n">
-        <v>146.2402954101562</v>
+        <v>142.6916046142578</v>
       </c>
       <c r="AM180" t="n">
-        <v>136.6585998535156</v>
+        <v>142.6916046142578</v>
       </c>
       <c r="AN180" t="n">
-        <v>136.6585998535156</v>
+        <v>144.3287506103516</v>
       </c>
       <c r="AO180" t="n">
-        <v>141.1182556152344</v>
+        <v>84.20785522460938</v>
       </c>
       <c r="AP180" t="n">
-        <v>80.46726226806641</v>
+        <v>116.203125</v>
       </c>
       <c r="AQ180" t="n">
-        <v>102.2202072143555</v>
+        <v>155.1008605957031</v>
       </c>
       <c r="AR180" t="n">
-        <v>187.4691467285156</v>
-      </c>
-      <c r="AS180" t="n">
-        <v>238.7061004638672</v>
+        <v>208.8530883789062</v>
       </c>
     </row>
-    <row r="181" spans="1:45">
+    <row r="181" spans="1:44">
       <c r="A181" s="2" t="n">
         <v>43811</v>
       </c>
@@ -25282,34 +24739,31 @@
         <v>171</v>
       </c>
       <c r="AK181" t="n">
-        <v>123.3544006347656</v>
+        <v>126.1338348388672</v>
       </c>
       <c r="AL181" t="n">
-        <v>112.1301422119141</v>
+        <v>100.1415939331055</v>
       </c>
       <c r="AM181" t="n">
-        <v>124.9968795776367</v>
+        <v>100.1415939331055</v>
       </c>
       <c r="AN181" t="n">
-        <v>124.9968795776367</v>
+        <v>127.6327209472656</v>
       </c>
       <c r="AO181" t="n">
-        <v>107.7273483276367</v>
+        <v>83.82152557373047</v>
       </c>
       <c r="AP181" t="n">
-        <v>143.6789855957031</v>
+        <v>69.31018829345703</v>
       </c>
       <c r="AQ181" t="n">
-        <v>37.79909515380859</v>
+        <v>95.80536651611328</v>
       </c>
       <c r="AR181" t="n">
-        <v>131.6428680419922</v>
-      </c>
-      <c r="AS181" t="n">
-        <v>209.2560729980469</v>
+        <v>163.9321136474609</v>
       </c>
     </row>
-    <row r="182" spans="1:45">
+    <row r="182" spans="1:44">
       <c r="A182" s="2" t="n">
         <v>43812</v>
       </c>
@@ -25419,34 +24873,31 @@
         <v>50</v>
       </c>
       <c r="AK182" t="n">
-        <v>101.5398559570312</v>
+        <v>83.58169555664062</v>
       </c>
       <c r="AL182" t="n">
-        <v>76.47987365722656</v>
+        <v>79.64840698242188</v>
       </c>
       <c r="AM182" t="n">
-        <v>83.83409118652344</v>
+        <v>79.64840698242188</v>
       </c>
       <c r="AN182" t="n">
-        <v>83.83409118652344</v>
+        <v>80.02361297607422</v>
       </c>
       <c r="AO182" t="n">
-        <v>80.75560760498047</v>
+        <v>66.70469665527344</v>
       </c>
       <c r="AP182" t="n">
-        <v>117.2759857177734</v>
+        <v>25.00460815429688</v>
       </c>
       <c r="AQ182" t="n">
-        <v>9</v>
+        <v>67.7344970703125</v>
       </c>
       <c r="AR182" t="n">
-        <v>86.49225616455078</v>
-      </c>
-      <c r="AS182" t="n">
-        <v>191.6356658935547</v>
+        <v>155.4990997314453</v>
       </c>
     </row>
-    <row r="183" spans="1:45">
+    <row r="183" spans="1:44">
       <c r="A183" s="2" t="n">
         <v>43815</v>
       </c>
@@ -25556,31 +25007,28 @@
         <v>89</v>
       </c>
       <c r="AK183" t="n">
+        <v>76.75289916992188</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>58.75720596313477</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>58.75720596313477</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>67.75096130371094</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>25.78717613220215</v>
+      </c>
+      <c r="AP183" t="n">
         <v>9</v>
-      </c>
-      <c r="AL183" t="n">
-        <v>62.56006622314453</v>
-      </c>
-      <c r="AM183" t="n">
-        <v>55.82281875610352</v>
-      </c>
-      <c r="AN183" t="n">
-        <v>55.82281875610352</v>
-      </c>
-      <c r="AO183" t="n">
-        <v>67.86612701416016</v>
-      </c>
-      <c r="AP183" t="n">
-        <v>92.8607177734375</v>
       </c>
       <c r="AQ183" t="n">
         <v>9</v>
       </c>
       <c r="AR183" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS183" t="n">
-        <v>108.3227691650391</v>
+        <v>81.17075347900391</v>
       </c>
     </row>
   </sheetData>
